--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89EE1E1-8FF4-ED46-A87E-22D6AF75D0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B0E7B-8497-BC41-8B63-BB119779386F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Config" sheetId="2" r:id="rId3"/>
+    <sheet name="Config" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ListStatus">Workshop!$G$99:$G$106</definedName>
+    <definedName name="ListStatus">Workshop!$G$100:$G$107</definedName>
     <definedName name="Status">Config!$B$3:$B$10</definedName>
     <definedName name="StBlocked">Config!$B$7</definedName>
     <definedName name="StCompleted">Config!$B$6</definedName>
@@ -28,9 +27,9 @@
     <definedName name="StPlanned">Config!$B$4</definedName>
     <definedName name="StThirdParty">Config!$B$8</definedName>
     <definedName name="StWillNotPursue">Config!$B$9</definedName>
-    <definedName name="WorkshopData">Workshop!$A$1:$Y$219</definedName>
+    <definedName name="WorkshopData">Workshop!$A$1:$AA$220</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,16 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Then</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Zero Trust Workshop - Devices</t>
   </si>
@@ -83,16 +73,10 @@
     <t>Third Party</t>
   </si>
   <si>
-    <t>Will not puruse</t>
-  </si>
-  <si>
     <t>In progress</t>
   </si>
   <si>
     <t>Device filters</t>
-  </si>
-  <si>
-    <t>Third party</t>
   </si>
   <si>
     <t>MS Roadmap</t>
@@ -118,12 +102,42 @@
   <si>
     <t>Data protection</t>
   </si>
+  <si>
+    <t>Access requirements</t>
+  </si>
+  <si>
+    <t>Conditional launch</t>
+  </si>
+  <si>
+    <t>Will not pursue</t>
+  </si>
+  <si>
+    <t>Review App config vs App protection policies</t>
+  </si>
+  <si>
+    <t>App config settings</t>
+  </si>
+  <si>
+    <t>Data protection framework using App protection</t>
+  </si>
+  <si>
+    <t>MAM Compliance and Conditional Access</t>
+  </si>
+  <si>
+    <t>RBAC</t>
+  </si>
+  <si>
+    <t>Remote actions</t>
+  </si>
+  <si>
+    <t>Icons from icons8.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,11 +148,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Segoe UI"/>
     </font>
     <font>
@@ -162,12 +171,34 @@
       <name val="Segoe UI"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="24"/>
       <color theme="0"/>
-      <name val="Segoe UI Semibold"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="3" tint="0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,25 +207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,24 +219,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF3969AD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -267,32 +274,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -322,87 +303,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color theme="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyFont="0" applyAlignment="0">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="WorkItem" xfId="2" xr:uid="{0F6335E5-33B1-7644-B498-B1E7394136F4}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -473,40 +504,140 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF8E7CC3"/>
-          <bgColor rgb="FF8E7CC3"/>
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
+          <fgColor rgb="FFB4A7D6"/>
+          <bgColor rgb="FFB4A7D6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF6B26B"/>
-          <bgColor rgb="FFF6B26B"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6FA8DC"/>
-          <bgColor rgb="FF6FA8DC"/>
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9FC5E8"/>
+          <bgColor rgb="FF9FC5E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4A7D6"/>
+          <bgColor rgb="FFB4A7D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9FC5E8"/>
+          <bgColor rgb="FF9FC5E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -514,16 +645,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF1500"/>
-      <color rgb="FFFF2600"/>
-      <color rgb="FFFFD8FD"/>
-      <color rgb="FFF0BDBC"/>
-      <color rgb="FFFDB8A7"/>
-      <color rgb="FFFF8273"/>
-      <color rgb="FFFDEAFF"/>
+      <color rgb="FFD6D6D6"/>
+      <color rgb="FFAAAAAA"/>
+      <color rgb="FF7A81FF"/>
+      <color rgb="FFD5FC79"/>
+      <color rgb="FFFFD579"/>
+      <color rgb="FF0096FF"/>
+      <color rgb="FF3969AD"/>
+      <color rgb="FFF8ECE5"/>
+      <color rgb="FFFFFD78"/>
       <color rgb="FFE8FFE6"/>
-      <color rgb="FFE0F6DB"/>
-      <color rgb="FFFCE7FD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -543,13 +674,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>406400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -618,13 +749,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -684,13 +815,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>520700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -732,15 +863,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>317500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>698500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -770,7 +901,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7480300" y="3098800"/>
+          <a:off x="6959600" y="2286000"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -782,15 +913,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>698500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -832,15 +963,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>292100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>673100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -882,15 +1013,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>279400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -934,14 +1065,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -956,8 +1087,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="355600" y="5003800"/>
-          <a:ext cx="1574800" cy="1460500"/>
+          <a:off x="355600" y="5207000"/>
+          <a:ext cx="1841500" cy="1460500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1011,7 +1142,33 @@
               <a:latin typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:cs typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>App Protection Policies for iOS</a:t>
+            <a:t>App Protection </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>for</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>iOS devices</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1022,14 +1179,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1044,8 +1201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330200" y="4572000"/>
-          <a:ext cx="17297400" cy="3454400"/>
+          <a:off x="330200" y="3759200"/>
+          <a:ext cx="20256500" cy="6629400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1086,15 +1243,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1137,15 +1294,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>368300</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1174,7 +1331,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="4787900"/>
+          <a:off x="863600" y="4038600"/>
           <a:ext cx="469900" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1187,15 +1344,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>368300</xdr:rowOff>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1224,7 +1381,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="4787900"/>
+          <a:off x="1397000" y="4038600"/>
           <a:ext cx="469900" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1238,13 +1395,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>596900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1288,13 +1445,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>584200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1324,7 +1481,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2755900" y="5130800"/>
+          <a:off x="2895600" y="4318000"/>
           <a:ext cx="342900" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1334,20 +1491,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="381000" cy="381000"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Graphic 35">
+        <xdr:cNvPr id="38" name="Graphic 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AB9627-DDE0-F745-AAE0-E0BF594C6A2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C51BD0-5709-D31D-B503-EFD126C56861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,10 +1518,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1369,57 +1531,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7378700" y="3098800"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>368300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Graphic 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C51BD0-5709-D31D-B503-EFD126C56861}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="355600" y="190500"/>
+          <a:off x="622300" y="177800"/>
           <a:ext cx="965200" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1434,13 +1546,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1455,8 +1567,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2717800" y="679450"/>
-          <a:ext cx="3517900" cy="571500"/>
+          <a:off x="2501900" y="673100"/>
+          <a:ext cx="3517900" cy="412750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1464,11 +1576,14 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF1500"/>
+          <a:srgbClr val="C00000"/>
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="10000"/>
+              <a:lumOff val="90000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1494,7 +1609,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="2000" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -1510,16 +1625,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1511300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1534,8 +1649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="679450"/>
-          <a:ext cx="5994400" cy="571500"/>
+          <a:off x="4978400" y="679450"/>
+          <a:ext cx="9347200" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1550,7 +1665,10 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="10000"/>
+              <a:lumOff val="90000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1592,7 +1710,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="2000" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1608,16 +1726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1632,76 +1750,18 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6235700" y="962025"/>
-          <a:ext cx="812800" cy="6350"/>
+          <a:off x="6019800" y="876300"/>
+          <a:ext cx="622300" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1498600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>163513</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63703EA-6CD8-E6C0-2BA1-214BB2D23F24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="47" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13030200" y="950913"/>
-          <a:ext cx="723900" cy="1587"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="10000"/>
+              <a:lumOff val="90000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -1729,15 +1789,80 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63703EA-6CD8-E6C0-2BA1-214BB2D23F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14325600" y="879475"/>
+          <a:ext cx="838200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="10000"/>
+              <a:lumOff val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1752,8 +1877,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13754100" y="666750"/>
-          <a:ext cx="4165600" cy="571500"/>
+          <a:off x="13411200" y="679450"/>
+          <a:ext cx="4165600" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1768,7 +1893,10 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="10000"/>
+              <a:lumOff val="90000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1794,7 +1922,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="2000" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1808,11 +1936,1872 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphic 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E996351-8C50-DF41-B68E-3A688B3B2E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="5880100"/>
+          <a:ext cx="368300" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261FDBE9-FFC8-FD5C-0728-6A79002F2A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1111250" y="5264150"/>
+          <a:ext cx="2882900" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D6D6D6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Foundational</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> requirements</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1400" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F49F598-7025-1648-8882-9067572FBC92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="5391150"/>
+          <a:ext cx="6038850" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D6D6D6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Setup App Protection Policies</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>565150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphic 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E5882E-D8E2-E941-B26E-98A70BED514D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="4337050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>565150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8955D9F-008F-B242-BEE2-A386ED698232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="4337050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>565150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Graphic 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBCB2E2-1AEC-AC46-8D5C-D274CFEF489F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="4337050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A9EDCB-5487-D04B-B401-9B5DD3FB00F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1727200" y="9220200"/>
+          <a:ext cx="1600200" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D6D6D6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Advanced reqs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Graphic 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0603AAFC-BA71-3C4C-A5C5-4F2F3E1F190A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="4337050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Graphic 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6AF790-189E-7143-8764-2776E84F4C20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Graphic 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EAD6801-974A-7A42-A94A-C5365094008F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Graphic 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6948DB-6676-AD4E-93C7-07F68F98407A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Graphic 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936594C0-5CB2-4945-86FD-A870E2B0902B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11785600" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rounded Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C94BE23-E1B3-F042-B734-A95AE568383D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="12395200"/>
+          <a:ext cx="1828800" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 14972"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MAM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>App Protection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>for </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Android devices</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9BE1D9-B6E8-F945-A663-D08D0BFA909C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="3759200"/>
+          <a:ext cx="20256500" cy="6629400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6831"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="469900" cy="469900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Graphic 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC044AB9-990A-A040-B9A5-791DEBFF5CE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="11036300"/>
+          <a:ext cx="469900" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="469900" cy="469900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Graphic 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93D5FDF-5E38-F948-B8F8-1B9E9420A577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1397000" y="11036300"/>
+          <a:ext cx="469900" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Graphic 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83BE335-8A41-3844-9F37-3FFCF44875B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="5880100"/>
+          <a:ext cx="368300" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="342900" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Graphic 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596FA845-D7A7-2546-B582-FAEEB3DA3909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="4318000"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Graphic 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F803C7-CEF3-8544-94C2-35EFBE35151D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="9080500"/>
+          <a:ext cx="368300" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rounded Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFB1209-82AB-BD4A-9ABD-58F71BE91C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1111250" y="5264150"/>
+          <a:ext cx="2882900" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D6D6D6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Foundational</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> requirements</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1400" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rounded Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FADADA5-D0B8-334B-AAE1-B581DC7A4FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="5391150"/>
+          <a:ext cx="6242050" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D6D6D6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Setup App Protection Policies</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Graphic 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B9B8D8-1841-CE4C-992B-B7747257E3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="4337050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Graphic 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579A0188-3705-474E-8CA3-FE2A25C9C7B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="4337050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Graphic 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7B7D51-F861-7B4F-A2EC-209733A33062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="4337050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rounded Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F102FC-0701-D346-A17C-9BF2FA723AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1727200" y="9220200"/>
+          <a:ext cx="1600200" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D6D6D6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Advanced reqs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Graphic 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16594DB1-F9CD-DA46-973E-081B65232C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="9112250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Graphic 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AEC344-7499-5248-B64A-0FF42DC3D849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7785100" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Graphic 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D09339-F836-8B4E-94B3-54FC55FBAFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9893300" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Graphic 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E6144F-6B6B-5544-8167-CB8150077ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11988800" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Graphic 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6CFB63-5240-8642-9993-2D60D0A7EB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13995400" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Graphic 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2758A9E-6639-72D4-F839-E964542B9702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="6959600"/>
+          <a:ext cx="1549400" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Graphic 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B665BF09-512F-A616-6378-CD79B7AE45F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596900" y="14198600"/>
+          <a:ext cx="1422400" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2132,791 +4121,3896 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E79FC9-5461-0546-9AF4-8CAC28930DC7}">
-  <dimension ref="A1:Y106"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="3.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="0.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="2.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="5"/>
-    <col min="11" max="11" width="2.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="0.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="2.33203125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="1.83203125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="23.1640625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="2" style="5" customWidth="1"/>
-    <col min="20" max="20" width="0.1640625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="2.33203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="2" style="5" customWidth="1"/>
-    <col min="24" max="24" width="20.83203125" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="3.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="0.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="2.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="24.1640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="2.1640625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="25.33203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="2.1640625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="0.1640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="2.33203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="26.6640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="2" style="3" customWidth="1"/>
+    <col min="26" max="26" width="22" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="10" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-    </row>
-    <row r="2" spans="1:25" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="1:32" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="5"/>
+    </row>
+    <row r="3" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" spans="1:32" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="1:32" s="16" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+    </row>
+    <row r="8" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+    </row>
+    <row r="9" spans="1:32" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+    </row>
+    <row r="10" spans="1:32" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+    </row>
+    <row r="11" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+    </row>
+    <row r="12" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+    </row>
+    <row r="13" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+    </row>
+    <row r="14" spans="1:32" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+    </row>
+    <row r="15" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="20"/>
-    </row>
-    <row r="3" spans="1:25" ht="11" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-    </row>
-    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="23" t="s">
-        <v>0</v>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="20" t="s">
+        <v>7</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="24" t="s">
-        <v>1</v>
+      <c r="M15" s="16"/>
+      <c r="N15" s="20" t="s">
+        <v>19</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="24" t="s">
+      <c r="O15" s="16"/>
+      <c r="P15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+    </row>
+    <row r="16" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+    </row>
+    <row r="17" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+    </row>
+    <row r="18" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="20"/>
-    </row>
-    <row r="5" spans="1:25" ht="5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="20"/>
-    </row>
-    <row r="6" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-    </row>
-    <row r="7" spans="1:25" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="T7" s="26"/>
-    </row>
-    <row r="8" spans="1:25" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="T8" s="26"/>
-    </row>
-    <row r="9" spans="1:25" ht="76" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="N9" s="17" t="s">
-        <v>12</v>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+    </row>
+    <row r="19" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+    </row>
+    <row r="20" spans="1:32" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="18" t="s">
+        <v>22</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="O20" s="16"/>
+      <c r="P20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="16"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+    </row>
+    <row r="21" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="16"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+    </row>
+    <row r="22" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+    </row>
+    <row r="23" spans="1:32" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+    </row>
+    <row r="24" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+    </row>
+    <row r="25" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+    </row>
+    <row r="26" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+    </row>
+    <row r="27" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+    </row>
+    <row r="28" spans="1:32" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+    </row>
+    <row r="29" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+    </row>
+    <row r="30" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+    </row>
+    <row r="31" spans="1:32" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="17" t="s">
-        <v>16</v>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+    </row>
+    <row r="32" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="20" t="s">
+        <v>2</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="26"/>
-      <c r="V9" s="18" t="s">
-        <v>17</v>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+    </row>
+    <row r="33" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+    </row>
+    <row r="34" spans="1:32" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="18" t="s">
+        <v>22</v>
       </c>
-      <c r="X9" s="17" t="s">
-        <v>18</v>
+      <c r="O34" s="16"/>
+      <c r="P34" s="18" t="s">
+        <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="26"/>
-      <c r="G10" s="7"/>
-      <c r="L10" s="26"/>
-      <c r="N10" s="8" t="s">
-        <v>5</v>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="18" t="s">
+        <v>24</v>
       </c>
-      <c r="P10" s="8" t="s">
-        <v>5</v>
+      <c r="S34" s="16"/>
+      <c r="T34" s="18" t="s">
+        <v>25</v>
       </c>
-      <c r="R10" s="8" t="s">
-        <v>5</v>
+      <c r="U34" s="16"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+    </row>
+    <row r="35" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="20" t="s">
+        <v>7</v>
       </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="26"/>
-      <c r="V10" s="8" t="s">
-        <v>14</v>
+      <c r="O35" s="16"/>
+      <c r="P35" s="20" t="s">
+        <v>7</v>
       </c>
-      <c r="X10" s="8" t="s">
-        <v>14</v>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="20" t="s">
+        <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="T11" s="26"/>
-    </row>
-    <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="T12" s="26"/>
-    </row>
-    <row r="13" spans="1:25" ht="64" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="26"/>
-      <c r="G13" s="19" t="s">
-        <v>19</v>
+      <c r="S35" s="16"/>
+      <c r="T35" s="20" t="s">
+        <v>7</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="N13" s="18" t="s">
+      <c r="U35" s="16"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+    </row>
+    <row r="36" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+    </row>
+    <row r="37" spans="1:32" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="26"/>
-    </row>
-    <row r="14" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="26"/>
-      <c r="G14" s="8" t="s">
-        <v>5</v>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+    </row>
+    <row r="38" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="20" t="s">
+        <v>2</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="N14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="26"/>
-    </row>
-    <row r="15" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="T15" s="26"/>
-    </row>
-    <row r="16" spans="1:25" ht="65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="26"/>
-      <c r="G16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="26"/>
-      <c r="T16" s="26"/>
-    </row>
-    <row r="17" spans="5:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="26"/>
-      <c r="G17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="26"/>
-      <c r="T17" s="26"/>
-    </row>
-    <row r="18" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="T18" s="26"/>
-    </row>
-    <row r="19" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="T19" s="26"/>
-    </row>
-    <row r="20" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="T20" s="26"/>
-    </row>
-    <row r="21" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="T21" s="26"/>
-    </row>
-    <row r="22" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="T22" s="26"/>
-    </row>
-    <row r="23" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="T23" s="26"/>
-    </row>
-    <row r="24" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="T24" s="26"/>
-    </row>
-    <row r="25" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="T25" s="26"/>
-    </row>
-    <row r="26" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="T26" s="26"/>
-    </row>
-    <row r="27" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="T27" s="26"/>
-    </row>
-    <row r="28" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="T28" s="26"/>
-    </row>
-    <row r="29" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="T29" s="26"/>
-    </row>
-    <row r="30" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="T30" s="26"/>
-    </row>
-    <row r="31" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="T31" s="26"/>
-    </row>
-    <row r="32" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="T32" s="26"/>
-    </row>
-    <row r="33" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="T33" s="26"/>
-    </row>
-    <row r="34" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="T34" s="26"/>
-    </row>
-    <row r="35" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="T35" s="26"/>
-    </row>
-    <row r="36" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="T36" s="26"/>
-    </row>
-    <row r="37" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="T37" s="26"/>
-    </row>
-    <row r="38" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="T38" s="26"/>
-    </row>
-    <row r="39" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="T39" s="26"/>
-    </row>
-    <row r="40" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="T40" s="26"/>
-    </row>
-    <row r="41" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="T41" s="26"/>
-    </row>
-    <row r="42" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="T42" s="26"/>
-    </row>
-    <row r="43" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="T43" s="26"/>
-    </row>
-    <row r="44" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="T44" s="26"/>
-    </row>
-    <row r="45" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="T45" s="26"/>
-    </row>
-    <row r="46" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="T46" s="26"/>
-    </row>
-    <row r="47" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="T47" s="26"/>
-    </row>
-    <row r="48" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="T48" s="26"/>
-    </row>
-    <row r="49" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="T49" s="26"/>
-    </row>
-    <row r="50" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="T50" s="26"/>
-    </row>
-    <row r="51" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="T51" s="26"/>
-    </row>
-    <row r="52" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="T52" s="26"/>
-    </row>
-    <row r="53" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="T53" s="26"/>
-    </row>
-    <row r="54" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="T54" s="26"/>
-    </row>
-    <row r="55" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="T55" s="26"/>
-    </row>
-    <row r="56" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="T56" s="26"/>
-    </row>
-    <row r="57" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="T57" s="26"/>
-    </row>
-    <row r="58" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="T58" s="26"/>
-    </row>
-    <row r="59" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="T59" s="26"/>
-    </row>
-    <row r="60" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="T60" s="26"/>
-    </row>
-    <row r="61" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="T61" s="26"/>
-    </row>
-    <row r="62" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="T62" s="26"/>
-    </row>
-    <row r="63" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="T63" s="26"/>
-    </row>
-    <row r="64" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="T64" s="26"/>
-    </row>
-    <row r="65" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="T65" s="26"/>
-    </row>
-    <row r="66" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="T66" s="26"/>
-    </row>
-    <row r="67" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="T67" s="26"/>
-    </row>
-    <row r="68" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="T68" s="26"/>
-    </row>
-    <row r="69" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="T69" s="26"/>
-    </row>
-    <row r="70" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="T70" s="26"/>
-    </row>
-    <row r="71" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="T71" s="26"/>
-    </row>
-    <row r="72" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="T72" s="26"/>
-    </row>
-    <row r="73" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="T73" s="26"/>
-    </row>
-    <row r="74" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="T74" s="26"/>
-    </row>
-    <row r="75" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="T75" s="26"/>
-    </row>
-    <row r="76" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="T76" s="26"/>
-    </row>
-    <row r="77" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="T77" s="26"/>
-    </row>
-    <row r="78" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="T78" s="26"/>
-    </row>
-    <row r="79" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="T79" s="26"/>
-    </row>
-    <row r="80" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="26"/>
-      <c r="L80" s="26"/>
-      <c r="T80" s="26"/>
-    </row>
-    <row r="81" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="T81" s="26"/>
-    </row>
-    <row r="82" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="T82" s="26"/>
-    </row>
-    <row r="83" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="T83" s="26"/>
-    </row>
-    <row r="84" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="T84" s="26"/>
-    </row>
-    <row r="85" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="T85" s="26"/>
-    </row>
-    <row r="86" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="26"/>
-      <c r="L86" s="26"/>
-      <c r="T86" s="26"/>
-    </row>
-    <row r="87" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="T87" s="26"/>
-    </row>
-    <row r="88" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="T88" s="26"/>
-    </row>
-    <row r="89" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E89" s="26"/>
-      <c r="L89" s="26"/>
-      <c r="T89" s="26"/>
-    </row>
-    <row r="90" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="T90" s="26"/>
-    </row>
-    <row r="91" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="26"/>
-      <c r="L91" s="26"/>
-      <c r="T91" s="26"/>
-    </row>
-    <row r="92" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E92" s="26"/>
-      <c r="L92" s="26"/>
-      <c r="T92" s="26"/>
-    </row>
-    <row r="93" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="T93" s="26"/>
-    </row>
-    <row r="94" spans="5:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E94" s="26"/>
-      <c r="L94" s="26"/>
-      <c r="T94" s="26"/>
-    </row>
-    <row r="98" spans="6:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F98" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="6:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F99" s="9"/>
-      <c r="G99" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="6:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F100" s="9"/>
-      <c r="G100" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="6:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F101" s="9"/>
-      <c r="G101" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="6:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F102" s="9"/>
-      <c r="G102" s="13" t="s">
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="6:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F103" s="9"/>
-      <c r="G103" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="6:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G104" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G105" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="6:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G106" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+    </row>
+    <row r="39" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+    </row>
+    <row r="40" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+    </row>
+    <row r="41" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+    </row>
+    <row r="42" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+    </row>
+    <row r="43" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+    </row>
+    <row r="44" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+    </row>
+    <row r="45" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="16"/>
+    </row>
+    <row r="46" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+    </row>
+    <row r="47" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+    </row>
+    <row r="48" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+    </row>
+    <row r="49" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+    </row>
+    <row r="50" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="16"/>
+      <c r="AF50" s="16"/>
+    </row>
+    <row r="51" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+    </row>
+    <row r="52" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+      <c r="AD52" s="16"/>
+      <c r="AE52" s="16"/>
+      <c r="AF52" s="16"/>
+    </row>
+    <row r="53" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="16"/>
+    </row>
+    <row r="54" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="16"/>
+      <c r="AF54" s="16"/>
+    </row>
+    <row r="55" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+    </row>
+    <row r="56" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="16"/>
+    </row>
+    <row r="57" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="16"/>
+      <c r="AF57" s="16"/>
+    </row>
+    <row r="58" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16"/>
+      <c r="AF58" s="16"/>
+    </row>
+    <row r="59" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="16"/>
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="16"/>
+      <c r="AF59" s="16"/>
+    </row>
+    <row r="60" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="16"/>
+      <c r="AD60" s="16"/>
+      <c r="AE60" s="16"/>
+      <c r="AF60" s="16"/>
+    </row>
+    <row r="61" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+      <c r="AD61" s="16"/>
+      <c r="AE61" s="16"/>
+      <c r="AF61" s="16"/>
+    </row>
+    <row r="62" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="16"/>
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="16"/>
+      <c r="AD62" s="16"/>
+      <c r="AE62" s="16"/>
+      <c r="AF62" s="16"/>
+    </row>
+    <row r="63" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+    </row>
+    <row r="64" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+    </row>
+    <row r="65" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+    </row>
+    <row r="66" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="16"/>
+      <c r="AE66" s="16"/>
+      <c r="AF66" s="16"/>
+    </row>
+    <row r="67" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="16"/>
+      <c r="AD67" s="16"/>
+      <c r="AE67" s="16"/>
+      <c r="AF67" s="16"/>
+    </row>
+    <row r="68" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
+      <c r="AD68" s="16"/>
+      <c r="AE68" s="16"/>
+      <c r="AF68" s="16"/>
+    </row>
+    <row r="69" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="16"/>
+      <c r="AE69" s="16"/>
+      <c r="AF69" s="16"/>
+    </row>
+    <row r="70" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="16"/>
+      <c r="AD70" s="16"/>
+      <c r="AE70" s="16"/>
+      <c r="AF70" s="16"/>
+    </row>
+    <row r="71" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+    </row>
+    <row r="72" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
+    </row>
+    <row r="73" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
+      <c r="AE73" s="16"/>
+      <c r="AF73" s="16"/>
+    </row>
+    <row r="74" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="16"/>
+      <c r="AE74" s="16"/>
+      <c r="AF74" s="16"/>
+    </row>
+    <row r="75" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="16"/>
+      <c r="X75" s="16"/>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="16"/>
+      <c r="AA75" s="16"/>
+      <c r="AB75" s="16"/>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="16"/>
+      <c r="AE75" s="16"/>
+      <c r="AF75" s="16"/>
+    </row>
+    <row r="76" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+    </row>
+    <row r="77" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
+      <c r="AC77" s="16"/>
+      <c r="AD77" s="16"/>
+      <c r="AE77" s="16"/>
+      <c r="AF77" s="16"/>
+    </row>
+    <row r="78" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="16"/>
+      <c r="X78" s="16"/>
+      <c r="Y78" s="16"/>
+      <c r="Z78" s="16"/>
+      <c r="AA78" s="16"/>
+      <c r="AB78" s="16"/>
+      <c r="AC78" s="16"/>
+      <c r="AD78" s="16"/>
+      <c r="AE78" s="16"/>
+      <c r="AF78" s="16"/>
+    </row>
+    <row r="79" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="16"/>
+      <c r="X79" s="16"/>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="16"/>
+      <c r="AC79" s="16"/>
+      <c r="AD79" s="16"/>
+      <c r="AE79" s="16"/>
+      <c r="AF79" s="16"/>
+    </row>
+    <row r="80" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="16"/>
+      <c r="AB80" s="16"/>
+      <c r="AC80" s="16"/>
+      <c r="AD80" s="16"/>
+      <c r="AE80" s="16"/>
+      <c r="AF80" s="16"/>
+    </row>
+    <row r="81" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="16"/>
+      <c r="AB81" s="16"/>
+      <c r="AC81" s="16"/>
+      <c r="AD81" s="16"/>
+      <c r="AE81" s="16"/>
+      <c r="AF81" s="16"/>
+    </row>
+    <row r="82" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="16"/>
+      <c r="Y82" s="16"/>
+      <c r="Z82" s="16"/>
+      <c r="AA82" s="16"/>
+      <c r="AB82" s="16"/>
+      <c r="AC82" s="16"/>
+      <c r="AD82" s="16"/>
+      <c r="AE82" s="16"/>
+      <c r="AF82" s="16"/>
+    </row>
+    <row r="83" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="16"/>
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="16"/>
+      <c r="AC83" s="16"/>
+      <c r="AD83" s="16"/>
+      <c r="AE83" s="16"/>
+      <c r="AF83" s="16"/>
+    </row>
+    <row r="84" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="4"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="16"/>
+      <c r="X84" s="16"/>
+      <c r="Y84" s="16"/>
+      <c r="Z84" s="16"/>
+      <c r="AA84" s="16"/>
+      <c r="AB84" s="16"/>
+      <c r="AC84" s="16"/>
+      <c r="AD84" s="16"/>
+      <c r="AE84" s="16"/>
+      <c r="AF84" s="16"/>
+    </row>
+    <row r="85" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="4"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="16"/>
+      <c r="X85" s="16"/>
+      <c r="Y85" s="16"/>
+      <c r="Z85" s="16"/>
+      <c r="AA85" s="16"/>
+      <c r="AB85" s="16"/>
+      <c r="AC85" s="16"/>
+      <c r="AD85" s="16"/>
+      <c r="AE85" s="16"/>
+      <c r="AF85" s="16"/>
+    </row>
+    <row r="86" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="4"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="16"/>
+      <c r="X86" s="16"/>
+      <c r="Y86" s="16"/>
+      <c r="Z86" s="16"/>
+      <c r="AA86" s="16"/>
+      <c r="AB86" s="16"/>
+      <c r="AC86" s="16"/>
+      <c r="AD86" s="16"/>
+      <c r="AE86" s="16"/>
+      <c r="AF86" s="16"/>
+    </row>
+    <row r="87" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="4"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="16"/>
+      <c r="X87" s="16"/>
+      <c r="Y87" s="16"/>
+      <c r="Z87" s="16"/>
+      <c r="AA87" s="16"/>
+      <c r="AB87" s="16"/>
+      <c r="AC87" s="16"/>
+      <c r="AD87" s="16"/>
+      <c r="AE87" s="16"/>
+      <c r="AF87" s="16"/>
+    </row>
+    <row r="88" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="4"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="16"/>
+      <c r="X88" s="16"/>
+      <c r="Y88" s="16"/>
+      <c r="Z88" s="16"/>
+      <c r="AA88" s="16"/>
+      <c r="AB88" s="16"/>
+      <c r="AC88" s="16"/>
+      <c r="AD88" s="16"/>
+      <c r="AE88" s="16"/>
+      <c r="AF88" s="16"/>
+    </row>
+    <row r="89" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="4"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="16"/>
+      <c r="X89" s="16"/>
+      <c r="Y89" s="16"/>
+      <c r="Z89" s="16"/>
+      <c r="AA89" s="16"/>
+      <c r="AB89" s="16"/>
+      <c r="AC89" s="16"/>
+      <c r="AD89" s="16"/>
+      <c r="AE89" s="16"/>
+      <c r="AF89" s="16"/>
+    </row>
+    <row r="90" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="4"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="16"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="16"/>
+      <c r="X90" s="16"/>
+      <c r="Y90" s="16"/>
+      <c r="Z90" s="16"/>
+      <c r="AA90" s="16"/>
+      <c r="AB90" s="16"/>
+      <c r="AC90" s="16"/>
+      <c r="AD90" s="16"/>
+      <c r="AE90" s="16"/>
+      <c r="AF90" s="16"/>
+    </row>
+    <row r="91" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="4"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="16"/>
+      <c r="X91" s="16"/>
+      <c r="Y91" s="16"/>
+      <c r="Z91" s="16"/>
+      <c r="AA91" s="16"/>
+      <c r="AB91" s="16"/>
+      <c r="AC91" s="16"/>
+      <c r="AD91" s="16"/>
+      <c r="AE91" s="16"/>
+      <c r="AF91" s="16"/>
+    </row>
+    <row r="92" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="4"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="16"/>
+      <c r="AA92" s="16"/>
+      <c r="AB92" s="16"/>
+      <c r="AC92" s="16"/>
+      <c r="AD92" s="16"/>
+      <c r="AE92" s="16"/>
+      <c r="AF92" s="16"/>
+    </row>
+    <row r="93" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="4"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="16"/>
+      <c r="X93" s="16"/>
+      <c r="Y93" s="16"/>
+      <c r="Z93" s="16"/>
+      <c r="AA93" s="16"/>
+      <c r="AB93" s="16"/>
+      <c r="AC93" s="16"/>
+      <c r="AD93" s="16"/>
+      <c r="AE93" s="16"/>
+      <c r="AF93" s="16"/>
+    </row>
+    <row r="94" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="4"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="16"/>
+      <c r="Z94" s="16"/>
+      <c r="AA94" s="16"/>
+      <c r="AB94" s="16"/>
+      <c r="AC94" s="16"/>
+      <c r="AD94" s="16"/>
+      <c r="AE94" s="16"/>
+      <c r="AF94" s="16"/>
+    </row>
+    <row r="95" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="4"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="16"/>
+      <c r="X95" s="16"/>
+      <c r="Y95" s="16"/>
+      <c r="Z95" s="16"/>
+      <c r="AA95" s="16"/>
+      <c r="AB95" s="16"/>
+      <c r="AC95" s="16"/>
+      <c r="AD95" s="16"/>
+      <c r="AE95" s="16"/>
+      <c r="AF95" s="16"/>
+    </row>
+    <row r="96" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
+      <c r="W96" s="16"/>
+      <c r="X96" s="16"/>
+      <c r="Y96" s="16"/>
+      <c r="Z96" s="16"/>
+      <c r="AA96" s="16"/>
+      <c r="AB96" s="16"/>
+      <c r="AC96" s="16"/>
+      <c r="AD96" s="16"/>
+      <c r="AE96" s="16"/>
+      <c r="AF96" s="16"/>
+    </row>
+    <row r="97" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="16"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="16"/>
+      <c r="W97" s="16"/>
+      <c r="X97" s="16"/>
+      <c r="Y97" s="16"/>
+      <c r="Z97" s="16"/>
+      <c r="AA97" s="16"/>
+      <c r="AB97" s="16"/>
+      <c r="AC97" s="16"/>
+      <c r="AD97" s="16"/>
+      <c r="AE97" s="16"/>
+      <c r="AF97" s="16"/>
+    </row>
+    <row r="98" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="16"/>
+      <c r="W98" s="16"/>
+      <c r="X98" s="16"/>
+      <c r="Y98" s="16"/>
+      <c r="Z98" s="16"/>
+      <c r="AA98" s="16"/>
+      <c r="AB98" s="16"/>
+      <c r="AC98" s="16"/>
+      <c r="AD98" s="16"/>
+      <c r="AE98" s="16"/>
+      <c r="AF98" s="16"/>
+    </row>
+    <row r="99" spans="6:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
+      <c r="W99" s="16"/>
+      <c r="X99" s="16"/>
+      <c r="Y99" s="16"/>
+      <c r="Z99" s="16"/>
+      <c r="AA99" s="16"/>
+      <c r="AB99" s="16"/>
+      <c r="AC99" s="16"/>
+      <c r="AD99" s="16"/>
+      <c r="AE99" s="16"/>
+      <c r="AF99" s="16"/>
+    </row>
+    <row r="100" spans="6:32" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F100" s="22"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="16"/>
+      <c r="X100" s="16"/>
+      <c r="Y100" s="16"/>
+      <c r="Z100" s="16"/>
+      <c r="AA100" s="16"/>
+      <c r="AB100" s="16"/>
+      <c r="AC100" s="16"/>
+      <c r="AD100" s="16"/>
+      <c r="AE100" s="16"/>
+      <c r="AF100" s="16"/>
+    </row>
+    <row r="101" spans="6:32" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F101" s="22"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
+      <c r="W101" s="16"/>
+      <c r="X101" s="16"/>
+      <c r="Y101" s="16"/>
+      <c r="Z101" s="16"/>
+      <c r="AA101" s="16"/>
+      <c r="AB101" s="16"/>
+      <c r="AC101" s="16"/>
+      <c r="AD101" s="16"/>
+      <c r="AE101" s="16"/>
+      <c r="AF101" s="16"/>
+    </row>
+    <row r="102" spans="6:32" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F102" s="22"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="16"/>
+      <c r="Y102" s="16"/>
+      <c r="Z102" s="16"/>
+      <c r="AA102" s="16"/>
+      <c r="AB102" s="16"/>
+      <c r="AC102" s="16"/>
+      <c r="AD102" s="16"/>
+      <c r="AE102" s="16"/>
+      <c r="AF102" s="16"/>
+    </row>
+    <row r="103" spans="6:32" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F103" s="22"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="16"/>
+      <c r="S103" s="16"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="16"/>
+      <c r="W103" s="16"/>
+      <c r="X103" s="16"/>
+      <c r="Y103" s="16"/>
+      <c r="Z103" s="16"/>
+      <c r="AA103" s="16"/>
+      <c r="AB103" s="16"/>
+      <c r="AC103" s="16"/>
+      <c r="AD103" s="16"/>
+      <c r="AE103" s="16"/>
+      <c r="AF103" s="16"/>
+    </row>
+    <row r="104" spans="6:32" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F104" s="22"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="16"/>
+      <c r="W104" s="16"/>
+      <c r="X104" s="16"/>
+      <c r="Y104" s="16"/>
+      <c r="Z104" s="16"/>
+      <c r="AA104" s="16"/>
+      <c r="AB104" s="16"/>
+      <c r="AC104" s="16"/>
+      <c r="AD104" s="16"/>
+      <c r="AE104" s="16"/>
+      <c r="AF104" s="16"/>
+    </row>
+    <row r="105" spans="6:32" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="16"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="16"/>
+      <c r="S105" s="16"/>
+      <c r="T105" s="16"/>
+      <c r="U105" s="16"/>
+      <c r="V105" s="16"/>
+      <c r="W105" s="16"/>
+      <c r="X105" s="16"/>
+      <c r="Y105" s="16"/>
+      <c r="Z105" s="16"/>
+      <c r="AA105" s="16"/>
+      <c r="AB105" s="16"/>
+      <c r="AC105" s="16"/>
+      <c r="AD105" s="16"/>
+      <c r="AE105" s="16"/>
+      <c r="AF105" s="16"/>
+    </row>
+    <row r="106" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="16"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="16"/>
+      <c r="S106" s="16"/>
+      <c r="T106" s="16"/>
+      <c r="U106" s="16"/>
+      <c r="V106" s="16"/>
+      <c r="W106" s="16"/>
+      <c r="X106" s="16"/>
+      <c r="Y106" s="16"/>
+      <c r="Z106" s="16"/>
+      <c r="AA106" s="16"/>
+      <c r="AB106" s="16"/>
+      <c r="AC106" s="16"/>
+      <c r="AD106" s="16"/>
+      <c r="AE106" s="16"/>
+      <c r="AF106" s="16"/>
+    </row>
+    <row r="107" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="16"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="16"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="16"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="16"/>
+      <c r="W107" s="16"/>
+      <c r="X107" s="16"/>
+      <c r="Y107" s="16"/>
+      <c r="Z107" s="16"/>
+      <c r="AA107" s="16"/>
+      <c r="AB107" s="16"/>
+      <c r="AC107" s="16"/>
+      <c r="AD107" s="16"/>
+      <c r="AE107" s="16"/>
+      <c r="AF107" s="16"/>
+    </row>
+    <row r="108" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="16"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="16"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="16"/>
+      <c r="W108" s="16"/>
+      <c r="X108" s="16"/>
+      <c r="Y108" s="16"/>
+      <c r="Z108" s="16"/>
+      <c r="AA108" s="16"/>
+      <c r="AB108" s="16"/>
+      <c r="AC108" s="16"/>
+      <c r="AD108" s="16"/>
+      <c r="AE108" s="16"/>
+      <c r="AF108" s="16"/>
+    </row>
+    <row r="109" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="16"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="16"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="16"/>
+      <c r="Y109" s="16"/>
+      <c r="Z109" s="16"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="16"/>
+      <c r="AC109" s="16"/>
+      <c r="AD109" s="16"/>
+      <c r="AE109" s="16"/>
+      <c r="AF109" s="16"/>
+    </row>
+    <row r="110" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="16"/>
+      <c r="Q110" s="16"/>
+      <c r="R110" s="16"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="16"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="16"/>
+      <c r="W110" s="16"/>
+      <c r="X110" s="16"/>
+      <c r="Y110" s="16"/>
+      <c r="Z110" s="16"/>
+      <c r="AA110" s="16"/>
+      <c r="AB110" s="16"/>
+      <c r="AC110" s="16"/>
+      <c r="AD110" s="16"/>
+      <c r="AE110" s="16"/>
+      <c r="AF110" s="16"/>
+    </row>
+    <row r="111" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="16"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="16"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="16"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="16"/>
+      <c r="Y111" s="16"/>
+      <c r="Z111" s="16"/>
+      <c r="AA111" s="16"/>
+      <c r="AB111" s="16"/>
+      <c r="AC111" s="16"/>
+      <c r="AD111" s="16"/>
+      <c r="AE111" s="16"/>
+      <c r="AF111" s="16"/>
+    </row>
+    <row r="112" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="16"/>
+      <c r="Q112" s="16"/>
+      <c r="R112" s="16"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="16"/>
+      <c r="U112" s="16"/>
+      <c r="V112" s="16"/>
+      <c r="W112" s="16"/>
+      <c r="X112" s="16"/>
+      <c r="Y112" s="16"/>
+      <c r="Z112" s="16"/>
+      <c r="AA112" s="16"/>
+      <c r="AB112" s="16"/>
+      <c r="AC112" s="16"/>
+      <c r="AD112" s="16"/>
+      <c r="AE112" s="16"/>
+      <c r="AF112" s="16"/>
+    </row>
+    <row r="113" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="16"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="16"/>
+      <c r="W113" s="16"/>
+      <c r="X113" s="16"/>
+      <c r="Y113" s="16"/>
+      <c r="Z113" s="16"/>
+      <c r="AA113" s="16"/>
+      <c r="AB113" s="16"/>
+      <c r="AC113" s="16"/>
+      <c r="AD113" s="16"/>
+      <c r="AE113" s="16"/>
+      <c r="AF113" s="16"/>
+    </row>
+    <row r="114" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="16"/>
+      <c r="Q114" s="16"/>
+      <c r="R114" s="16"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="16"/>
+      <c r="W114" s="16"/>
+      <c r="X114" s="16"/>
+      <c r="Y114" s="16"/>
+      <c r="Z114" s="16"/>
+      <c r="AA114" s="16"/>
+      <c r="AB114" s="16"/>
+      <c r="AC114" s="16"/>
+      <c r="AD114" s="16"/>
+      <c r="AE114" s="16"/>
+      <c r="AF114" s="16"/>
+    </row>
+    <row r="115" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="16"/>
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="16"/>
+      <c r="U115" s="16"/>
+      <c r="V115" s="16"/>
+      <c r="W115" s="16"/>
+      <c r="X115" s="16"/>
+      <c r="Y115" s="16"/>
+      <c r="Z115" s="16"/>
+      <c r="AA115" s="16"/>
+      <c r="AB115" s="16"/>
+      <c r="AC115" s="16"/>
+      <c r="AD115" s="16"/>
+      <c r="AE115" s="16"/>
+      <c r="AF115" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="U4:X4"/>
+  <mergeCells count="3">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="W4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="F99:F103">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>(G99=$C$25)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>(G99=$C$26)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>(G99=$C$27)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>(G99=$C$28)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15">
-      <formula>(G99=$C$29)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10 R10:S10 P10 V10 X10 G14 G17 N14" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 P11:U11 N11 X11 Z11 G15 G18 L15 N15 P15:U15 G24 L24 N21 P21 R21 T21 G29 G32 L29 N29 P29:U29 G38 L38 N35 P35 R35 T35" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R9" r:id="rId1" xr:uid="{02FF9BA0-0993-234B-8F72-2356A7AB6C22}"/>
+    <hyperlink ref="P10" r:id="rId1" xr:uid="{02FF9BA0-0993-234B-8F72-2356A7AB6C22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="30" fitToHeight="10" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{803C6B78-FD25-CB4E-AFF2-D03AAFCA599B}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{803C6B78-FD25-CB4E-AFF2-D03AAFCA599B}">
             <xm:f>Config!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -2930,7 +8024,107 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{5881555C-935D-4647-95E3-C937014C2DDE}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{6267B9EB-BFDB-CC42-AE06-382FD766AFD7}">
+            <xm:f>Config!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFD9D2E9"/>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{D351242E-670F-7249-A02A-E9AD9798C1DE}">
+            <xm:f>Config!$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9FC5E8"/>
+                  <bgColor rgb="FF9FC5E8"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{39F8DB71-9029-A847-ADCC-AEEEB37D8635}">
+            <xm:f>Config!$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{27B6CAFB-7EDF-7740-AA59-B23D54F8EA06}">
+            <xm:f>Config!$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFF9CB9C"/>
+                  <bgColor rgb="FFF9CB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{000341BD-9441-414C-A295-ECD473249A32}">
+            <xm:f>Config!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{72813FEB-A3F3-154A-A17B-7856D453F421}">
+            <xm:f>Config!$B$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB4A7D6"/>
+                  <bgColor rgb="FFB4A7D6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{50B0CBC7-2716-BD49-A0FE-795F1219CBEC}">
+            <xm:f>Config!$B$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFD9D2E9"/>
+                  <bgColor rgb="FFD9D2E9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A2:B2 AA2 V4:W4 AA4 M10 O10:O11 V10:W11 Y10:Y11 AA10:AA11 P11:U11 X11 Z11 A14:F15 M14:M15 G15 L15 A17:F18 G18 O14:O15 N15 P15:U15 A100:E104 A4:J4 A10:K10 A11:N11 H14:K15 A20:F21 H20:K21 M20:M21 O20:O21 N21 Q20:Q21 P21 S20:S21 R21 T21 V14:AA15 A1:AA1 A3:AA3 A5:AA9 A12:AA13 A16:AA16 H17:AA18 A19:AA19 A105:AA220 G100:AA104 U20:AA21 A28:F29 M28:M29 G29 L29 A31:F32 G32 O28:O29 N29 P29:U29 H28:K29 A34:F35 H34:K35 M34:M35 O34:O35 N35 Q34:Q35 P35 S34:S35 R35 T35 V28:AA29 A22:AA27 A30:AA30 H31:AA32 A33:AA33 A36:AA99 U34:AA35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{A4FBD1E4-D964-EC42-A151-F26E5B712D48}">
+            <xm:f>Config!$B$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFD9D2E9"/>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{96928EA4-6187-A541-AA34-9F7FCAB26591}">
             <xm:f>Config!$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -2941,7 +8135,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{D351242E-670F-7249-A02A-E9AD9798C1DE}">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{3AA5A7B3-CD60-F14F-B63D-83BE0EA2637C}">
             <xm:f>Config!$B$5</xm:f>
             <x14:dxf>
               <fill>
@@ -2952,7 +8146,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{39F8DB71-9029-A847-ADCC-AEEEB37D8635}">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{B43A47A0-AD8C-CE41-8F4D-4B3262C07530}">
             <xm:f>Config!$B$6</xm:f>
             <x14:dxf>
               <fill>
@@ -2963,7 +8157,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{27B6CAFB-7EDF-7740-AA59-B23D54F8EA06}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{DD6CBF49-0EE2-C44B-844C-5913D7AC36C8}">
             <xm:f>Config!$B$4</xm:f>
             <x14:dxf>
               <fill>
@@ -2974,7 +8168,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{089617E0-CD2D-BE48-AF94-A20E97B65A7F}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{070DA2A2-3C13-784F-9B63-4B6A73C72B07}">
             <xm:f>Config!$B$7</xm:f>
             <x14:dxf>
               <fill>
@@ -2985,7 +8179,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{72813FEB-A3F3-154A-A17B-7856D453F421}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{1E28D502-7F77-1042-8728-2921066FEAA5}">
             <xm:f>Config!$B$9</xm:f>
             <x14:dxf>
               <fill>
@@ -2996,7 +8190,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{50B0CBC7-2716-BD49-A0FE-795F1219CBEC}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{43007403-369B-9046-8B35-672FA87444D0}">
             <xm:f>Config!$B$8</xm:f>
             <x14:dxf>
               <fill>
@@ -3007,7 +8201,101 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A11:Y12 A9:M9 O9 Q9:Q10 A10:P10 T9:U10 R10:S10 W9:W10 V10 Y9:Y10 X10 A1:Y1 A5:Y8 A4:L4 Y4 T4:U4 A15:Y15 A13:F14 H13:M14 G14 A18:Y219 A16:F17 H16:Y17 G17 O13:Y14 N14 Y2 A2:B2 A3:Y3</xm:sqref>
+          <xm:sqref>D2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{97FE21DC-031B-D14F-B6CD-02B4AE09141A}">
+            <xm:f>Config!$B$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFD9D2E9"/>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{6247F024-5761-334D-9369-178AE1A8AAD1}">
+            <xm:f>Config!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFD9D2E9"/>
+                  <bgColor theme="2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{872589F8-B381-704B-B8DD-95E91A5F4EB0}">
+            <xm:f>Config!$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9FC5E8"/>
+                  <bgColor rgb="FF9FC5E8"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{38C19551-34A5-8C47-9CFB-A67767A5FB8F}">
+            <xm:f>Config!$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB6D7A8"/>
+                  <bgColor rgb="FFB6D7A8"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{C260D891-C419-4648-BBAE-24358125FBCB}">
+            <xm:f>Config!$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFF9CB9C"/>
+                  <bgColor rgb="FFF9CB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{5BE89195-ABEE-EC41-A3FA-F33228F15127}">
+            <xm:f>Config!$B$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFEA9999"/>
+                  <bgColor rgb="FFEA9999"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{AA26F158-C56D-1747-9972-CEB01BF96F39}">
+            <xm:f>Config!$B$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB4A7D6"/>
+                  <bgColor rgb="FFB4A7D6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{E9071BFE-9706-3F47-A948-6DA37A3F7A93}">
+            <xm:f>Config!$B$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFD9D2E9"/>
+                  <bgColor rgb="FFD9D2E9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3016,95 +8304,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E883BE-E288-2544-8941-E1AE21FA04AF}">
-  <dimension ref="H8:H9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="8:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA07E04-34F5-D04B-B55C-6863CFB3F8E0}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+    <row r="7" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="8" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>11</v>
+    <row r="9" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>10</v>
+    <row r="13" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="31" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{6BF50569-7E05-A74F-B254-95499C6910D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CD9324-09D7-BD49-84CB-79DA5AB75A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF65967-2D0F-AB41-BCF4-E4A024DF1C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ListStatus">Workshop!$G$96:$G$103</definedName>
-    <definedName name="Status">Config!$B$3:$B$10</definedName>
-    <definedName name="StBlocked">Config!$B$7</definedName>
-    <definedName name="StCompleted">Config!$B$6</definedName>
-    <definedName name="StInProgress">Config!$B$5</definedName>
-    <definedName name="StMsRoadmap">Config!$B$10</definedName>
-    <definedName name="StNotStarted">Config!$B$3</definedName>
-    <definedName name="StPlanned">Config!$B$4</definedName>
-    <definedName name="StThirdParty">Config!$B$8</definedName>
-    <definedName name="StWillNotPursue">Config!$B$9</definedName>
+    <definedName name="Status">Workshop!$AD$2:$AK$2</definedName>
+    <definedName name="StBlocked">#REF!</definedName>
+    <definedName name="StCompleted">#REF!</definedName>
+    <definedName name="StInProgress">#REF!</definedName>
+    <definedName name="StMsRoadmap">#REF!</definedName>
+    <definedName name="StNotStarted">#REF!</definedName>
+    <definedName name="StPlanned">#REF!</definedName>
+    <definedName name="StThirdParty">#REF!</definedName>
+    <definedName name="StWillNotPursue">#REF!</definedName>
     <definedName name="WorkshopData">Workshop!$A$1:$AA$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
   <si>
     <t>Zero Trust Workshop - Devices</t>
   </si>
@@ -119,9 +118,6 @@
   </si>
   <si>
     <t>Remote actions</t>
-  </si>
-  <si>
-    <t>Icons from icons8.com</t>
   </si>
   <si>
     <t>Review provisioning strategy</t>
@@ -300,32 +296,41 @@
     <t>Native update management</t>
   </si>
   <si>
-    <t xml:space="preserve"> ✔️ Completed</t>
-  </si>
-  <si>
     <t>📆 Planned</t>
-  </si>
-  <si>
-    <t>⛔️ Blocked</t>
   </si>
   <si>
     <t>▶️ In progress</t>
   </si>
   <si>
-    <t>❌ Will not pursue</t>
+    <t>✓ Completed</t>
   </si>
   <si>
-    <t>🧩 Third Party</t>
+    <t>▷ In progress</t>
   </si>
   <si>
-    <t>⏳ MS Roadmap</t>
+    <t>✜ Planned</t>
+  </si>
+  <si>
+    <t>⚐ MS Roadmap</t>
+  </si>
+  <si>
+    <t>✕ Will not pursue</t>
+  </si>
+  <si>
+    <t>※ Third Party</t>
+  </si>
+  <si>
+    <t>⦿ Blocked</t>
+  </si>
+  <si>
+    <t>☉ Not started</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,14 +364,6 @@
       <name val="Segoe UI"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -388,12 +385,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <b/>
       <sz val="24"/>
       <color theme="7" tint="0.79998168889431442"/>
       <name val="Calibri"/>
@@ -404,8 +395,29 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI Semibold"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Segoe UI Semibold"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Semibold"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +445,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5A7D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAD2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F3DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73FB79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5FC79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76D6FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0096FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,19 +603,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyFont="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -564,18 +619,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
@@ -610,12 +664,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,60 +707,76 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="WorkItem" xfId="2" xr:uid="{0F6335E5-33B1-7644-B498-B1E7394136F4}"/>
+    <cellStyle name="WorkItem" xfId="1" xr:uid="{0F6335E5-33B1-7644-B498-B1E7394136F4}"/>
   </cellStyles>
-  <dxfs count="224">
+  <dxfs count="8">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -687,1978 +786,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
+          <fgColor auto="1"/>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor rgb="FFFFB293"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2666,16 +795,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFD6D6D6"/>
-      <color rgb="FFD0D0D0"/>
-      <color rgb="FF01EDB2"/>
-      <color rgb="FFFD226A"/>
-      <color rgb="FFFFB293"/>
-      <color rgb="FF17FDEA"/>
-      <color rgb="FFEEE548"/>
-      <color rgb="FF0967F1"/>
-      <color rgb="FF06B4F9"/>
-      <color rgb="FF372EC6"/>
+      <color rgb="FF0096FF"/>
+      <color rgb="FFB6A7D8"/>
+      <color rgb="FFDBD2E9"/>
+      <color rgb="FFF7F3DC"/>
+      <color rgb="FF74FC79"/>
+      <color rgb="FFD6FD78"/>
+      <color rgb="FF74D6FE"/>
+      <color rgb="FF73FDD6"/>
+      <color rgb="FF73FEFF"/>
+      <color rgb="FF7A81FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -14032,1665 +12161,1702 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC153"/>
+  <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="3.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="0.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="2.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0.1640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="1.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="2.1640625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="25.33203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="2.1640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="0.1640625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="2.33203125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="26.6640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="2" style="3" customWidth="1"/>
-    <col min="26" max="26" width="22" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="2.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="0.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2" style="1" customWidth="1"/>
+    <col min="26" max="26" width="22" style="1" customWidth="1"/>
+    <col min="27" max="29" width="10.83203125" style="1"/>
+    <col min="30" max="37" width="25.83203125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="10" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
+    <row r="1" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
     </row>
-    <row r="2" spans="1:27" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="5"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="3"/>
+      <c r="AC2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ2" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK2" s="35" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" ht="11" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="5"/>
+    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="5"/>
+    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
+    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27" ht="4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
+    <row r="7" spans="1:37" ht="4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
     </row>
-    <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="V8" s="4"/>
+    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="V9" s="4"/>
+    <row r="9" spans="1:37" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="76" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="L10" s="23" t="s">
+    <row r="10" spans="1:37" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="4"/>
-      <c r="X10" s="16" t="s">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="2"/>
+      <c r="X10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="Z10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="17"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="24" t="s">
+    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="14"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="P11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="2"/>
+      <c r="X11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="4"/>
-      <c r="X11" s="18" t="s">
+      <c r="Z11" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:37" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="L14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="L15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Z11" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" ht="64" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="L14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="4"/>
-      <c r="G15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="L15" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="V16" s="4"/>
+    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="4"/>
-      <c r="G17" s="29" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="J17" s="2"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
-      <c r="G18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="N20" s="16" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="N20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="16" t="s">
+      <c r="P20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="R20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="16" t="s">
+      <c r="T20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="V20" s="4"/>
+      <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="N21" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="18" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="N21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="R21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="18" t="s">
+      <c r="T21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="4"/>
+      <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" ht="59" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="4"/>
-      <c r="G23" s="16" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="L23" s="16" t="s">
+      <c r="J23" s="2"/>
+      <c r="L23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V23" s="4"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="4"/>
-      <c r="G24" s="18" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="L24" s="18" t="s">
+      <c r="J24" s="2"/>
+      <c r="L24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="V24" s="4"/>
+      <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="4"/>
-      <c r="G28" s="19" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="L28" s="16" t="s">
+      <c r="J28" s="2"/>
+      <c r="L28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="16" t="s">
+      <c r="P28" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="4"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="4"/>
-      <c r="G29" s="18" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="L29" s="18" t="s">
+      <c r="J29" s="2"/>
+      <c r="L29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="4"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="V30" s="4"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="4"/>
-      <c r="G31" s="29" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="V31" s="4"/>
+      <c r="J31" s="2"/>
+      <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="4"/>
-      <c r="G32" s="18" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="V32" s="4"/>
+      <c r="J32" s="2"/>
+      <c r="V32" s="2"/>
     </row>
     <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="V33" s="4"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="N34" s="16" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="N34" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P34" s="19" t="s">
+      <c r="P34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="16" t="s">
+      <c r="R34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T34" s="16" t="s">
+      <c r="T34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="V34" s="4"/>
+      <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="N35" s="18" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="N35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="18" t="s">
+      <c r="P35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="18" t="s">
+      <c r="R35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="T35" s="18" t="s">
+      <c r="T35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="4"/>
+      <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="V36" s="4"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="4"/>
-      <c r="G37" s="16" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="L37" s="16" t="s">
+      <c r="J37" s="2"/>
+      <c r="L37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V37" s="4"/>
+      <c r="V37" s="2"/>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="4"/>
-      <c r="G38" s="18" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J38" s="4"/>
-      <c r="L38" s="18" t="s">
+      <c r="J38" s="2"/>
+      <c r="L38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="V38" s="4"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="V39" s="4"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="V40" s="4"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="V41" s="4"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="V41" s="2"/>
     </row>
     <row r="42" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="4"/>
-      <c r="G42" s="19" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="N42" s="16" t="s">
+      <c r="J42" s="2"/>
+      <c r="N42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="U42" s="26"/>
-      <c r="V42" s="4"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="4"/>
-      <c r="G43" s="18" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="2"/>
+      <c r="G43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="N43" s="18" t="s">
+      <c r="J43" s="2"/>
+      <c r="N43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P43" s="18" t="s">
+      <c r="P43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U43" s="17"/>
-      <c r="V43" s="4"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="V44" s="4"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="V44" s="2"/>
     </row>
     <row r="45" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="4"/>
-      <c r="G45" s="29" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="2"/>
+      <c r="G45" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="N45" s="16" t="s">
+      <c r="J45" s="2"/>
+      <c r="N45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P45" s="16" t="s">
+      <c r="R45" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="R45" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="V45" s="4"/>
+      <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="4"/>
-      <c r="G46" s="18" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="2"/>
+      <c r="G46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="N46" s="18" t="s">
+      <c r="J46" s="2"/>
+      <c r="N46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P46" s="18" t="s">
+      <c r="P46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R46" s="18" t="s">
+      <c r="R46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V46" s="4"/>
+      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="V47" s="4"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="V47" s="2"/>
     </row>
     <row r="48" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="N48" s="16" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="2"/>
+      <c r="G48" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="N48" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P48" s="16" t="s">
+      <c r="R48" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R48" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="V48" s="4"/>
+      <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="4"/>
-      <c r="G49" s="18" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="2"/>
+      <c r="G49" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J49" s="4"/>
-      <c r="N49" s="18" t="s">
+      <c r="J49" s="2"/>
+      <c r="N49" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P49" s="18" t="s">
+      <c r="P49" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R49" s="18" t="s">
+      <c r="R49" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V49" s="4"/>
+      <c r="V49" s="2"/>
     </row>
     <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="4"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="2"/>
       <c r="F50"/>
       <c r="G50"/>
-      <c r="J50" s="4"/>
-      <c r="V50" s="4"/>
+      <c r="J50" s="2"/>
+      <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="4"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="2"/>
       <c r="F51"/>
       <c r="G51"/>
-      <c r="J51" s="4"/>
-      <c r="N51" s="16" t="s">
+      <c r="J51" s="2"/>
+      <c r="N51" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="P51" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="R51"/>
-      <c r="V51" s="4"/>
+      <c r="V51" s="2"/>
     </row>
     <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="4"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="2"/>
       <c r="G52"/>
-      <c r="J52" s="4"/>
-      <c r="N52" s="18" t="s">
+      <c r="J52" s="2"/>
+      <c r="N52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P52" s="18" t="s">
+      <c r="P52" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R52"/>
-      <c r="V52" s="4"/>
+      <c r="V52" s="2"/>
     </row>
     <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="V53" s="4"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="V53" s="2"/>
     </row>
     <row r="54" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="N54" s="16" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="N54" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P54" s="16" t="s">
+      <c r="P54" s="13" t="s">
         <v>22</v>
       </c>
       <c r="R54"/>
-      <c r="V54" s="4"/>
+      <c r="V54" s="2"/>
     </row>
     <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="N55" s="18" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="N55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P55" s="18" t="s">
+      <c r="P55" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R55"/>
-      <c r="V55" s="4"/>
+      <c r="V55" s="2"/>
     </row>
     <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="V56" s="4"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="N57" s="16" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="N57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P57" s="16" t="s">
+      <c r="P57" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R57" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R57" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V57" s="4"/>
+      <c r="V57" s="2"/>
     </row>
     <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="N58" s="18" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="N58" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P58" s="18" t="s">
+      <c r="P58" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R58" s="18" t="s">
+      <c r="R58" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V58" s="4"/>
+      <c r="V58" s="2"/>
     </row>
     <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="V59" s="4"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="V59" s="2"/>
     </row>
     <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="V60" s="4"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="V61" s="4"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="V61" s="2"/>
     </row>
     <row r="62" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="4"/>
-      <c r="G62" s="19" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="2"/>
+      <c r="G62" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J62" s="4"/>
-      <c r="N62" s="16" t="s">
+      <c r="J62" s="2"/>
+      <c r="N62" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P62" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="U62" s="26"/>
-      <c r="V62" s="4"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="4"/>
-      <c r="G63" s="18" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="2"/>
+      <c r="G63" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J63" s="4"/>
-      <c r="N63" s="18" t="s">
+      <c r="J63" s="2"/>
+      <c r="N63" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P63" s="18" t="s">
+      <c r="P63" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U63" s="17"/>
-      <c r="V63" s="4"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="2"/>
     </row>
     <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="V64" s="4"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="4"/>
-      <c r="G65" s="29" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="2"/>
+      <c r="G65" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J65" s="4"/>
-      <c r="N65" s="16" t="s">
+      <c r="J65" s="2"/>
+      <c r="N65" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P65" s="16" t="s">
+      <c r="R65" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="R65" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="V65" s="4"/>
+      <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="4"/>
-      <c r="G66" s="18" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="2"/>
+      <c r="G66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J66" s="4"/>
-      <c r="N66" s="18" t="s">
+      <c r="J66" s="2"/>
+      <c r="N66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P66" s="18" t="s">
+      <c r="P66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R66" s="18" t="s">
+      <c r="R66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V66" s="4"/>
+      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="V67" s="4"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="4"/>
-      <c r="G68" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" s="4"/>
-      <c r="N68" s="16" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="2"/>
+      <c r="G68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="N68" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P68" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P68" s="16" t="s">
+      <c r="R68" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R68" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="V68" s="4"/>
+      <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="4"/>
-      <c r="G69" s="18" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="2"/>
+      <c r="G69" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J69" s="4"/>
-      <c r="N69" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P69" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="R69" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="V69" s="4"/>
+      <c r="J69" s="2"/>
+      <c r="N69" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P69" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="R69" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="4"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="2"/>
       <c r="F70"/>
       <c r="G70"/>
-      <c r="J70" s="4"/>
-      <c r="V70" s="4"/>
+      <c r="J70" s="2"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="4"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="2"/>
       <c r="F71"/>
-      <c r="G71" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J71" s="4"/>
-      <c r="N71" s="16" t="s">
+      <c r="G71" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="N71" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P71" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="P71" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="R71"/>
-      <c r="V71" s="4"/>
+      <c r="V71" s="2"/>
     </row>
     <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="4"/>
-      <c r="G72" s="18" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="2"/>
+      <c r="G72" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J72" s="4"/>
-      <c r="N72" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P72" s="18" t="s">
-        <v>2</v>
+      <c r="J72" s="2"/>
+      <c r="N72" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="R72"/>
-      <c r="V72" s="4"/>
+      <c r="V72" s="2"/>
     </row>
     <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="V73" s="4"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="V73" s="2"/>
     </row>
     <row r="74" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="N74" s="16" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="N74" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P74" s="16" t="s">
+      <c r="P74" s="13" t="s">
         <v>22</v>
       </c>
       <c r="R74"/>
-      <c r="V74" s="4"/>
+      <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="N75" s="18" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="N75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P75" s="18" t="s">
+      <c r="P75" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R75"/>
-      <c r="V75" s="4"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="V76" s="4"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="N77" s="16" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="N77" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P77" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="R77" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V77" s="4"/>
+      <c r="P77" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R77" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="N78" s="18" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="N78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P78" s="18" t="s">
+      <c r="P78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R78" s="18" t="s">
+      <c r="R78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V78" s="4"/>
+      <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="V79" s="4"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="V80" s="4"/>
+      <c r="E80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="V81" s="4"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="4"/>
-      <c r="G82" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J82" s="4"/>
-      <c r="L82" s="16" t="s">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="2"/>
+      <c r="G82" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="L82" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N82" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N82" s="16" t="s">
+      <c r="P82" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P82" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="R82" s="16" t="s">
+      <c r="R82" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U82" s="26"/>
-      <c r="V82" s="4"/>
-      <c r="X82" s="16" t="s">
-        <v>61</v>
+      <c r="U82" s="23"/>
+      <c r="V82" s="2"/>
+      <c r="X82" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="4"/>
-      <c r="G83" s="18" t="s">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="2"/>
+      <c r="G83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J83" s="4"/>
-      <c r="L83" s="18" t="s">
+      <c r="J83" s="2"/>
+      <c r="L83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N83" s="18" t="s">
+      <c r="N83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P83" s="18" t="s">
+      <c r="P83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R83" s="18" t="s">
+      <c r="R83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U83" s="17"/>
-      <c r="V83" s="4"/>
-      <c r="X83" s="18" t="s">
+      <c r="U83" s="14"/>
+      <c r="V83" s="2"/>
+      <c r="X83" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="V84" s="4"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="V84" s="2"/>
     </row>
     <row r="85" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="4"/>
-      <c r="G85" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J85" s="4"/>
-      <c r="L85" s="16" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="2"/>
+      <c r="G85" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="L85" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N85" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="N85" s="19" t="s">
+      <c r="P85" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P85" s="16" t="s">
+      <c r="R85" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="R85" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="V85" s="4"/>
-      <c r="X85" s="16" t="s">
-        <v>62</v>
+      <c r="V85" s="2"/>
+      <c r="X85" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="4"/>
-      <c r="G86" s="18" t="s">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="2"/>
+      <c r="G86" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J86" s="4"/>
-      <c r="L86" s="18" t="s">
+      <c r="J86" s="2"/>
+      <c r="L86" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N86" s="18" t="s">
+      <c r="N86" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P86" s="18" t="s">
+      <c r="P86" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R86" s="18" t="s">
+      <c r="R86" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V86" s="4"/>
-      <c r="X86" s="18" t="s">
+      <c r="V86" s="2"/>
+      <c r="X86" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="V87" s="4"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="V87" s="2"/>
     </row>
     <row r="88" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="4"/>
-      <c r="G88" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J88" s="4"/>
-      <c r="L88" s="16" t="s">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="2"/>
+      <c r="G88" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" s="2"/>
+      <c r="L88" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N88" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N88" s="16" t="s">
+      <c r="P88" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P88" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="R88" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="V88" s="4"/>
-      <c r="X88" s="16" t="s">
-        <v>63</v>
+      <c r="V88" s="2"/>
+      <c r="X88" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="4"/>
-      <c r="G89" s="18" t="s">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="2"/>
+      <c r="G89" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J89" s="4"/>
-      <c r="L89" s="18" t="s">
+      <c r="J89" s="2"/>
+      <c r="L89" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N89" s="18" t="s">
+      <c r="N89" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P89" s="18" t="s">
+      <c r="P89" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R89" s="18" t="s">
+      <c r="R89" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V89" s="4"/>
-      <c r="X89" s="18" t="s">
+      <c r="V89" s="2"/>
+      <c r="X89" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="4"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="2"/>
       <c r="F90"/>
       <c r="G90"/>
-      <c r="J90" s="4"/>
-      <c r="V90" s="4"/>
+      <c r="J90" s="2"/>
+      <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="4"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="2"/>
       <c r="F91"/>
-      <c r="G91" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J91" s="4"/>
-      <c r="L91" s="19" t="s">
+      <c r="G91" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" s="2"/>
+      <c r="L91" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N91" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N91" s="16" t="s">
+      <c r="P91" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P91" s="16" t="s">
+      <c r="R91" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R91" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="V91" s="4"/>
-      <c r="X91" s="16" t="s">
-        <v>64</v>
+      <c r="V91" s="2"/>
+      <c r="X91" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="4"/>
-      <c r="G92" s="18" t="s">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="2"/>
+      <c r="G92" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J92" s="4"/>
-      <c r="L92" s="18" t="s">
+      <c r="J92" s="2"/>
+      <c r="L92" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N92" s="18" t="s">
+      <c r="N92" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P92" s="18" t="s">
+      <c r="P92" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R92" s="18" t="s">
+      <c r="R92" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V92" s="4"/>
-      <c r="X92" s="18" t="s">
+      <c r="V92" s="2"/>
+      <c r="X92" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="V93" s="4"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="4"/>
-      <c r="G94" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J94" s="4"/>
-      <c r="L94" s="16" t="s">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="2"/>
+      <c r="G94" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J94" s="2"/>
+      <c r="L94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N94" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="N94" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94"/>
-      <c r="V94" s="4"/>
+      <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="4"/>
-      <c r="G95" s="18" t="s">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="2"/>
+      <c r="G95" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J95" s="4"/>
-      <c r="L95" s="18" t="s">
+      <c r="J95" s="2"/>
+      <c r="L95" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N95" s="18" t="s">
+      <c r="N95" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95"/>
-      <c r="V95" s="4"/>
+      <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="4"/>
-      <c r="J96" s="4"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="2"/>
+      <c r="J96" s="2"/>
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96"/>
-      <c r="V96" s="4"/>
+      <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="4"/>
-      <c r="G97" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J97" s="4"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="2"/>
+      <c r="G97" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J97" s="2"/>
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97"/>
@@ -15698,18 +13864,18 @@
       <c r="P97"/>
       <c r="Q97"/>
       <c r="R97"/>
-      <c r="V97" s="4"/>
+      <c r="V97" s="2"/>
     </row>
     <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="4"/>
-      <c r="G98" s="18" t="s">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="2"/>
+      <c r="G98" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J98" s="4"/>
+      <c r="J98" s="2"/>
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
@@ -15717,267 +13883,267 @@
       <c r="P98"/>
       <c r="Q98"/>
       <c r="R98"/>
-      <c r="V98" s="4"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="V99" s="4"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="V99" s="2"/>
     </row>
     <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="4"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J100" s="4"/>
-      <c r="V100" s="4"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="V100" s="2"/>
     </row>
     <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E101" s="4"/>
-      <c r="G101" s="18" t="s">
+      <c r="E101" s="2"/>
+      <c r="G101" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J101" s="4"/>
-      <c r="V101" s="4"/>
+      <c r="J101" s="2"/>
+      <c r="V101" s="2"/>
     </row>
     <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E102" s="4"/>
-      <c r="G102" s="21"/>
-      <c r="J102" s="4"/>
-      <c r="V102" s="4"/>
+      <c r="E102" s="2"/>
+      <c r="G102" s="18"/>
+      <c r="J102" s="2"/>
+      <c r="V102" s="2"/>
     </row>
     <row r="103" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="4"/>
-      <c r="G103" s="21"/>
-      <c r="J103" s="4"/>
-      <c r="L103" s="16" t="s">
+      <c r="E103" s="2"/>
+      <c r="G103" s="18"/>
+      <c r="J103" s="2"/>
+      <c r="L103" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N103" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="N103" s="16" t="s">
+      <c r="P103" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P103" s="16" t="s">
+      <c r="R103" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="R103" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="V103" s="4"/>
+      <c r="V103" s="2"/>
     </row>
     <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="L104" s="18" t="s">
+      <c r="E104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="L104" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N104" s="18" t="s">
+      <c r="N104" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P104" s="18" t="s">
+      <c r="P104" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R104" s="18" t="s">
+      <c r="R104" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V104" s="4"/>
+      <c r="V104" s="2"/>
     </row>
     <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="V105" s="4"/>
+      <c r="E105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="V105" s="2"/>
     </row>
     <row r="106" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="L106" s="16" t="s">
+      <c r="E106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="L106" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N106" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="N106" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="V106" s="4"/>
+      <c r="V106" s="2"/>
     </row>
     <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="L107" s="18" t="s">
+      <c r="E107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="L107" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N107" s="18" t="s">
+      <c r="N107" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V107" s="4"/>
+      <c r="V107" s="2"/>
     </row>
     <row r="108" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="V108" s="4"/>
+      <c r="E108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="V108" s="2"/>
     </row>
     <row r="109" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="V109" s="4"/>
+      <c r="E109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="V109" s="2"/>
     </row>
     <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="V110" s="4"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="V110" s="2"/>
     </row>
     <row r="111" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="4"/>
-      <c r="G111" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J111" s="4"/>
-      <c r="L111" s="16" t="s">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="2"/>
+      <c r="G111" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J111" s="2"/>
+      <c r="L111" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N111" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N111" s="16" t="s">
+      <c r="P111" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P111" s="16" t="s">
+      <c r="Q111" s="23"/>
+      <c r="R111" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="Q111" s="26"/>
-      <c r="R111" s="16" t="s">
+      <c r="S111" s="23"/>
+      <c r="T111" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="S111" s="26"/>
-      <c r="T111" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U111" s="26"/>
-      <c r="V111" s="4"/>
-      <c r="X111" s="16" t="s">
-        <v>80</v>
+      <c r="U111" s="23"/>
+      <c r="V111" s="2"/>
+      <c r="X111" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="4"/>
-      <c r="G112" s="18" t="s">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="2"/>
+      <c r="G112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J112" s="4"/>
-      <c r="L112" s="18" t="s">
+      <c r="J112" s="2"/>
+      <c r="L112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N112" s="18" t="s">
+      <c r="N112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P112" s="18" t="s">
+      <c r="P112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q112" s="17"/>
-      <c r="R112" s="18" t="s">
+      <c r="Q112" s="14"/>
+      <c r="R112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S112" s="17"/>
-      <c r="T112" s="18" t="s">
+      <c r="S112" s="14"/>
+      <c r="T112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U112" s="17"/>
-      <c r="V112" s="4"/>
-      <c r="X112" s="18" t="s">
+      <c r="U112" s="14"/>
+      <c r="V112" s="2"/>
+      <c r="X112" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="V113" s="4"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="V113" s="2"/>
     </row>
     <row r="114" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="4"/>
-      <c r="G114" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J114" s="4"/>
-      <c r="L114" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="N114" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P114" s="16" t="s">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="2"/>
+      <c r="G114" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="L114" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N114" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P114" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="R114" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T114" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="R114" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="T114" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="V114" s="4"/>
-      <c r="X114" s="16" t="s">
-        <v>81</v>
+      <c r="V114" s="2"/>
+      <c r="X114" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="4"/>
-      <c r="G115" s="18" t="s">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="2"/>
+      <c r="G115" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J115" s="4"/>
-      <c r="L115" s="18" t="s">
+      <c r="J115" s="2"/>
+      <c r="L115" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N115" s="18" t="s">
+      <c r="N115" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P115" s="18" t="s">
+      <c r="P115" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R115" s="18" t="s">
+      <c r="R115" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T115" s="18" t="s">
+      <c r="T115" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V115" s="4"/>
-      <c r="X115" s="18" t="s">
+      <c r="V115" s="2"/>
+      <c r="X115" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="V116" s="4"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="V116" s="2"/>
     </row>
     <row r="117" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="13"/>
+      <c r="A117" s="11"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
@@ -16008,7 +14174,7 @@
       <c r="AC117"/>
     </row>
     <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
+      <c r="A118" s="11"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -16039,7 +14205,7 @@
       <c r="AC118"/>
     </row>
     <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="13"/>
+      <c r="A119" s="11"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
@@ -16070,7 +14236,7 @@
       <c r="AC119"/>
     </row>
     <row r="120" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
+      <c r="A120" s="11"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
@@ -16101,7 +14267,7 @@
       <c r="AC120"/>
     </row>
     <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
+      <c r="A121" s="11"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
@@ -16132,7 +14298,7 @@
       <c r="AC121"/>
     </row>
     <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="13"/>
+      <c r="A122" s="11"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -16505,6 +14671,34 @@
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:AA1 A2:B2 AA2 A3:AA3 A4:J4 V4:W4 AA4 A5:AA9 A10:K10 M10 O10:O11 V10:W11 Y10:Y11 AA10:AA11 A11:N11 P11:U11 X11 Z11 A12:AA13 A14:F15 H14:K15 M14:M15 O14:O15 V14:AA15 G15 L15 N15 P15:U15 A16:AA16 A17:F18 H17:AA18 G18 A19:AA19 A20:F21 H20:K21 M20:M21 O20:O21 Q20:Q21 S20:S21 U20:AA21 N21 P21 R21 T21 A22:AA27 A28:F29 H28:K29 M28:M29 O28:O29 V28:AA29 G29 L29 N29 P29:U29 A30:AA30 A31:F32 H31:AA32 G32 A33:AA33 A34:F35 H34:K35 M34:M35 O34:O35 Q34:Q35 S34:S35 U34:AA35 N35 P35 R35 T35 A36:AA41 A42:F43 H42:K43 N42:P43 V42:AA43 G43 U43 A44:AA44 A45:F46 H45:AA46 G46 A47:AA47 A48:F49 H48:K49 M48:AA49 A50:AA50 A51:K52 M51:Q52 S51:AA52 A53:AA53 A54:K55 M54:AA55 A56:AA56 A57:K58 M57:AA58 K59:T59 A59:J60 U59:AA60 A61:AA61 A62:F63 H62:K63 N62:P63 V62:AA63 G63 U63 A64:AA64 A65:F66 H65:AA66 G66 A67:AA67 A68:F69 H68:K69 M68:AA69 A70:AA70 A71:F72 H71:K72 M71:Q72 S71:AA72 A73:AA73 A74:K75 M74:AA75 A76:AA76 A77:K78 M77:AA78 A79:AA81 A82:F83 N82:P83 G83 U83 A84:AA84 A85:F86 G86 A87:AA87 A88:F89 A90:AA90 A91:F92 A93:AA93 A94:F95 S94:AA98 A96:O96 A97:F98 H97:K98 A99:AA99 A100:E100 H100:AA101 A102:AA102 A103:K104 M103:M104 O103:O104 Q103:Q104 S103:AA104 A105:AA105 A106:K107 M106:M107 O106:AA107 A108:AA110 A111:F112 H111:K112 M111:M112 O111:O112 R111:R112 T111:T112 V111:AA112 G112 L112 N112 P112:U112 A113:AA113 A114:F115 X114:AA115 G115:W115 A116:AA116 A117:A133 A134:AA215">
+    <cfRule type="cellIs" dxfId="7" priority="225" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="228" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="229" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="230" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="231" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="232" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="233" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:AA210">
+    <cfRule type="cellIs" dxfId="0" priority="234" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 T35 N11 X11 Z11 G15 G18 L15 N15 P15:U15 G24 L24 N21 P21 R21 T21 G29 G32 L29 N29 P29:U29 G38 L38 N35 P35 R35 P11:Q11 S11:U11 G43 G46 P58 U43 N55 G52 N43 P43 R46 N46 P46 G49 R49 N49 P49 R58 N52 P52 N58 P55 G63 G66 P78 U63 N75 P75 N63 P63 R66 N66 P66 G69 R69 N69 P69 R78 N72 P72 N78 G72 G83 G86 X89 U83 N95 X92 N83 P83 R86 N86 P86 G89 R89 N89 P89 X83 N92 P92 X86 G92 G95 G98 G101 L83 L86 R83 L89 L92 R92 L95 L104 N104 P104 R104 L107 N107 L115 G115 L112 N112 T115 P112:U112 N115 P115 R115 G112 X112 X115" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
       <formula1>Status</formula1>
@@ -16516,2874 +14710,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="30" fitToHeight="10" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="225" operator="equal" id="{803C6B78-FD25-CB4E-AFF2-D03AAFCA599B}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="228" operator="equal" id="{6267B9EB-BFDB-CC42-AE06-382FD766AFD7}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="229" operator="equal" id="{D351242E-670F-7249-A02A-E9AD9798C1DE}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="230" operator="equal" id="{39F8DB71-9029-A847-ADCC-AEEEB37D8635}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="231" operator="equal" id="{27B6CAFB-7EDF-7740-AA59-B23D54F8EA06}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="232" operator="equal" id="{A46C1388-915C-3843-A15C-8AB79EDF2279}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="233" operator="equal" id="{72813FEB-A3F3-154A-A17B-7856D453F421}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="234" operator="equal" id="{50B0CBC7-2716-BD49-A0FE-795F1219CBEC}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A1:AA1 A2:B2 AA2 A3:AA3 A4:J4 V4:W4 AA4 A5:AA9 A10:K10 M10 O10:O11 V10:W11 Y10:Y11 AA10:AA11 A11:N11 P11:U11 X11 Z11 A12:AA13 A14:F15 H14:K15 M14:M15 O14:O15 V14:AA15 G15 L15 N15 P15:U15 A16:AA16 A17:F18 H17:AA18 G18 A19:AA19 A20:F21 H20:K21 M20:M21 O20:O21 Q20:Q21 S20:S21 U20:AA21 N21 P21 R21 T21 A22:AA27 A28:F29 H28:K29 M28:M29 O28:O29 V28:AA29 G29 L29 N29 P29:U29 A30:AA30 A31:F32 H31:AA32 G32 A33:AA33 A34:F35 H34:K35 M34:M35 O34:O35 Q34:Q35 S34:S35 U34:AA35 N35 P35 R35 T35 A36:AA41 A42:F43 H42:K43 N42:P43 V42:AA43 G43 U43 A44:AA44 A45:F46 H45:AA46 G46 A47:AA47 A48:F49 H48:K49 M48:AA49 A50:AA50 A51:K52 M51:Q52 S51:AA52 A53:AA53 A54:K55 M54:AA55 A56:AA56 A57:K58 M57:AA58 K59:T59 A59:J60 U59:AA60 A100:E100 A102:AA102 A61:AA61 A62:F63 H62:K63 N62:P63 V62:AA63 G63 U63 A64:AA64 A65:F66 H65:AA66 G66 A67:AA67 A68:F69 H68:K69 M68:AA69 A70:AA70 A71:F72 M71:Q72 S71:AA72 A73:AA73 A74:K75 M74:AA75 A76:AA76 A77:K78 M77:AA78 A79:AA81 H71:K72 A82:F83 H82:K83 N82:P83 V82:W83 G83 U83 A84:AA84 A85:F86 G86 A87:AA87 A88:F89 H88:K89 M88:W89 A90:AA90 A91:F92 M91:Q92 S91:W92 A93:AA93 A94:F95 A96:O96 A97:F98 A99:AA99 H91:K92 H94:K95 H97:K98 A101:F101 H100:AA101 H85:W86 M94:O95 Y82:AA83 Y85:AA86 Y88:AA89 Y91:AA92 S94:AA98 A105:AA105 A103:K104 M103:M104 O103:O104 Q103:Q104 S103:AA104 A106:K107 M106:M107 O106:AA107 A111:F112 H111:K112 M111:M112 O111:O112 L112 A113:AA113 A114:F115 A116:AA116 A108:AA110 A134:AA215 R111:R112 T111:T112 N112 P112:U112 G115:W115 G112 H114:M114 V111:AA112 X114:AA115 A117:A133 O114:W114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="217" operator="equal" id="{A4FBD1E4-D964-EC42-A151-F26E5B712D48}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="218" operator="equal" id="{96928EA4-6187-A541-AA34-9F7FCAB26591}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="219" operator="equal" id="{3AA5A7B3-CD60-F14F-B63D-83BE0EA2637C}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="220" operator="equal" id="{B43A47A0-AD8C-CE41-8F4D-4B3262C07530}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="221" operator="equal" id="{DD6CBF49-0EE2-C44B-844C-5913D7AC36C8}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{070DA2A2-3C13-784F-9B63-4B6A73C72B07}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFEA9999"/>
-                  <bgColor rgb="FFEA9999"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{1E28D502-7F77-1042-8728-2921066FEAA5}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="224" operator="equal" id="{43007403-369B-9046-8B35-672FA87444D0}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="209" operator="equal" id="{97FE21DC-031B-D14F-B6CD-02B4AE09141A}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="210" operator="equal" id="{6247F024-5761-334D-9369-178AE1A8AAD1}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="211" operator="equal" id="{872589F8-B381-704B-B8DD-95E91A5F4EB0}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="212" operator="equal" id="{38C19551-34A5-8C47-9CFB-A67767A5FB8F}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="213" operator="equal" id="{C260D891-C419-4648-BBAE-24358125FBCB}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="214" operator="equal" id="{5BE89195-ABEE-EC41-A3FA-F33228F15127}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFEA9999"/>
-                  <bgColor rgb="FFEA9999"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{AA26F158-C56D-1747-9972-CEB01BF96F39}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="216" operator="equal" id="{E9071BFE-9706-3F47-A948-6DA37A3F7A93}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F2:G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="201" operator="equal" id="{70F91E9D-EC8D-4647-94DA-33F9260EF824}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="202" operator="equal" id="{E78DE6F2-9DB2-C54F-B12C-DA9D4CDD974A}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="203" operator="equal" id="{B630E8E6-DB5C-D642-97A3-3E31C3F1B5C9}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="204" operator="equal" id="{212BD4DB-96A9-514D-8FC4-2311DA0FF889}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="205" operator="equal" id="{12DAB6CE-A14D-9F4A-907B-59F82111CED7}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="206" operator="equal" id="{63E4EDDF-7E35-464A-BF53-668FD8A98100}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="207" operator="equal" id="{0633CE62-BF22-E44D-BACE-0CD04C693691}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="208" operator="equal" id="{6FBFCDFF-FF57-5E4F-9FF1-E2EA6D70FCEE}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="193" operator="equal" id="{1F79FA34-BA9C-A243-9C41-6BB989D0B001}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="194" operator="equal" id="{9AB1EC8C-1263-3849-8F2D-91376A62669F}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="195" operator="equal" id="{D62CF9FD-3261-1F4C-A610-01A453C9350B}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="196" operator="equal" id="{FFB9F3B6-573F-104B-BDDF-753F123FD9DB}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="197" operator="equal" id="{4E6DAC02-56EF-F84A-BB56-2796CDE2284A}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="198" operator="equal" id="{B0869E55-E986-5D4C-9DE2-026ECE3D6A60}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="199" operator="equal" id="{92EBBF94-B9F8-1E40-91E4-24B730051C1A}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="200" operator="equal" id="{D6B0366D-984C-A244-B929-19B568AA5A0B}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="185" operator="equal" id="{94087C5E-49E1-B344-87FE-BF7AB6AF2F0B}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="186" operator="equal" id="{1FB69B83-A2FB-9745-B333-71CE4F8293C2}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="187" operator="equal" id="{39446FC3-35A9-0443-A865-6A09B67B5B5E}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="188" operator="equal" id="{CC1B61B4-E990-4345-8211-C6C0778D1B65}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="189" operator="equal" id="{8A16A95E-FE7D-5B4D-9CB4-091C3793C195}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="190" operator="equal" id="{97FAF8C3-0A73-924A-ADF0-770E3FAA0562}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="191" operator="equal" id="{E4F21B33-C0B7-C94F-AF60-59F82E13CEC2}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="192" operator="equal" id="{3CE1D33A-E03B-944C-BB2B-B5964E518FD2}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G72</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="177" operator="equal" id="{62D7D1CB-E181-B14A-818F-2C42FEC393ED}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{97CEBD0B-9D62-FD48-B9EA-27C96C993471}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="179" operator="equal" id="{E29DED99-F38F-414B-96FF-9F24FE094DE3}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="180" operator="equal" id="{76E4B02A-D3D3-9D47-AB01-7028F83867F6}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="181" operator="equal" id="{D262DDC5-C0C1-8B49-89C1-EF0CA2434380}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{EE2DE049-6780-544E-9462-434F2E58027D}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{305572A9-9891-C049-8D9D-AC0DB0A84A6D}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="184" operator="equal" id="{464F56E5-64DD-744B-AC4E-B9004ACBDBCE}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="169" operator="equal" id="{C764DC52-C4F9-3A43-A0D6-BFE949972FC8}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{2BA8CB49-0835-754D-8460-6FA1EE6B2D96}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{BB4BF5E1-8403-EF48-A293-049A5D363F1F}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="172" operator="equal" id="{89812A39-3170-5345-B978-4D2F9538DED2}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="173" operator="equal" id="{0F49F0BF-9C61-FE41-ACB2-5D6A444E93DA}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{8CBBF793-A0D4-5045-A3B9-FAFFE56AEC44}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="175" operator="equal" id="{270F7D08-1C6B-C049-AE2C-0CB783DB0B4E}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="176" operator="equal" id="{02B8A604-6842-3F4B-A951-04FC69BE8279}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G92</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="161" operator="equal" id="{0EA68158-82AD-4F4E-A753-9CCDD9D8D2F8}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{54C76253-8944-0F47-B566-97C1F16AC24F}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="163" operator="equal" id="{30B0BCAB-3692-4A48-9F87-4F3797B643B6}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="164" operator="equal" id="{EDFD5FAC-750A-4F47-AB15-21BAE95957B5}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="165" operator="equal" id="{126DA5B2-5BBB-7041-8232-EC3A85C226C3}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="166" operator="equal" id="{CBF2D76D-0C81-FE45-A7DF-45AE9EC97DDC}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="167" operator="equal" id="{291E95B1-7C73-734A-B397-372CFD555AEA}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{1F305B3E-84DC-8844-8C03-AB2835B06EA9}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G95</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="153" operator="equal" id="{7BF3DE81-FBE6-2745-A3CD-674FB56B223D}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="154" operator="equal" id="{93258676-DD09-1647-892F-E24AD5DB8F9E}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="155" operator="equal" id="{0EA30CBB-3581-C54C-BD3B-9D24E36D3127}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="156" operator="equal" id="{24902512-B1C0-934D-9B11-3C376692CDD2}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{9176628B-01B6-0B4D-8520-134149E87A8F}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{72F5881A-B263-EC48-AF3F-E22592AE29D4}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{E381D0EE-F0D9-6E45-9EEC-8B49238B0511}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="160" operator="equal" id="{75B30043-1A3A-D146-B346-70D5FFCB666D}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="145" operator="equal" id="{997937D8-8D5B-2B4C-9A3A-943AD14F36A7}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{81AE1A35-B16B-5244-9C16-E2F5E02944F0}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="147" operator="equal" id="{6DD0B1DF-8862-8E40-A202-8E7F631031E9}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="148" operator="equal" id="{8BDE11A9-9DA1-144D-B692-BA3B11BFE153}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="149" operator="equal" id="{A1EFF486-61DA-2149-927F-02BDF9928D68}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="150" operator="equal" id="{76851FE8-3E6F-A747-9D4D-FF1D55FF3B6F}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{88582B68-E896-8441-9749-3406905EA69F}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="152" operator="equal" id="{E494CBCB-04F2-E84B-8200-99BBCC31C4BD}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G101</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="137" operator="equal" id="{7F5F093E-882D-A640-8B0D-9C3CB25ADC8F}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="138" operator="equal" id="{4D88F3B6-A5F4-3E49-8078-B58B8823B27F}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{26ED2ADE-58F4-B44C-BE08-95AC2CF54113}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{D1949D24-E3E3-3644-872D-71402EEEC817}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{97F4F0CE-FAA6-224D-90FA-FA6DC24F197B}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="142" operator="equal" id="{E2235D23-42D1-7049-8A99-C39C238E7E7B}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="143" operator="equal" id="{3FBA8F6A-2989-3840-81BB-5229E5564FA8}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="144" operator="equal" id="{583658A5-E277-7042-B81F-7E4131EE270E}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L82:L83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="129" operator="equal" id="{02C53154-9ACB-EE47-97C6-9D46F595D6F8}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="130" operator="equal" id="{9F0633A1-1D06-9944-848A-9A283FDB444D}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="131" operator="equal" id="{E21F4A54-FEDB-FC46-8217-240183629ACE}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="132" operator="equal" id="{394BBD3A-4945-7049-AF5E-226DA1DF1D80}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="133" operator="equal" id="{3FA65661-FF82-2D4C-B9EB-B9A1CB39326D}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{3CFE8CC0-27B0-7145-B120-0CCA36E22A27}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="135" operator="equal" id="{F5BCF3C3-9D1F-CC4A-932F-D6561EF7CAC6}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="136" operator="equal" id="{388BC94B-6212-6B4C-B965-3A365F45DC93}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>R82:R83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="121" operator="equal" id="{99964125-394D-244F-8B76-03D2A740CDE6}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="122" operator="equal" id="{C3594A1B-3215-9F4A-BD17-ECD3CE9649FA}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="123" operator="equal" id="{937998A2-4D6F-B145-9509-6859637CCEB0}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="124" operator="equal" id="{C8F665A7-DB3D-7340-9654-9544E0B64883}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="125" operator="equal" id="{683DE114-6008-9E44-959B-A22C5AD3873B}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{B881E1B5-E832-544F-BB51-37DE2EE873D9}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{8C43BC50-4C9F-954E-A5B7-318FA0D5555F}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="128" operator="equal" id="{153ACDC2-800C-2741-82C0-0B31D4D8D973}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L88:L89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="113" operator="equal" id="{0D6DD919-CE6B-0D4B-9C37-0716715289FF}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="114" operator="equal" id="{8A75DC69-45C1-6A49-8AEB-B1331377DCEB}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{2FF4F19C-2B6C-2C44-8B9B-83B2586B2BD1}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{575ADABC-64C8-2E4A-8B27-8BB565EB00EF}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="117" operator="equal" id="{5F2C7838-2BFF-1149-BBD9-EC86E7B082E2}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="118" operator="equal" id="{964B1830-E207-604D-A1A0-F3311EE1DC45}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="119" operator="equal" id="{8821D1F9-ABC9-D742-B0D9-F2D3A1B073F1}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="120" operator="equal" id="{355C2426-2ECD-084E-8EA5-229603672584}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L91:L92</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{3D21BFC6-2019-E54A-AB35-42ECBD7E5060}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{7DBDC350-84E8-5D47-BD15-F9657C0B227D}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="107" operator="equal" id="{20E67CD3-49CF-FC42-9B69-3A2FC3C763D4}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="108" operator="equal" id="{DF48FCA1-3840-394D-9C92-B9F499C906E7}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{0BE92199-5674-3C4E-A359-5F8BED975304}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="110" operator="equal" id="{2E9825E8-2CA8-2F4D-AC6D-C8DCCF431FB7}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="111" operator="equal" id="{08E78A72-9C14-C040-B7CB-1A660E8743CF}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="112" operator="equal" id="{1991EDE1-9CA8-0245-91A6-C0B902773AC5}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>R91:R92</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{A5FE3013-CF1D-8A4C-841A-103C8796AE02}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="98" operator="equal" id="{56659B02-A89F-B445-BD73-51BB2395E6EB}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="99" operator="equal" id="{7C587B36-C71E-7145-9FA9-5FCD578A189D}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="100" operator="equal" id="{FF2D571B-2096-C541-A9AA-74DADF7B3DEA}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="101" operator="equal" id="{F6E6C832-326B-824F-ACE0-5D46EEBE514A}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{C04CC78D-C2F9-FC40-9203-3C9AA6DDEF18}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{0BB1F716-D544-A144-9C3F-546F09CBD283}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{2B38E33A-2EFB-0141-846C-98A3D1F7CAD2}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L94:L95</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{0DA7F5A7-D32A-B948-A01F-600496A93C78}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{C17D2522-1E1C-134B-90DA-5949512318BF}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{B41EBB92-486D-874C-BD26-E2A0AED6FF75}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{FD3BFD20-FED8-6742-8423-8394356D2E8B}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{97265427-0F05-BF47-9399-B75A4564468E}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="86" operator="equal" id="{5DE137BE-26EF-1E40-99F3-4BD9D8B943AD}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="87" operator="equal" id="{CE2E0CAD-1A3C-174D-B0B1-E9CE4735FB19}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{0F60DA64-E8BC-F841-8824-07E2841CE40E}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>X82:X83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{77766615-3EB0-C748-9D93-B49169481CA8}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{4BDEFF11-B80F-194A-A29E-4BA544DDEDBF}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{F1DC9916-47FC-E04C-8AE8-BFF6B8E3F222}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{4DF46A59-08DD-2541-89ED-A13FA4A7686D}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="77" operator="equal" id="{551B11BF-8F75-7248-AFCD-5A38EDC9111C}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="78" operator="equal" id="{32155AC7-BADB-E946-A56E-E52DA9D318E2}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{224A5802-8B00-7D43-9313-291C6A5D0D54}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{8A554520-EC1D-C94A-995A-9D0023CE9F69}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>X85:X86</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{BB928920-659C-924C-98EB-C4BF00C6065C}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{9F82BF7A-BCBD-C949-831B-607515C325A6}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{65BA6259-0D04-7F48-AE05-A256216A98EB}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{6329E7A6-6D72-994D-A53C-45DAD15A13DE}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{AD6C2446-F7C9-2649-85AE-ED0A0D717837}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{CFD66F01-67E1-6D48-B268-25719FDD7CD7}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{F596FD10-F14D-CA4B-AC40-7AB7DE282231}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{2B47C393-DF4F-F243-AB01-A9236A5A6741}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>X88:X89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{7042100C-0712-9F41-9F42-B4291E6BB3A0}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{0F886A10-32FF-314C-8D7A-F18F65A68508}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{E7CA2347-5CC4-DE49-8FBA-062E239DA74C}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{53A744E9-95B8-294A-BE4B-00B8782C4A8A}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{49E209E0-ED58-A945-B4E1-694CE9B26322}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{8B786CE8-1119-054F-8EA1-74E6A4F4236C}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{3FDB8F70-672E-7D4C-A06C-80D88B6C8FD2}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{4E544DAA-D793-7642-A84E-9638AD466ECF}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>X91:X92</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{6E9AA750-D653-D548-A564-770482309ABD}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{536F5D48-E943-C342-92D5-AA5BBA8D4089}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{A8932680-464E-3D4B-B42F-F905EC5BBA58}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{97F251F5-28B9-BB47-BDF4-A448544424E1}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{22BCFFA6-9B90-724F-B2F9-B2071DE53651}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{960E4906-DB9F-6B4D-B914-29DD6C8003C0}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{2A2E2BAD-1ACD-834C-8A18-791D279285CC}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{7E49A33E-F1C7-E843-882D-7342775F860B}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{433DC571-3B0B-6745-A914-B0F26F647315}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{9A12B98C-3DEF-8744-9CEE-965EAEEC9759}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{485BD5FE-CEC1-D241-A23E-2204C7EADDC2}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{510CD136-1AF7-CA40-BBAC-778EA1ABC337}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{939DD4EE-2040-A943-9EFA-DAF9E516D98C}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{EDADA744-E993-FA42-A109-6D9101508EB7}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{06BA2A27-9B3C-1445-B34D-C26F984E8737}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{C3D6B93B-7656-A140-9B98-D325B81F0B20}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{0E4D49B5-DEE8-1447-AB41-6A08822CABCE}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{B17DBF1C-1EC8-8A41-8F3D-CB8E0CC4069B}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{8AD454D9-ECC4-FC4B-A457-76492009F95D}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{4882D96D-87BA-D34B-9C3F-8975436870D1}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{C06C4A71-E280-1F4F-8F16-97E4559B67A9}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{DE5CB683-AC5E-0F46-8BE1-C44EBC777D81}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{1B209053-4478-FD40-BB92-5691DD3DBCAF}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{500DFEE1-D498-2D44-86A4-414E24878F63}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>P104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{4A709CF1-CD96-5E42-900F-48868BA714DA}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{89EA6B3F-7F3D-3140-832B-DC2505AD84E0}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{1C24A2D3-42F9-0848-B99B-82831B41A08B}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{2B90E080-C6AD-7146-A647-AA0277259CD9}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{49FA9D42-D32D-2F42-BB47-CC1646875FAC}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{BB268D13-0F3A-3541-B228-C31206AF9EA4}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{0C35C184-1DD3-D946-9989-B865C1719A61}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{87DBAA05-16FE-9446-ADCA-3A2D3FA2BA62}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>R104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{D5859A97-6BB0-2642-A286-ABCE2C2E80B8}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{C92C32E8-5E60-7F47-BB7D-32E524BB99F9}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{733F3165-AB3C-B942-B93F-B5CBE449CEAC}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{7836122D-1932-1942-BCAA-D5325B052737}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{2B5AEE86-3EE8-784B-822B-A3C114523D15}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{11AF6FA8-E9E2-5344-89C7-1FCBE4C824A1}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{92552072-BB2A-E94D-AD35-F547BCD0765E}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{CE56CAF2-D4B2-B645-ADEE-9203C58D373E}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{85F12387-894C-9142-B709-1BCBE2AB7D57}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{083054C9-1843-2F49-BD69-60746F44EAC4}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{D085AF37-E74C-7E47-B939-2C9A1AFF1C98}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{74960FD1-8056-5241-A9A6-063BDB2839FA}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{C4DFE3E2-6D61-984D-AEE5-F8F7B32B6052}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{80DCD2C7-4D16-0F45-8AB3-2FCB074A84FF}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{EB20E59C-A954-0A49-B435-8A0057270037}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{04AE7F77-C2C6-4D46-95C5-9428D9A6F7F2}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{74479BFB-9219-DD43-9D3E-F50E3EDD8D60}">
-            <xm:f>Config!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{AD6D251D-C8BC-B14F-A5AD-AFA75B83F60F}">
-            <xm:f>Config!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor theme="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{6A8CECA2-6765-E94B-81C3-82A2401E9B3E}">
-            <xm:f>Config!$B$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9FC5E8"/>
-                  <bgColor rgb="FF9FC5E8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{2BC91880-3F2E-5A41-8432-5B94151760A1}">
-            <xm:f>Config!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB6D7A8"/>
-                  <bgColor rgb="FFB6D7A8"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{02A63303-3924-7449-BEF2-4D514E88CC24}">
-            <xm:f>Config!$B$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFF9CB9C"/>
-                  <bgColor rgb="FFF9CB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{6645736D-B7F7-D047-A91D-3C82E1E8F43C}">
-            <xm:f>Config!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill patternType="lightTrellis">
-                  <fgColor rgb="FFFFB293"/>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{8E90CB62-2D6E-574E-81AD-740EDDACD19A}">
-            <xm:f>Config!$B$9</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB4A7D6"/>
-                  <bgColor rgb="FFB4A7D6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{3268699C-2AD6-034E-B727-863FB8EE75A7}">
-            <xm:f>Config!$B$8</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFD9D2E9"/>
-                  <bgColor rgb="FFD9D2E9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>N114</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA07E04-34F5-D04B-B55C-6863CFB3F8E0}">
-  <dimension ref="B2:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{6BF50569-7E05-A74F-B254-95499C6910D7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\zerotrustassessment\src\documentgenerator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF65967-2D0F-AB41-BCF4-E4A024DF1C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65937465-56A5-403B-8A9F-2B3A4DB544B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Workshop" sheetId="1" r:id="rId1"/>
+    <sheet name="Workshop-Devices" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ListStatus">Workshop!$G$96:$G$103</definedName>
-    <definedName name="Status">Workshop!$AD$2:$AK$2</definedName>
+    <definedName name="ListStatus">'Workshop-Devices'!$G$96:$G$103</definedName>
+    <definedName name="Status">'Workshop-Devices'!$AD$2:$AK$2</definedName>
     <definedName name="StBlocked">#REF!</definedName>
     <definedName name="StCompleted">#REF!</definedName>
     <definedName name="StInProgress">#REF!</definedName>
@@ -26,7 +26,7 @@
     <definedName name="StPlanned">#REF!</definedName>
     <definedName name="StThirdParty">#REF!</definedName>
     <definedName name="StWillNotPursue">#REF!</definedName>
-    <definedName name="WorkshopData">Workshop!$A$1:$AA$215</definedName>
+    <definedName name="WorkshopData">'Workshop-Devices'!$A$1:$AA$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,24 +49,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="86">
   <si>
     <t>Zero Trust Workshop - Devices</t>
   </si>
   <si>
     <t>Legend</t>
-  </si>
-  <si>
-    <t>Not started</t>
-  </si>
-  <si>
-    <t>Planned</t>
-  </si>
-  <si>
-    <t>Third Party</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Device filters</t>
@@ -97,9 +85,6 @@
   </si>
   <si>
     <t>Conditional launch</t>
-  </si>
-  <si>
-    <t>Will not pursue</t>
   </si>
   <si>
     <t>Review App config vs App protection policies</t>
@@ -296,12 +281,6 @@
     <t>Native update management</t>
   </si>
   <si>
-    <t>📆 Planned</t>
-  </si>
-  <si>
-    <t>▶️ In progress</t>
-  </si>
-  <si>
     <t>✓ Completed</t>
   </si>
   <si>
@@ -325,12 +304,18 @@
   <si>
     <t>☉ Not started</t>
   </si>
+  <si>
+    <t>[Customer Name]</t>
+  </si>
+  <si>
+    <t>[Date]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -416,6 +401,31 @@
       <color rgb="FFFF0000"/>
       <name val="Segoe UI Semibold"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI Semibold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -497,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -558,36 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="slantDashDot">
-        <color theme="1"/>
-      </left>
-      <right style="slantDashDot">
-        <color theme="1"/>
-      </right>
-      <top style="slantDashDot">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color theme="1"/>
-      </left>
-      <right style="slantDashDot">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -605,11 +585,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyFont="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -639,9 +619,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
@@ -652,12 +629,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
@@ -706,12 +677,92 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="WorkItem" xfId="1" xr:uid="{0F6335E5-33B1-7644-B498-B1E7394136F4}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -791,6 +842,153 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1314,15 +1512,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:rowOff>336550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>698500</xdr:rowOff>
+      <xdr:rowOff>717550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1351,7 +1549,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6959600" y="2286000"/>
+          <a:off x="6435725" y="2308226"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4083,13 +4281,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1750905</xdr:colOff>
+      <xdr:colOff>1895852</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>496225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>72170</xdr:colOff>
+      <xdr:colOff>217117</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>352444</xdr:rowOff>
     </xdr:to>
@@ -4123,8 +4321,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15678852" y="622384"/>
-          <a:ext cx="617358" cy="520656"/>
+          <a:off x="17570689" y="620464"/>
+          <a:ext cx="899227" cy="513652"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5076,13 +5274,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1863620</xdr:colOff>
+      <xdr:colOff>2024095</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>501247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>97299</xdr:colOff>
+      <xdr:colOff>257774</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>348460</xdr:rowOff>
     </xdr:to>
@@ -5116,8 +5314,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4695720" y="628247"/>
-          <a:ext cx="608579" cy="507613"/>
+          <a:off x="5212899" y="625486"/>
+          <a:ext cx="909998" cy="504646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5152,8 +5350,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5331578" y="18761697"/>
-          <a:ext cx="2433682" cy="508137"/>
+          <a:off x="5985773" y="18782955"/>
+          <a:ext cx="2754224" cy="508510"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5301,8 +5499,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5345238" y="20302812"/>
-          <a:ext cx="2433682" cy="508467"/>
+          <a:off x="5999433" y="20331203"/>
+          <a:ext cx="2754224" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5765,8 +5963,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5329870" y="23470421"/>
-          <a:ext cx="2433682" cy="508467"/>
+          <a:off x="5984065" y="23513080"/>
+          <a:ext cx="2754224" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5914,8 +6112,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5364875" y="21817887"/>
-          <a:ext cx="2433682" cy="508467"/>
+          <a:off x="6019070" y="21853413"/>
+          <a:ext cx="2754224" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6063,8 +6261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5380243" y="25037576"/>
-          <a:ext cx="2433682" cy="508467"/>
+          <a:off x="6034438" y="25087368"/>
+          <a:ext cx="2754224" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6364,8 +6562,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5380243" y="26661081"/>
-          <a:ext cx="2433682" cy="508467"/>
+          <a:off x="6034438" y="26718006"/>
+          <a:ext cx="2754224" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6490,51 +6688,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>212019</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73378</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1549400" cy="1555750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Graphic 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED212189-B69E-2C48-9DA8-7E6A1EC6DF3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="536575" y="6959600"/>
-          <a:ext cx="1549400" cy="1555750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>242710</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>366889</xdr:rowOff>
@@ -7315,8 +7468,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5331578" y="29262109"/>
-          <a:ext cx="2433682" cy="508137"/>
+          <a:off x="5985773" y="29332928"/>
+          <a:ext cx="2754224" cy="508510"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7464,8 +7617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5345238" y="30803224"/>
-          <a:ext cx="2433682" cy="508467"/>
+          <a:off x="5999433" y="30881176"/>
+          <a:ext cx="2754224" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7928,8 +8081,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5329870" y="33970834"/>
-          <a:ext cx="2433682" cy="508467"/>
+          <a:off x="5984065" y="34063052"/>
+          <a:ext cx="2754224" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8077,8 +8230,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5364875" y="32318300"/>
-          <a:ext cx="2433682" cy="508467"/>
+          <a:off x="6019070" y="32403385"/>
+          <a:ext cx="2754224" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8226,8 +8379,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5380243" y="35537988"/>
-          <a:ext cx="2433682" cy="508467"/>
+          <a:off x="6034438" y="35637341"/>
+          <a:ext cx="2754224" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8527,8 +8680,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5380243" y="37161493"/>
-          <a:ext cx="2433682" cy="508467"/>
+          <a:off x="6034438" y="37267979"/>
+          <a:ext cx="2754224" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -11539,8 +11692,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="665986" y="56326461"/>
-          <a:ext cx="1219958" cy="1229705"/>
+          <a:off x="711383" y="56521555"/>
+          <a:ext cx="1321731" cy="1233458"/>
           <a:chOff x="620888" y="57714444"/>
           <a:chExt cx="1411111" cy="1411111"/>
         </a:xfrm>
@@ -12163,12 +12316,12 @@
   </sheetPr>
   <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
@@ -12194,12 +12347,13 @@
     <col min="24" max="24" width="26.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="2" style="1" customWidth="1"/>
     <col min="26" max="26" width="22" style="1" customWidth="1"/>
-    <col min="27" max="29" width="10.83203125" style="1"/>
-    <col min="30" max="37" width="25.83203125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="37" width="25.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="38" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -12227,16 +12381,16 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
     </row>
-    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12245,14 +12399,16 @@
       <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="N2" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -12262,39 +12418,41 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="X2" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="3"/>
-      <c r="AC2" s="26" t="s">
+      <c r="AC2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF2" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AD2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AH2" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI2" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ2" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK2" s="35" t="s">
-        <v>86</v>
+      <c r="AE2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK2" s="32" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -12323,36 +12481,36 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -12381,7 +12539,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12410,36 +12568,36 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:37" ht="4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="4.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -12448,7 +12606,7 @@
       <c r="J8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:37" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -12457,36 +12615,36 @@
       <c r="J9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:37" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="76.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="L10" s="20" t="s">
-        <v>6</v>
+      <c r="L10" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
       <c r="V10" s="2"/>
       <c r="X10" s="13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -12494,13 +12652,13 @@
       <c r="E11" s="2"/>
       <c r="G11" s="14"/>
       <c r="J11" s="2"/>
-      <c r="L11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" s="15" t="s">
+      <c r="L11" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="36" t="s">
         <v>83</v>
       </c>
       <c r="Q11" s="14"/>
@@ -12509,14 +12667,14 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="2"/>
-      <c r="X11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z11" s="15" t="s">
-        <v>86</v>
+      <c r="X11" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z11" s="36" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -12525,7 +12683,7 @@
       <c r="J12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -12534,50 +12692,50 @@
       <c r="J13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:37" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="64.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="2"/>
-      <c r="G14" s="16" t="s">
-        <v>11</v>
+      <c r="G14" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="J14" s="2"/>
       <c r="L14" s="13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="2"/>
-      <c r="G15" s="15" t="s">
-        <v>85</v>
+      <c r="G15" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="L15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>88</v>
+      <c r="L15" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -12586,7 +12744,7 @@
       <c r="U15" s="14"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -12595,31 +12753,31 @@
       <c r="J16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="2"/>
-      <c r="G17" s="25" t="s">
-        <v>12</v>
+      <c r="G17" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="J17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="15" t="s">
-        <v>89</v>
+      <c r="G18" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -12628,7 +12786,7 @@
       <c r="J19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -12636,41 +12794,41 @@
       <c r="E20" s="2"/>
       <c r="J20" s="2"/>
       <c r="N20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="P20" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="N21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="15" t="s">
-        <v>5</v>
+      <c r="N21" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="T21" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -12679,37 +12837,37 @@
       <c r="J22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="59" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="2"/>
       <c r="G23" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J23" s="2"/>
       <c r="L23" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="2"/>
-      <c r="G24" s="15" t="s">
-        <v>2</v>
+      <c r="G24" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="L24" s="15" t="s">
-        <v>5</v>
+      <c r="L24" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -12718,7 +12876,7 @@
       <c r="J25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12727,7 +12885,7 @@
       <c r="J26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -12736,50 +12894,50 @@
       <c r="J27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="2"/>
-      <c r="G28" s="16" t="s">
-        <v>11</v>
+      <c r="G28" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="J28" s="2"/>
       <c r="L28" s="13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="15" t="s">
-        <v>3</v>
+      <c r="G29" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="L29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>4</v>
+      <c r="L29" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
@@ -12788,7 +12946,7 @@
       <c r="U29" s="14"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -12797,31 +12955,31 @@
       <c r="J30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="25" t="s">
-        <v>12</v>
+      <c r="G31" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="J31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="2"/>
-      <c r="G32" s="15" t="s">
-        <v>2</v>
+      <c r="G32" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -12830,7 +12988,7 @@
       <c r="J33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12838,41 +12996,41 @@
       <c r="E34" s="2"/>
       <c r="J34" s="2"/>
       <c r="N34" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P34" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="N35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="15" t="s">
-        <v>5</v>
+      <c r="N35" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="T35" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12881,37 +13039,37 @@
       <c r="J36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="2"/>
       <c r="G37" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J37" s="2"/>
       <c r="L37" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="2"/>
-      <c r="G38" s="15" t="s">
-        <v>2</v>
+      <c r="G38" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="L38" s="15" t="s">
-        <v>5</v>
+      <c r="L38" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12920,7 +13078,7 @@
       <c r="J39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -12929,7 +13087,7 @@
       <c r="J40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -12938,45 +13096,45 @@
       <c r="J41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="2"/>
-      <c r="G42" s="16" t="s">
-        <v>11</v>
+      <c r="G42" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="J42" s="2"/>
       <c r="N42" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U42" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="U42" s="20"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="2"/>
-      <c r="G43" s="15" t="s">
-        <v>2</v>
+      <c r="G43" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="N43" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>2</v>
+      <c r="N43" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="U43" s="14"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -12985,49 +13143,49 @@
       <c r="J44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="2"/>
-      <c r="G45" s="25" t="s">
-        <v>12</v>
+      <c r="G45" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="2"/>
       <c r="N45" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="2"/>
-      <c r="G46" s="15" t="s">
-        <v>2</v>
+      <c r="G46" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="N46" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P46" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R46" s="15" t="s">
-        <v>2</v>
+      <c r="N46" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13036,49 +13194,49 @@
       <c r="J47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="2"/>
-      <c r="G48" s="16" t="s">
-        <v>23</v>
+      <c r="G48" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J48" s="2"/>
       <c r="N48" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="2"/>
-      <c r="G49" s="15" t="s">
-        <v>2</v>
+      <c r="G49" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="N49" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R49" s="15" t="s">
-        <v>2</v>
+      <c r="N49" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -13089,7 +13247,7 @@
       <c r="J50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -13099,15 +13257,15 @@
       <c r="G51"/>
       <c r="J51" s="2"/>
       <c r="N51" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="R51"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -13115,16 +13273,16 @@
       <c r="E52" s="2"/>
       <c r="G52"/>
       <c r="J52" s="2"/>
-      <c r="N52" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P52" s="15" t="s">
-        <v>2</v>
+      <c r="N52" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P52" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="R52"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -13133,7 +13291,7 @@
       <c r="J53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -13141,31 +13299,31 @@
       <c r="E54" s="2"/>
       <c r="J54" s="2"/>
       <c r="N54" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R54"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="N55" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P55" s="15" t="s">
-        <v>2</v>
+      <c r="N55" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P55" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="R55"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -13174,7 +13332,7 @@
       <c r="J56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -13182,35 +13340,35 @@
       <c r="E57" s="2"/>
       <c r="J57" s="2"/>
       <c r="N57" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P57" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R57" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="N58" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P58" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R58" s="15" t="s">
-        <v>2</v>
+      <c r="N58" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P58" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R58" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -13219,7 +13377,7 @@
       <c r="J59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -13228,7 +13386,7 @@
       <c r="J60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -13237,45 +13395,45 @@
       <c r="J61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="2"/>
-      <c r="G62" s="16" t="s">
-        <v>11</v>
+      <c r="G62" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="J62" s="2"/>
       <c r="N62" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P62" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U62" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="U62" s="20"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="2"/>
-      <c r="G63" s="15" t="s">
-        <v>2</v>
+      <c r="G63" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J63" s="2"/>
-      <c r="N63" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P63" s="15" t="s">
-        <v>2</v>
+      <c r="N63" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P63" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="U63" s="14"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -13284,49 +13442,49 @@
       <c r="J64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="2"/>
-      <c r="G65" s="25" t="s">
-        <v>12</v>
+      <c r="G65" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="J65" s="2"/>
       <c r="N65" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R65" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="2"/>
-      <c r="G66" s="15" t="s">
-        <v>2</v>
+      <c r="G66" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J66" s="2"/>
-      <c r="N66" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P66" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R66" s="15" t="s">
-        <v>2</v>
+      <c r="N66" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P66" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R66" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -13335,49 +13493,49 @@
       <c r="J67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="2"/>
       <c r="G68" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J68" s="2"/>
       <c r="N68" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P68" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R68" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="2"/>
-      <c r="G69" s="15" t="s">
-        <v>2</v>
+      <c r="G69" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J69" s="2"/>
-      <c r="N69" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P69" s="15" t="s">
+      <c r="N69" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="R69" s="15" t="s">
-        <v>88</v>
+      <c r="P69" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R69" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -13388,7 +13546,7 @@
       <c r="J70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -13396,38 +13554,38 @@
       <c r="E71" s="2"/>
       <c r="F71"/>
       <c r="G71" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J71" s="2"/>
       <c r="N71" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="R71"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="2"/>
-      <c r="G72" s="15" t="s">
-        <v>2</v>
+      <c r="G72" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J72" s="2"/>
-      <c r="N72" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P72" s="15" t="s">
-        <v>84</v>
+      <c r="N72" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P72" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -13436,7 +13594,7 @@
       <c r="J73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -13444,31 +13602,31 @@
       <c r="E74" s="2"/>
       <c r="J74" s="2"/>
       <c r="N74" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R74"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="N75" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P75" s="15" t="s">
-        <v>2</v>
+      <c r="N75" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P75" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="R75"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -13477,7 +13635,7 @@
       <c r="J76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -13485,35 +13643,35 @@
       <c r="E77" s="2"/>
       <c r="J77" s="2"/>
       <c r="N77" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P77" s="25" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="P77" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="R77" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="N78" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P78" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R78" s="15" t="s">
-        <v>2</v>
+      <c r="N78" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P78" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R78" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -13522,12 +13680,12 @@
       <c r="J79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E80" s="2"/>
       <c r="J80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -13536,63 +13694,63 @@
       <c r="J81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="2"/>
       <c r="G82" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J82" s="2"/>
       <c r="L82" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N82" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P82" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R82" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="U82" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="U82" s="20"/>
       <c r="V82" s="2"/>
       <c r="X82" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="2"/>
-      <c r="G83" s="15" t="s">
-        <v>2</v>
+      <c r="G83" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J83" s="2"/>
-      <c r="L83" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N83" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P83" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R83" s="15" t="s">
-        <v>2</v>
+      <c r="L83" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N83" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P83" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R83" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="U83" s="14"/>
       <c r="V83" s="2"/>
-      <c r="X83" s="15" t="s">
-        <v>2</v>
+      <c r="X83" s="36" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -13601,61 +13759,61 @@
       <c r="J84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="2"/>
       <c r="G85" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J85" s="2"/>
       <c r="L85" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N85" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N85" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="P85" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="R85" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V85" s="2"/>
       <c r="X85" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="2"/>
-      <c r="G86" s="15" t="s">
-        <v>2</v>
+      <c r="G86" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J86" s="2"/>
-      <c r="L86" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N86" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P86" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R86" s="15" t="s">
-        <v>2</v>
+      <c r="L86" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N86" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P86" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R86" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V86" s="2"/>
-      <c r="X86" s="15" t="s">
-        <v>2</v>
+      <c r="X86" s="36" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -13664,61 +13822,61 @@
       <c r="J87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="2"/>
       <c r="G88" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J88" s="2"/>
       <c r="L88" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N88" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P88" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="R88" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="V88" s="2"/>
       <c r="X88" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="2"/>
-      <c r="G89" s="15" t="s">
-        <v>2</v>
+      <c r="G89" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J89" s="2"/>
-      <c r="L89" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N89" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P89" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R89" s="15" t="s">
-        <v>2</v>
+      <c r="L89" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N89" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P89" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R89" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V89" s="2"/>
-      <c r="X89" s="15" t="s">
-        <v>2</v>
+      <c r="X89" s="36" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -13729,62 +13887,62 @@
       <c r="J90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="2"/>
       <c r="F91"/>
-      <c r="G91" s="16" t="s">
-        <v>40</v>
+      <c r="G91" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="J91" s="2"/>
-      <c r="L91" s="16" t="s">
-        <v>54</v>
+      <c r="L91" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="N91" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P91" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R91" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V91" s="2"/>
       <c r="X91" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="2"/>
-      <c r="G92" s="15" t="s">
-        <v>2</v>
+      <c r="G92" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J92" s="2"/>
-      <c r="L92" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N92" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P92" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R92" s="15" t="s">
-        <v>2</v>
+      <c r="L92" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N92" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P92" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R92" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V92" s="2"/>
-      <c r="X92" s="15" t="s">
-        <v>2</v>
+      <c r="X92" s="36" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -13793,49 +13951,49 @@
       <c r="J93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="2"/>
-      <c r="G94" s="16" t="s">
-        <v>41</v>
+      <c r="G94" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="J94" s="2"/>
       <c r="L94" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="2"/>
-      <c r="G95" s="15" t="s">
-        <v>2</v>
+      <c r="G95" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J95" s="2"/>
-      <c r="L95" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N95" s="15" t="s">
-        <v>2</v>
+      <c r="L95" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N95" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -13847,14 +14005,14 @@
       <c r="R96"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="2"/>
       <c r="G97" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J97" s="2"/>
       <c r="L97"/>
@@ -13866,14 +14024,14 @@
       <c r="R97"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="2"/>
-      <c r="G98" s="15" t="s">
-        <v>2</v>
+      <c r="G98" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J98" s="2"/>
       <c r="L98"/>
@@ -13885,7 +14043,7 @@
       <c r="R98"/>
       <c r="V98" s="2"/>
     </row>
-    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -13894,102 +14052,102 @@
       <c r="J99" s="2"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E100" s="2"/>
-      <c r="F100" s="17"/>
+      <c r="F100" s="16"/>
       <c r="G100" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J100" s="2"/>
       <c r="V100" s="2"/>
     </row>
-    <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E101" s="2"/>
-      <c r="G101" s="15" t="s">
-        <v>2</v>
+      <c r="G101" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J101" s="2"/>
       <c r="V101" s="2"/>
     </row>
-    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E102" s="2"/>
-      <c r="G102" s="18"/>
+      <c r="G102" s="17"/>
       <c r="J102" s="2"/>
       <c r="V102" s="2"/>
     </row>
-    <row r="103" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E103" s="2"/>
-      <c r="G103" s="18"/>
+      <c r="G103" s="17"/>
       <c r="J103" s="2"/>
       <c r="L103" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N103" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P103" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="R103" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="L104" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N104" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P104" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R104" s="15" t="s">
-        <v>2</v>
+      <c r="L104" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N104" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P104" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R104" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E105" s="2"/>
       <c r="J105" s="2"/>
       <c r="V105" s="2"/>
     </row>
-    <row r="106" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E106" s="2"/>
       <c r="J106" s="2"/>
       <c r="L106" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N106" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="L107" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N107" s="15" t="s">
-        <v>2</v>
+      <c r="L107" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N107" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E108" s="2"/>
       <c r="J108" s="2"/>
       <c r="V108" s="2"/>
     </row>
-    <row r="109" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E109" s="2"/>
       <c r="J109" s="2"/>
       <c r="V109" s="2"/>
     </row>
-    <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -13998,73 +14156,73 @@
       <c r="J110" s="2"/>
       <c r="V110" s="2"/>
     </row>
-    <row r="111" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="2"/>
       <c r="G111" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J111" s="2"/>
       <c r="L111" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N111" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P111" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q111" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="Q111" s="20"/>
       <c r="R111" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="S111" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="S111" s="20"/>
       <c r="T111" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="U111" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="U111" s="20"/>
       <c r="V111" s="2"/>
       <c r="X111" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="2"/>
-      <c r="G112" s="15" t="s">
-        <v>2</v>
+      <c r="G112" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J112" s="2"/>
-      <c r="L112" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N112" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P112" s="15" t="s">
-        <v>2</v>
+      <c r="L112" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N112" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P112" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="Q112" s="14"/>
-      <c r="R112" s="15" t="s">
-        <v>2</v>
+      <c r="R112" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="S112" s="14"/>
-      <c r="T112" s="15" t="s">
-        <v>2</v>
+      <c r="T112" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="U112" s="14"/>
       <c r="V112" s="2"/>
-      <c r="X112" s="15" t="s">
-        <v>2</v>
+      <c r="X112" s="36" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -14073,67 +14231,67 @@
       <c r="J113" s="2"/>
       <c r="V113" s="2"/>
     </row>
-    <row r="114" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="2"/>
       <c r="G114" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J114" s="2"/>
       <c r="L114" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N114" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P114" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R114" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T114" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="V114" s="2"/>
       <c r="X114" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
       <c r="E115" s="2"/>
-      <c r="G115" s="15" t="s">
-        <v>2</v>
+      <c r="G115" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="J115" s="2"/>
-      <c r="L115" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N115" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P115" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R115" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T115" s="15" t="s">
-        <v>2</v>
+      <c r="L115" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N115" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P115" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R115" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="T115" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="V115" s="2"/>
-      <c r="X115" s="15" t="s">
-        <v>2</v>
+      <c r="X115" s="36" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -14142,7 +14300,7 @@
       <c r="J116" s="2"/>
       <c r="V116" s="2"/>
     </row>
-    <row r="117" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A117" s="11"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -14173,7 +14331,7 @@
       <c r="AB117"/>
       <c r="AC117"/>
     </row>
-    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A118" s="11"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -14204,7 +14362,7 @@
       <c r="AB118"/>
       <c r="AC118"/>
     </row>
-    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A119" s="11"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -14235,7 +14393,7 @@
       <c r="AB119"/>
       <c r="AC119"/>
     </row>
-    <row r="120" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A120" s="11"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -14266,7 +14424,7 @@
       <c r="AB120"/>
       <c r="AC120"/>
     </row>
-    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A121" s="11"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -14297,7 +14455,7 @@
       <c r="AB121"/>
       <c r="AC121"/>
     </row>
-    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A122" s="11"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -14328,7 +14486,7 @@
       <c r="AB122"/>
       <c r="AC122"/>
     </row>
-    <row r="123" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -14358,7 +14516,7 @@
       <c r="AB123"/>
       <c r="AC123"/>
     </row>
-    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -14388,7 +14546,7 @@
       <c r="AB124"/>
       <c r="AC124"/>
     </row>
-    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -14418,7 +14576,7 @@
       <c r="AB125"/>
       <c r="AC125"/>
     </row>
-    <row r="126" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -14448,7 +14606,7 @@
       <c r="AB126"/>
       <c r="AC126"/>
     </row>
-    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -14478,7 +14636,7 @@
       <c r="AB127"/>
       <c r="AC127"/>
     </row>
-    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -14508,7 +14666,7 @@
       <c r="AB128"/>
       <c r="AC128"/>
     </row>
-    <row r="129" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -14538,7 +14696,7 @@
       <c r="AB129"/>
       <c r="AC129"/>
     </row>
-    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -14568,7 +14726,7 @@
       <c r="AB130"/>
       <c r="AC130"/>
     </row>
-    <row r="131" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -14598,7 +14756,7 @@
       <c r="AB131"/>
       <c r="AC131"/>
     </row>
-    <row r="132" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -14628,7 +14786,7 @@
       <c r="AB132"/>
       <c r="AC132"/>
     </row>
-    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -14658,49 +14816,70 @@
       <c r="AB133"/>
       <c r="AC133"/>
     </row>
-    <row r="135" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="138" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="141" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="144" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="147" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="150" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="153" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:AA1 A2:B2 AA2 A3:AA3 A4:J4 V4:W4 AA4 A5:AA9 A10:K10 M10 O10:O11 V10:W11 Y10:Y11 AA10:AA11 A11:N11 P11:U11 X11 Z11 A12:AA13 A14:F15 H14:K15 M14:M15 O14:O15 V14:AA15 G15 L15 N15 P15:U15 A16:AA16 A17:F18 H17:AA18 G18 A19:AA19 A20:F21 H20:K21 M20:M21 O20:O21 Q20:Q21 S20:S21 U20:AA21 N21 P21 R21 T21 A22:AA27 A28:F29 H28:K29 M28:M29 O28:O29 V28:AA29 G29 L29 N29 P29:U29 A30:AA30 A31:F32 H31:AA32 G32 A33:AA33 A34:F35 H34:K35 M34:M35 O34:O35 Q34:Q35 S34:S35 U34:AA35 N35 P35 R35 T35 A36:AA41 A42:F43 H42:K43 N42:P43 V42:AA43 G43 U43 A44:AA44 A45:F46 H45:AA46 G46 A47:AA47 A48:F49 H48:K49 M48:AA49 A50:AA50 A51:K52 M51:Q52 S51:AA52 A53:AA53 A54:K55 M54:AA55 A56:AA56 A57:K58 M57:AA58 K59:T59 A59:J60 U59:AA60 A61:AA61 A62:F63 H62:K63 N62:P63 V62:AA63 G63 U63 A64:AA64 A65:F66 H65:AA66 G66 A67:AA67 A68:F69 H68:K69 M68:AA69 A70:AA70 A71:F72 H71:K72 M71:Q72 S71:AA72 A73:AA73 A74:K75 M74:AA75 A76:AA76 A77:K78 M77:AA78 A79:AA81 A82:F83 N82:P83 G83 U83 A84:AA84 A85:F86 G86 A87:AA87 A88:F89 A90:AA90 A91:F92 A93:AA93 A94:F95 S94:AA98 A96:O96 A97:F98 H97:K98 A99:AA99 A100:E100 H100:AA101 A102:AA102 A103:K104 M103:M104 O103:O104 Q103:Q104 S103:AA104 A105:AA105 A106:K107 M106:M107 O106:AA107 A108:AA110 A111:F112 H111:K112 M111:M112 O111:O112 R111:R112 T111:T112 V111:AA112 G112 L112 N112 P112:U112 A113:AA113 A114:F115 X114:AA115 G115:W115 A116:AA116 A117:A133 A134:AA215">
-    <cfRule type="cellIs" dxfId="7" priority="225" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A8:AA210">
+    <cfRule type="cellIs" dxfId="29" priority="241" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="240" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="239" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="238" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="237" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="236" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="235" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="232" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="228" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107 L107 R104 P104 N104 L104 G101 G98 N95 L95 G95 R92 P92 N92 L92 G92 R89 P89 N89 L89 G89 R86 P86 N86 L86 R83 L83 X92 X89 X86 X83 G72 G69 G49">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="229" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="230" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="231" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="232" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:AA210">
-    <cfRule type="cellIs" dxfId="0" priority="234" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 T35 N11 X11 Z11 G15 G18 L15 N15 P15:U15 G24 L24 N21 P21 R21 T21 G29 G32 L29 N29 P29:U29 G38 L38 N35 P35 R35 P11:Q11 S11:U11 G43 G46 P58 U43 N55 G52 N43 P43 R46 N46 P46 G49 R49 N49 P49 R58 N52 P52 N58 P55 G63 G66 P78 U63 N75 P75 N63 P63 R66 N66 P66 G69 R69 N69 P69 R78 N72 P72 N78 G72 G83 G86 X89 U83 N95 X92 N83 P83 R86 N86 P86 G89 R89 N89 P89 X83 N92 P92 X86 G92 G95 G98 G101 L83 L86 R83 L89 L92 R92 L95 L104 N104 P104 R104 L107 N107 L115 G115 L112 N112 T115 P112:U112 N115 P115 R115 G112 X112 X115" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X112 R35 L11 P11:Q11 X11 Z11 G15 G18 L15 N15 L24 N21 T21 R21 P15:U15 P21 G24 P29:U29 G29 L29 N29 L38 T35 G32 N35 P35 N11 S11:U11 G38 G43 N58 U43 P52 G52 G49 N43 P46 P43 N46 G46 R46 P49 R49 P58 N49 N52 P55 N55 R58 R66 N78 U63 N72 N75 G63 N63 P66 P63 N66 G66 P69 G72 N69 P78 P72 R69 P75 G69 X92 R83 X86 U83 L95 X89 L83 N83 P86 L86 N86 R86 P89 L89 N89 R78 L92 N92 X83 R89 R92 N95 G98 G83 G86 P83 G89 G92 P92 G95 G101 L104 N104 P104 R104 L107 L112 G112 G115 L115 P112:U112 N115 N112 P115 R115 N107 T115 X115" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -14708,8 +14887,8 @@
     <hyperlink ref="P10" r:id="rId1" xr:uid="{02FF9BA0-0993-234B-8F72-2356A7AB6C22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="30" fitToHeight="10" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="29" fitToHeight="10" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\zerotrustassessment\src\documentgenerator\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65937465-56A5-403B-8A9F-2B3A4DB544B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959369CE-913B-B844-9D2A-9A081AA1A10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop-Devices" sheetId="1" r:id="rId1"/>
@@ -671,12 +671,6 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
@@ -689,159 +683,18 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="WorkItem" xfId="1" xr:uid="{0F6335E5-33B1-7644-B498-B1E7394136F4}"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color theme="0"/>
@@ -911,10 +764,51 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -930,40 +824,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -975,17 +839,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4281,13 +4134,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1895852</xdr:colOff>
+      <xdr:colOff>1912786</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>496225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>217117</xdr:colOff>
+      <xdr:colOff>234051</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>352444</xdr:rowOff>
     </xdr:to>
@@ -4321,8 +4174,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17570689" y="620464"/>
-          <a:ext cx="899227" cy="513652"/>
+          <a:off x="15874319" y="623225"/>
+          <a:ext cx="615732" cy="525086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5350,8 +5203,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5985773" y="18782955"/>
-          <a:ext cx="2754224" cy="508510"/>
+          <a:off x="5327650" y="18770600"/>
+          <a:ext cx="2434861" cy="507613"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5499,8 +5352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5999433" y="20331203"/>
-          <a:ext cx="2754224" cy="508467"/>
+          <a:off x="5341310" y="20313810"/>
+          <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5963,8 +5816,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5984065" y="23513080"/>
-          <a:ext cx="2754224" cy="508467"/>
+          <a:off x="5325942" y="23485609"/>
+          <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6112,8 +5965,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6019070" y="21853413"/>
-          <a:ext cx="2754224" cy="508467"/>
+          <a:off x="5360947" y="21830980"/>
+          <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6261,8 +6114,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6034438" y="25087368"/>
-          <a:ext cx="2754224" cy="508467"/>
+          <a:off x="5376315" y="25054858"/>
+          <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6562,8 +6415,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6034438" y="26718006"/>
-          <a:ext cx="2754224" cy="508467"/>
+          <a:off x="5376315" y="26680458"/>
+          <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7468,8 +7321,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5985773" y="29332928"/>
-          <a:ext cx="2754224" cy="508510"/>
+          <a:off x="5327650" y="29286200"/>
+          <a:ext cx="2434861" cy="507613"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7617,8 +7470,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5999433" y="30881176"/>
-          <a:ext cx="2754224" cy="508467"/>
+          <a:off x="5341310" y="30829410"/>
+          <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8081,8 +7934,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5984065" y="34063052"/>
-          <a:ext cx="2754224" cy="508467"/>
+          <a:off x="5325942" y="34001209"/>
+          <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8230,8 +8083,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6019070" y="32403385"/>
-          <a:ext cx="2754224" cy="508467"/>
+          <a:off x="5360947" y="32346580"/>
+          <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8379,8 +8232,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6034438" y="35637341"/>
-          <a:ext cx="2754224" cy="508467"/>
+          <a:off x="5376315" y="35570458"/>
+          <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8680,8 +8533,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6034438" y="37267979"/>
-          <a:ext cx="2754224" cy="508467"/>
+          <a:off x="5376315" y="37196058"/>
+          <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -11692,8 +11545,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="711383" y="56521555"/>
-          <a:ext cx="1321731" cy="1233458"/>
+          <a:off x="668866" y="56387997"/>
+          <a:ext cx="1220613" cy="1230491"/>
           <a:chOff x="620888" y="57714444"/>
           <a:chExt cx="1411111" cy="1411111"/>
         </a:xfrm>
@@ -11991,6 +11844,59 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1746490</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>493464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>67755</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>349683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Caret Left with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1703889F-13D3-F645-A046-39F258938A53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15708023" y="620464"/>
+          <a:ext cx="615732" cy="525086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12316,12 +12222,12 @@
   </sheetPr>
   <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
@@ -12353,7 +12259,7 @@
     <col min="38" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -12390,7 +12296,7 @@
       <c r="AJ1" s="24"/>
       <c r="AK1" s="24"/>
     </row>
-    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12406,7 +12312,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="36" t="s">
         <v>84</v>
       </c>
       <c r="O2" s="7"/>
@@ -12418,7 +12324,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="37" t="s">
+      <c r="X2" s="35" t="s">
         <v>85</v>
       </c>
       <c r="Y2" s="7"/>
@@ -12452,7 +12358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -12481,36 +12387,36 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="1.2">
+    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -12539,7 +12445,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12568,7 +12474,7 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:37" ht="4.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:37" ht="4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -12597,7 +12503,7 @@
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -12606,7 +12512,7 @@
       <c r="J8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:37" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:37" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -12615,7 +12521,7 @@
       <c r="J9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:37" ht="76.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:37" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -12644,7 +12550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -12652,13 +12558,13 @@
       <c r="E11" s="2"/>
       <c r="G11" s="14"/>
       <c r="J11" s="2"/>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N11" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P11" s="36" t="s">
+      <c r="P11" s="34" t="s">
         <v>83</v>
       </c>
       <c r="Q11" s="14"/>
@@ -12667,14 +12573,14 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="2"/>
-      <c r="X11" s="36" t="s">
+      <c r="X11" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="Z11" s="36" t="s">
+      <c r="Z11" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -12683,7 +12589,7 @@
       <c r="J12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -12692,7 +12598,7 @@
       <c r="J13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:37" ht="64.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:37" ht="64" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -12718,23 +12624,23 @@
       <c r="U14" s="20"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="2"/>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N15" s="36" t="s">
+      <c r="N15" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="36" t="s">
+      <c r="P15" s="34" t="s">
         <v>83</v>
       </c>
       <c r="Q15" s="14"/>
@@ -12744,7 +12650,7 @@
       <c r="U15" s="14"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -12753,7 +12659,7 @@
       <c r="J16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -12765,19 +12671,19 @@
       <c r="J17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -12786,7 +12692,7 @@
       <c r="J19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -12796,7 +12702,7 @@
       <c r="N20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="35" t="s">
+      <c r="P20" s="33" t="s">
         <v>15</v>
       </c>
       <c r="R20" s="13" t="s">
@@ -12807,28 +12713,28 @@
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="N21" s="36" t="s">
+      <c r="N21" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P21" s="36" t="s">
+      <c r="P21" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R21" s="36" t="s">
+      <c r="R21" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="T21" s="36" t="s">
+      <c r="T21" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -12837,7 +12743,7 @@
       <c r="J22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" ht="59" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:22" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -12852,22 +12758,22 @@
       </c>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="2"/>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -12876,7 +12782,7 @@
       <c r="J25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12885,7 +12791,7 @@
       <c r="J26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -12894,7 +12800,7 @@
       <c r="J27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -12920,23 +12826,23 @@
       <c r="U28" s="20"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="N29" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P29" s="36" t="s">
+      <c r="P29" s="34" t="s">
         <v>83</v>
       </c>
       <c r="Q29" s="14"/>
@@ -12946,7 +12852,7 @@
       <c r="U29" s="14"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -12955,7 +12861,7 @@
       <c r="J30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -12967,19 +12873,19 @@
       <c r="J31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="2"/>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -12988,7 +12894,7 @@
       <c r="J33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -13009,28 +12915,28 @@
       </c>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="N35" s="36" t="s">
+      <c r="N35" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P35" s="36" t="s">
+      <c r="P35" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R35" s="36" t="s">
+      <c r="R35" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="T35" s="36" t="s">
+      <c r="T35" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -13039,7 +12945,7 @@
       <c r="J36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -13054,22 +12960,22 @@
       </c>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="2"/>
-      <c r="G38" s="36" t="s">
+      <c r="G38" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="L38" s="36" t="s">
+      <c r="L38" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -13078,7 +12984,7 @@
       <c r="J39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -13087,7 +12993,7 @@
       <c r="J40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -13096,7 +13002,7 @@
       <c r="J41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -13115,26 +13021,26 @@
       <c r="U42" s="20"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="2"/>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="N43" s="36" t="s">
+      <c r="N43" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P43" s="36" t="s">
+      <c r="P43" s="34" t="s">
         <v>83</v>
       </c>
       <c r="U43" s="14"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13143,7 +13049,7 @@
       <c r="J44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13164,28 +13070,28 @@
       </c>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="2"/>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="N46" s="36" t="s">
+      <c r="N46" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P46" s="36" t="s">
+      <c r="P46" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R46" s="36" t="s">
+      <c r="R46" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13194,7 +13100,7 @@
       <c r="J47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -13215,28 +13121,28 @@
       </c>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="2"/>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="N49" s="36" t="s">
+      <c r="N49" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P49" s="36" t="s">
+      <c r="P49" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R49" s="36" t="s">
+      <c r="R49" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -13247,7 +13153,7 @@
       <c r="J50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -13265,7 +13171,7 @@
       <c r="R51"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -13273,16 +13179,16 @@
       <c r="E52" s="2"/>
       <c r="G52"/>
       <c r="J52" s="2"/>
-      <c r="N52" s="36" t="s">
+      <c r="N52" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P52" s="36" t="s">
+      <c r="P52" s="34" t="s">
         <v>83</v>
       </c>
       <c r="R52"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -13291,7 +13197,7 @@
       <c r="J53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -13307,23 +13213,23 @@
       <c r="R54"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="N55" s="36" t="s">
+      <c r="N55" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P55" s="36" t="s">
+      <c r="P55" s="34" t="s">
         <v>83</v>
       </c>
       <c r="R55"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -13332,7 +13238,7 @@
       <c r="J56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -13350,25 +13256,25 @@
       </c>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="N58" s="36" t="s">
+      <c r="N58" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P58" s="36" t="s">
+      <c r="P58" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R58" s="36" t="s">
+      <c r="R58" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -13377,7 +13283,7 @@
       <c r="J59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -13386,7 +13292,7 @@
       <c r="J60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -13395,7 +13301,7 @@
       <c r="J61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -13414,26 +13320,26 @@
       <c r="U62" s="20"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="2"/>
-      <c r="G63" s="36" t="s">
+      <c r="G63" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J63" s="2"/>
-      <c r="N63" s="36" t="s">
+      <c r="N63" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P63" s="36" t="s">
+      <c r="P63" s="34" t="s">
         <v>83</v>
       </c>
       <c r="U63" s="14"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -13442,7 +13348,7 @@
       <c r="J64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -13463,28 +13369,28 @@
       </c>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="2"/>
-      <c r="G66" s="36" t="s">
+      <c r="G66" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J66" s="2"/>
-      <c r="N66" s="36" t="s">
+      <c r="N66" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="36" t="s">
+      <c r="P66" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R66" s="36" t="s">
+      <c r="R66" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -13493,7 +13399,7 @@
       <c r="J67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -13514,28 +13420,28 @@
       </c>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="2"/>
-      <c r="G69" s="36" t="s">
+      <c r="G69" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J69" s="2"/>
-      <c r="N69" s="36" t="s">
+      <c r="N69" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P69" s="36" t="s">
+      <c r="P69" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R69" s="36" t="s">
+      <c r="R69" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -13546,7 +13452,7 @@
       <c r="J70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -13566,26 +13472,26 @@
       <c r="R71"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="2"/>
-      <c r="G72" s="36" t="s">
+      <c r="G72" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J72" s="2"/>
-      <c r="N72" s="36" t="s">
+      <c r="N72" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P72" s="36" t="s">
+      <c r="P72" s="34" t="s">
         <v>83</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -13594,7 +13500,7 @@
       <c r="J73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -13610,23 +13516,23 @@
       <c r="R74"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="N75" s="36" t="s">
+      <c r="N75" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P75" s="36" t="s">
+      <c r="P75" s="34" t="s">
         <v>83</v>
       </c>
       <c r="R75"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -13635,7 +13541,7 @@
       <c r="J76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -13653,25 +13559,25 @@
       </c>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="N78" s="36" t="s">
+      <c r="N78" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P78" s="36" t="s">
+      <c r="P78" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R78" s="36" t="s">
+      <c r="R78" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -13680,12 +13586,12 @@
       <c r="J79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E80" s="2"/>
       <c r="J80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -13694,7 +13600,7 @@
       <c r="J81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -13722,35 +13628,35 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="2"/>
-      <c r="G83" s="36" t="s">
+      <c r="G83" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J83" s="2"/>
-      <c r="L83" s="36" t="s">
+      <c r="L83" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N83" s="36" t="s">
+      <c r="N83" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P83" s="36" t="s">
+      <c r="P83" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R83" s="36" t="s">
+      <c r="R83" s="34" t="s">
         <v>83</v>
       </c>
       <c r="U83" s="14"/>
       <c r="V83" s="2"/>
-      <c r="X83" s="36" t="s">
+      <c r="X83" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -13759,7 +13665,7 @@
       <c r="J84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -13786,34 +13692,34 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="2"/>
-      <c r="G86" s="36" t="s">
+      <c r="G86" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J86" s="2"/>
-      <c r="L86" s="36" t="s">
+      <c r="L86" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N86" s="36" t="s">
+      <c r="N86" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P86" s="36" t="s">
+      <c r="P86" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R86" s="36" t="s">
+      <c r="R86" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V86" s="2"/>
-      <c r="X86" s="36" t="s">
+      <c r="X86" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -13822,7 +13728,7 @@
       <c r="J87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -13849,34 +13755,34 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="2"/>
-      <c r="G89" s="36" t="s">
+      <c r="G89" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J89" s="2"/>
-      <c r="L89" s="36" t="s">
+      <c r="L89" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N89" s="36" t="s">
+      <c r="N89" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P89" s="36" t="s">
+      <c r="P89" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R89" s="36" t="s">
+      <c r="R89" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V89" s="2"/>
-      <c r="X89" s="36" t="s">
+      <c r="X89" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -13887,7 +13793,7 @@
       <c r="J90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -13915,34 +13821,34 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="2"/>
-      <c r="G92" s="36" t="s">
+      <c r="G92" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J92" s="2"/>
-      <c r="L92" s="36" t="s">
+      <c r="L92" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N92" s="36" t="s">
+      <c r="N92" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P92" s="36" t="s">
+      <c r="P92" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R92" s="36" t="s">
+      <c r="R92" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V92" s="2"/>
-      <c r="X92" s="36" t="s">
+      <c r="X92" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -13951,7 +13857,7 @@
       <c r="J93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -13972,20 +13878,20 @@
       <c r="R94"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="2"/>
-      <c r="G95" s="36" t="s">
+      <c r="G95" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J95" s="2"/>
-      <c r="L95" s="36" t="s">
+      <c r="L95" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N95" s="36" t="s">
+      <c r="N95" s="34" t="s">
         <v>83</v>
       </c>
       <c r="P95"/>
@@ -13993,7 +13899,7 @@
       <c r="R95"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -14005,7 +13911,7 @@
       <c r="R96"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -14024,13 +13930,13 @@
       <c r="R97"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="2"/>
-      <c r="G98" s="36" t="s">
+      <c r="G98" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J98" s="2"/>
@@ -14043,7 +13949,7 @@
       <c r="R98"/>
       <c r="V98" s="2"/>
     </row>
-    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -14052,7 +13958,7 @@
       <c r="J99" s="2"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E100" s="2"/>
       <c r="F100" s="16"/>
       <c r="G100" s="13" t="s">
@@ -14061,21 +13967,21 @@
       <c r="J100" s="2"/>
       <c r="V100" s="2"/>
     </row>
-    <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E101" s="2"/>
-      <c r="G101" s="36" t="s">
+      <c r="G101" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J101" s="2"/>
       <c r="V101" s="2"/>
     </row>
-    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E102" s="2"/>
       <c r="G102" s="17"/>
       <c r="J102" s="2"/>
       <c r="V102" s="2"/>
     </row>
-    <row r="103" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E103" s="2"/>
       <c r="G103" s="17"/>
       <c r="J103" s="2"/>
@@ -14093,29 +13999,29 @@
       </c>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="L104" s="36" t="s">
+      <c r="L104" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N104" s="36" t="s">
+      <c r="N104" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P104" s="36" t="s">
+      <c r="P104" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R104" s="36" t="s">
+      <c r="R104" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E105" s="2"/>
       <c r="J105" s="2"/>
       <c r="V105" s="2"/>
     </row>
-    <row r="106" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E106" s="2"/>
       <c r="J106" s="2"/>
       <c r="L106" s="13" t="s">
@@ -14126,28 +14032,28 @@
       </c>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="L107" s="36" t="s">
+      <c r="L107" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N107" s="36" t="s">
+      <c r="N107" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E108" s="2"/>
       <c r="J108" s="2"/>
       <c r="V108" s="2"/>
     </row>
-    <row r="109" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E109" s="2"/>
       <c r="J109" s="2"/>
       <c r="V109" s="2"/>
     </row>
-    <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -14156,7 +14062,7 @@
       <c r="J110" s="2"/>
       <c r="V110" s="2"/>
     </row>
-    <row r="111" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -14189,40 +14095,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="2"/>
-      <c r="G112" s="36" t="s">
+      <c r="G112" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J112" s="2"/>
-      <c r="L112" s="36" t="s">
+      <c r="L112" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N112" s="36" t="s">
+      <c r="N112" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P112" s="36" t="s">
+      <c r="P112" s="34" t="s">
         <v>83</v>
       </c>
       <c r="Q112" s="14"/>
-      <c r="R112" s="36" t="s">
+      <c r="R112" s="34" t="s">
         <v>83</v>
       </c>
       <c r="S112" s="14"/>
-      <c r="T112" s="36" t="s">
+      <c r="T112" s="34" t="s">
         <v>83</v>
       </c>
       <c r="U112" s="14"/>
       <c r="V112" s="2"/>
-      <c r="X112" s="36" t="s">
+      <c r="X112" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -14231,7 +14137,7 @@
       <c r="J113" s="2"/>
       <c r="V113" s="2"/>
     </row>
-    <row r="114" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -14261,37 +14167,37 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
       <c r="E115" s="2"/>
-      <c r="G115" s="36" t="s">
+      <c r="G115" s="34" t="s">
         <v>83</v>
       </c>
       <c r="J115" s="2"/>
-      <c r="L115" s="36" t="s">
+      <c r="L115" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="N115" s="36" t="s">
+      <c r="N115" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P115" s="36" t="s">
+      <c r="P115" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="R115" s="36" t="s">
+      <c r="R115" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="T115" s="36" t="s">
+      <c r="T115" s="34" t="s">
         <v>83</v>
       </c>
       <c r="V115" s="2"/>
-      <c r="X115" s="36" t="s">
+      <c r="X115" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -14300,7 +14206,7 @@
       <c r="J116" s="2"/>
       <c r="V116" s="2"/>
     </row>
-    <row r="117" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -14331,7 +14237,7 @@
       <c r="AB117"/>
       <c r="AC117"/>
     </row>
-    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -14362,7 +14268,7 @@
       <c r="AB118"/>
       <c r="AC118"/>
     </row>
-    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -14393,7 +14299,7 @@
       <c r="AB119"/>
       <c r="AC119"/>
     </row>
-    <row r="120" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -14424,7 +14330,7 @@
       <c r="AB120"/>
       <c r="AC120"/>
     </row>
-    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -14455,7 +14361,7 @@
       <c r="AB121"/>
       <c r="AC121"/>
     </row>
-    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -14486,7 +14392,7 @@
       <c r="AB122"/>
       <c r="AC122"/>
     </row>
-    <row r="123" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -14516,7 +14422,7 @@
       <c r="AB123"/>
       <c r="AC123"/>
     </row>
-    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -14546,7 +14452,7 @@
       <c r="AB124"/>
       <c r="AC124"/>
     </row>
-    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -14576,7 +14482,7 @@
       <c r="AB125"/>
       <c r="AC125"/>
     </row>
-    <row r="126" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -14606,7 +14512,7 @@
       <c r="AB126"/>
       <c r="AC126"/>
     </row>
-    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -14636,7 +14542,7 @@
       <c r="AB127"/>
       <c r="AC127"/>
     </row>
-    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -14666,7 +14572,7 @@
       <c r="AB128"/>
       <c r="AC128"/>
     </row>
-    <row r="129" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -14696,7 +14602,7 @@
       <c r="AB129"/>
       <c r="AC129"/>
     </row>
-    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -14726,7 +14632,7 @@
       <c r="AB130"/>
       <c r="AC130"/>
     </row>
-    <row r="131" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -14756,7 +14662,7 @@
       <c r="AB131"/>
       <c r="AC131"/>
     </row>
-    <row r="132" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -14786,7 +14692,7 @@
       <c r="AB132"/>
       <c r="AC132"/>
     </row>
-    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -14816,13 +14722,13 @@
       <c r="AB133"/>
       <c r="AC133"/>
     </row>
-    <row r="135" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="138" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="141" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="144" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="147" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="150" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="153" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="135" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F4:H4"/>
@@ -14830,52 +14736,52 @@
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
   <conditionalFormatting sqref="A8:AA210">
-    <cfRule type="cellIs" dxfId="29" priority="241" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="232" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="240" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="239" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="238" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="237" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="236" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="235" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="241" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="240" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49 G69 G72 L83 R83 X83 L86 N86 P86 R86 X86 G89 L89 N89 P89 R89 X89 G92 L92 N92 P92 R92 X92 G95 L95 N95 G98 G101 L104 N104 P104 R104 L107 N107">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="239" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="238" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="237" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="236" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="232" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N107 L107 R104 P104 N104 L104 G101 G98 N95 L95 G95 R92 P92 N92 L92 G92 R89 P89 N89 L89 G89 R86 P86 N86 L86 R83 L83 X92 X89 X86 X83 G72 G69 G49">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\zerotrustassessment\src\documentgenerator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959369CE-913B-B844-9D2A-9A081AA1A10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E70072-8D13-4AEC-9BE1-86D1275BFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop-Devices" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,6 +424,18 @@
       <sz val="24"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -589,7 +601,7 @@
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -683,6 +695,12 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,13 +714,48 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
@@ -718,10 +771,24 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -729,7 +796,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -745,43 +823,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FF74FC79"/>
         </patternFill>
       </fill>
     </dxf>
@@ -794,40 +839,13 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5203,8 +5221,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5327650" y="18770600"/>
-          <a:ext cx="2434861" cy="507613"/>
+          <a:off x="5975725" y="18790771"/>
+          <a:ext cx="2743768" cy="503130"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5352,8 +5370,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5341310" y="20313810"/>
-          <a:ext cx="2434861" cy="508467"/>
+          <a:off x="5989385" y="20333234"/>
+          <a:ext cx="2743768" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5816,8 +5834,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5325942" y="23485609"/>
-          <a:ext cx="2434861" cy="508467"/>
+          <a:off x="5974017" y="23503538"/>
+          <a:ext cx="2743768" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5965,8 +5983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5360947" y="21830980"/>
-          <a:ext cx="2434861" cy="508467"/>
+          <a:off x="6009022" y="21849656"/>
+          <a:ext cx="2743768" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6114,8 +6132,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="25054858"/>
-          <a:ext cx="2434861" cy="508467"/>
+          <a:off x="6024390" y="25072040"/>
+          <a:ext cx="2743768" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6415,8 +6433,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="26680458"/>
-          <a:ext cx="2434861" cy="508467"/>
+          <a:off x="6024390" y="26696893"/>
+          <a:ext cx="2743768" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7321,8 +7339,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5327650" y="29286200"/>
-          <a:ext cx="2434861" cy="507613"/>
+          <a:off x="5975725" y="29305624"/>
+          <a:ext cx="2743768" cy="503130"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7470,8 +7488,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5341310" y="30829410"/>
-          <a:ext cx="2434861" cy="508467"/>
+          <a:off x="5989385" y="30848086"/>
+          <a:ext cx="2743768" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7934,8 +7952,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5325942" y="34001209"/>
-          <a:ext cx="2434861" cy="508467"/>
+          <a:off x="5974017" y="34018391"/>
+          <a:ext cx="2743768" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8083,8 +8101,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5360947" y="32346580"/>
-          <a:ext cx="2434861" cy="508467"/>
+          <a:off x="6009022" y="32364509"/>
+          <a:ext cx="2743768" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8232,8 +8250,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="35570458"/>
-          <a:ext cx="2434861" cy="508467"/>
+          <a:off x="6024390" y="35586893"/>
+          <a:ext cx="2743768" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8533,8 +8551,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="37196058"/>
-          <a:ext cx="2434861" cy="508467"/>
+          <a:off x="6024390" y="37211746"/>
+          <a:ext cx="2743768" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -11545,8 +11563,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="668866" y="56387997"/>
-          <a:ext cx="1220613" cy="1230491"/>
+          <a:off x="712195" y="56401072"/>
+          <a:ext cx="1319600" cy="1227875"/>
           <a:chOff x="620888" y="57714444"/>
           <a:chExt cx="1411111" cy="1411111"/>
         </a:xfrm>
@@ -12222,12 +12240,12 @@
   </sheetPr>
   <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
@@ -12259,7 +12277,7 @@
     <col min="38" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="10.050000000000001" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -12296,7 +12314,7 @@
       <c r="AJ1" s="24"/>
       <c r="AK1" s="24"/>
     </row>
-    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="41" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12358,7 +12376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="11" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -12387,36 +12405,36 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:37" ht="30" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -12445,7 +12463,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="14" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12474,7 +12492,7 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:37" ht="4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="4.05" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -12503,7 +12521,7 @@
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="30" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -12512,7 +12530,7 @@
       <c r="J8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:37" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" ht="10.050000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -12521,7 +12539,7 @@
       <c r="J9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:37" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="76.05" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -12543,14 +12561,14 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="2"/>
-      <c r="X10" s="13" t="s">
+      <c r="X10" s="33" t="s">
         <v>5</v>
       </c>
       <c r="Z10" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -12569,8 +12587,8 @@
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
+      <c r="S11"/>
+      <c r="T11"/>
       <c r="U11" s="14"/>
       <c r="V11" s="2"/>
       <c r="X11" s="34" t="s">
@@ -12580,7 +12598,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="30" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -12589,7 +12607,7 @@
       <c r="J12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -12598,7 +12616,7 @@
       <c r="J13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:37" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="64.05" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -12624,7 +12642,7 @@
       <c r="U14" s="20"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -12644,13 +12662,13 @@
         <v>83</v>
       </c>
       <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
+      <c r="R15"/>
       <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="T15"/>
       <c r="U15" s="14"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -12659,7 +12677,7 @@
       <c r="J16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="65" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -12671,7 +12689,7 @@
       <c r="J17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -12683,7 +12701,7 @@
       <c r="J18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -12692,7 +12710,7 @@
       <c r="J19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="67.05" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -12713,7 +12731,7 @@
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -12734,7 +12752,7 @@
       </c>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -12743,7 +12761,7 @@
       <c r="J22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="59" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -12758,7 +12776,7 @@
       </c>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -12773,7 +12791,7 @@
       </c>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -12782,7 +12800,7 @@
       <c r="J25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12791,7 +12809,7 @@
       <c r="J26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -12800,7 +12818,7 @@
       <c r="J27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="67.05" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -12826,7 +12844,7 @@
       <c r="U28" s="20"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -12846,13 +12864,13 @@
         <v>83</v>
       </c>
       <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -12861,7 +12879,7 @@
       <c r="J30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="67.05" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -12873,7 +12891,7 @@
       <c r="J31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -12885,7 +12903,7 @@
       <c r="J32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -12894,7 +12912,7 @@
       <c r="J33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="67.05" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12915,7 +12933,7 @@
       </c>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12936,7 +12954,7 @@
       </c>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12945,13 +12963,13 @@
       <c r="J36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="67.05" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="2"/>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="33" t="s">
         <v>12</v>
       </c>
       <c r="J37" s="2"/>
@@ -12960,7 +12978,7 @@
       </c>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12975,7 +12993,7 @@
       </c>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -12984,7 +13002,7 @@
       <c r="J39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -12993,7 +13011,7 @@
       <c r="J40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -13002,7 +13020,7 @@
       <c r="J41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="68" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -13021,7 +13039,7 @@
       <c r="U42" s="20"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -13037,10 +13055,10 @@
       <c r="P43" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="U43" s="14"/>
+      <c r="U43"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13049,7 +13067,7 @@
       <c r="J44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="68" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13070,7 +13088,7 @@
       </c>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13091,7 +13109,7 @@
       </c>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13100,7 +13118,7 @@
       <c r="J47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="68" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -13121,7 +13139,7 @@
       </c>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -13142,7 +13160,7 @@
       </c>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -13153,7 +13171,7 @@
       <c r="J50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="68" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -13171,7 +13189,7 @@
       <c r="R51"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -13188,7 +13206,7 @@
       <c r="R52"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -13197,7 +13215,7 @@
       <c r="J53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="68" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -13213,7 +13231,7 @@
       <c r="R54"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -13229,7 +13247,7 @@
       <c r="R55"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -13238,7 +13256,7 @@
       <c r="J56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="68" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -13251,12 +13269,12 @@
       <c r="P57" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R57" s="13" t="s">
+      <c r="R57" s="33" t="s">
         <v>25</v>
       </c>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -13274,7 +13292,7 @@
       </c>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="30" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -13283,7 +13301,7 @@
       <c r="J59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="30" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -13292,7 +13310,7 @@
       <c r="J60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -13301,7 +13319,7 @@
       <c r="J61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="68" customHeight="1">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -13320,7 +13338,7 @@
       <c r="U62" s="20"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -13339,7 +13357,7 @@
       <c r="U63" s="14"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -13348,7 +13366,7 @@
       <c r="J64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="68" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -13369,7 +13387,7 @@
       </c>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -13390,7 +13408,7 @@
       </c>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -13399,7 +13417,7 @@
       <c r="J67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="68" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -13420,7 +13438,7 @@
       </c>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -13441,7 +13459,7 @@
       </c>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -13452,7 +13470,7 @@
       <c r="J70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="68" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -13472,7 +13490,7 @@
       <c r="R71"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -13491,7 +13509,7 @@
       <c r="R72"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -13500,7 +13518,7 @@
       <c r="J73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="68" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -13516,7 +13534,7 @@
       <c r="R74"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -13532,7 +13550,7 @@
       <c r="R75"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -13541,7 +13559,7 @@
       <c r="J76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="68" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -13551,15 +13569,15 @@
       <c r="N77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P77" s="22" t="s">
+      <c r="P77" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="R77" s="13" t="s">
+      <c r="R77" s="33" t="s">
         <v>25</v>
       </c>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -13577,7 +13595,7 @@
       </c>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="30" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -13586,12 +13604,12 @@
       <c r="J79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="30" customHeight="1">
       <c r="E80" s="2"/>
       <c r="J80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -13600,7 +13618,7 @@
       <c r="J81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" ht="68" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -13628,7 +13646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -13650,13 +13668,13 @@
       <c r="R83" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="U83" s="14"/>
+      <c r="U83"/>
       <c r="V83" s="2"/>
       <c r="X83" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -13665,7 +13683,7 @@
       <c r="J84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" ht="68" customHeight="1">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -13692,7 +13710,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -13719,7 +13737,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -13728,7 +13746,7 @@
       <c r="J87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" ht="68" customHeight="1">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -13755,7 +13773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -13782,7 +13800,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -13793,14 +13811,14 @@
       <c r="J90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" ht="68" customHeight="1">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="2"/>
       <c r="F91"/>
-      <c r="G91" s="15" t="s">
+      <c r="G91" s="38" t="s">
         <v>35</v>
       </c>
       <c r="J91" s="2"/>
@@ -13821,7 +13839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -13848,7 +13866,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -13857,7 +13875,7 @@
       <c r="J93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" ht="68" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -13878,7 +13896,7 @@
       <c r="R94"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -13899,7 +13917,7 @@
       <c r="R95"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -13911,7 +13929,7 @@
       <c r="R96"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" ht="68" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -13930,7 +13948,7 @@
       <c r="R97"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -13949,7 +13967,7 @@
       <c r="R98"/>
       <c r="V98" s="2"/>
     </row>
-    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -13958,7 +13976,7 @@
       <c r="J99" s="2"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1">
       <c r="E100" s="2"/>
       <c r="F100" s="16"/>
       <c r="G100" s="13" t="s">
@@ -13967,7 +13985,7 @@
       <c r="J100" s="2"/>
       <c r="V100" s="2"/>
     </row>
-    <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="E101" s="2"/>
       <c r="G101" s="34" t="s">
         <v>83</v>
@@ -13975,20 +13993,20 @@
       <c r="J101" s="2"/>
       <c r="V101" s="2"/>
     </row>
-    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="E102" s="2"/>
       <c r="G102" s="17"/>
       <c r="J102" s="2"/>
       <c r="V102" s="2"/>
     </row>
-    <row r="103" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" ht="68" customHeight="1">
       <c r="E103" s="2"/>
       <c r="G103" s="17"/>
       <c r="J103" s="2"/>
       <c r="L103" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N103" s="13" t="s">
+      <c r="N103" s="33" t="s">
         <v>60</v>
       </c>
       <c r="P103" s="13" t="s">
@@ -13999,7 +14017,7 @@
       </c>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="E104" s="2"/>
       <c r="J104" s="2"/>
       <c r="L104" s="34" t="s">
@@ -14016,12 +14034,12 @@
       </c>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="E105" s="2"/>
       <c r="J105" s="2"/>
       <c r="V105" s="2"/>
     </row>
-    <row r="106" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" ht="68" customHeight="1">
       <c r="E106" s="2"/>
       <c r="J106" s="2"/>
       <c r="L106" s="13" t="s">
@@ -14032,7 +14050,7 @@
       </c>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="E107" s="2"/>
       <c r="J107" s="2"/>
       <c r="L107" s="34" t="s">
@@ -14043,17 +14061,17 @@
       </c>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" ht="30" customHeight="1">
       <c r="E108" s="2"/>
       <c r="J108" s="2"/>
       <c r="V108" s="2"/>
     </row>
-    <row r="109" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" ht="30" customHeight="1">
       <c r="E109" s="2"/>
       <c r="J109" s="2"/>
       <c r="V109" s="2"/>
     </row>
-    <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -14062,7 +14080,7 @@
       <c r="J110" s="2"/>
       <c r="V110" s="2"/>
     </row>
-    <row r="111" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" ht="68" customHeight="1">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -14095,7 +14113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -14128,7 +14146,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -14137,13 +14155,13 @@
       <c r="J113" s="2"/>
       <c r="V113" s="2"/>
     </row>
-    <row r="114" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="68" customHeight="1">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="2"/>
-      <c r="G114" s="13" t="s">
+      <c r="G114" s="33" t="s">
         <v>66</v>
       </c>
       <c r="J114" s="2"/>
@@ -14167,7 +14185,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -14197,7 +14215,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" ht="30" customHeight="1">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -14206,7 +14224,7 @@
       <c r="J116" s="2"/>
       <c r="V116" s="2"/>
     </row>
-    <row r="117" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" ht="68" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -14237,7 +14255,7 @@
       <c r="AB117"/>
       <c r="AC117"/>
     </row>
-    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="30" customHeight="1">
       <c r="A118" s="11"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -14268,7 +14286,7 @@
       <c r="AB118"/>
       <c r="AC118"/>
     </row>
-    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" ht="30" customHeight="1">
       <c r="A119" s="11"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -14299,7 +14317,7 @@
       <c r="AB119"/>
       <c r="AC119"/>
     </row>
-    <row r="120" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" ht="68" customHeight="1">
       <c r="A120" s="11"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -14330,7 +14348,7 @@
       <c r="AB120"/>
       <c r="AC120"/>
     </row>
-    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="30" customHeight="1">
       <c r="A121" s="11"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -14361,7 +14379,7 @@
       <c r="AB121"/>
       <c r="AC121"/>
     </row>
-    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="30" customHeight="1">
       <c r="A122" s="11"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -14392,7 +14410,7 @@
       <c r="AB122"/>
       <c r="AC122"/>
     </row>
-    <row r="123" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="68" customHeight="1">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -14422,7 +14440,7 @@
       <c r="AB123"/>
       <c r="AC123"/>
     </row>
-    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="30" customHeight="1">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -14452,7 +14470,7 @@
       <c r="AB124"/>
       <c r="AC124"/>
     </row>
-    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="30" customHeight="1">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -14482,7 +14500,7 @@
       <c r="AB125"/>
       <c r="AC125"/>
     </row>
-    <row r="126" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="68" customHeight="1">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -14512,7 +14530,7 @@
       <c r="AB126"/>
       <c r="AC126"/>
     </row>
-    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" ht="30" customHeight="1">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -14542,7 +14560,7 @@
       <c r="AB127"/>
       <c r="AC127"/>
     </row>
-    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="30" customHeight="1">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -14572,7 +14590,7 @@
       <c r="AB128"/>
       <c r="AC128"/>
     </row>
-    <row r="129" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:29" ht="68" customHeight="1">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -14602,7 +14620,7 @@
       <c r="AB129"/>
       <c r="AC129"/>
     </row>
-    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:29" ht="30" customHeight="1">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -14632,7 +14650,7 @@
       <c r="AB130"/>
       <c r="AC130"/>
     </row>
-    <row r="131" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:29" ht="30" customHeight="1">
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -14662,7 +14680,7 @@
       <c r="AB131"/>
       <c r="AC131"/>
     </row>
-    <row r="132" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:29" ht="68" customHeight="1">
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -14692,7 +14710,7 @@
       <c r="AB132"/>
       <c r="AC132"/>
     </row>
-    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:29" ht="30" customHeight="1">
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -14722,70 +14740,70 @@
       <c r="AB133"/>
       <c r="AC133"/>
     </row>
-    <row r="135" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="2:29" ht="68" customHeight="1"/>
+    <row r="138" spans="2:29" ht="68" customHeight="1"/>
+    <row r="141" spans="2:29" ht="68" customHeight="1"/>
+    <row r="144" spans="2:29" ht="68" customHeight="1"/>
+    <row r="147" ht="68" customHeight="1"/>
+    <row r="150" ht="68" customHeight="1"/>
+    <row r="153" ht="68" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A8:AA210">
+  <conditionalFormatting sqref="A8:AA10 A16:AA28 A15:Q15 S15 U15:AA15 A12:AA14 A11:R11 U11:AA11 A30:AA42 A29:Q29 V29:AA29 A44:AA82 A43:T43 V43:AA43 A84:AA210 A83:T83 V83:AA83">
     <cfRule type="cellIs" dxfId="14" priority="232" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="240" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="13" priority="235" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="239" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="236" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="237" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="238" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="239" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="238" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="237" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="236" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="235" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="8" priority="240" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="241" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49 G69 G72 L83 R83 X83 L86 N86 P86 R86 X86 G89 L89 N89 P89 R89 X89 G92 L92 N92 P92 R92 X92 G95 L95 N95 G98 G101 L104 N104 P104 R104 L107 N107">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X112 R35 L11 P11:Q11 X11 Z11 G15 G18 L15 N15 L24 N21 T21 R21 P15:U15 P21 G24 P29:U29 G29 L29 N29 L38 T35 G32 N35 P35 N11 S11:U11 G38 G43 N58 U43 P52 G52 G49 N43 P46 P43 N46 G46 R46 P49 R49 P58 N49 N52 P55 N55 R58 R66 N78 U63 N72 N75 G63 N63 P66 P63 N66 G66 P69 G72 N69 P78 P72 R69 P75 G69 X92 R83 X86 U83 L95 X89 L83 N83 P86 L86 N86 R86 P89 L89 N89 R78 L92 N92 X83 R89 R92 N95 G98 G83 G86 P83 G89 G92 P92 G95 G101 L104 N104 P104 R104 L107 L112 G112 G115 L115 P112:U112 N115 N112 P115 R115 N107 T115 X115" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X112 R35 L11 P11:Q11 X11 Z11 G15 G18 L15 N15 L24 N21 T21 R21 X115 P21 G24 U11 G29 L29 N29 L38 T35 G32 N35 P35 N11 U15 G38 G43 N58 P29:Q29 P52 G52 G49 N43 P46 P43 N46 G46 R46 P49 R49 P58 N49 N52 P55 N55 R58 R66 N78 U63 N72 N75 G63 N63 P66 P63 N66 G66 P69 G72 N69 P78 P72 R69 P75 G69 X92 R83 X86 S15 L95 X89 L83 N83 P86 L86 N86 R86 P89 L89 N89 R78 L92 N92 X83 R89 R92 N95 G98 G83 G86 P83 G89 G92 P92 G95 G101 L104 N104 P104 R104 L107 L112 G112 G115 L115 P112:U112 N115 N112 P115 R115 N107 T115 P15:Q15" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\zerotrustassessment\src\documentgenerator\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E70072-8D13-4AEC-9BE1-86D1275BFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B12028-6E2D-6441-9208-A6C666E5C0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop-Devices" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -714,10 +714,51 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -733,40 +774,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -783,12 +794,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -796,7 +807,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -812,40 +842,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -856,7 +856,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -892,15 +892,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>366886</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>70554</xdr:rowOff>
+      <xdr:colOff>372548</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>157892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>818442</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>112887</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2339</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>192755</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -929,8 +929,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="691442" y="42276887"/>
-          <a:ext cx="1284111" cy="1284111"/>
+          <a:off x="696273" y="45330049"/>
+          <a:ext cx="1273321" cy="1279961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,22 +942,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>378175</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>462842</xdr:rowOff>
+      <xdr:colOff>377943</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>289020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5179</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>124175</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>818708</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>821922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="282" name="Graphic 281">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD005D34-A9AD-7D95-973C-1F6E1A18371D}"/>
+        <xdr:cNvPr id="283" name="Graphic 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702894DC-E2FA-37EE-CF41-1D12ED5D2070}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,8 +979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="702731" y="44672953"/>
-          <a:ext cx="1284111" cy="1284111"/>
+          <a:off x="701668" y="48324902"/>
+          <a:ext cx="1262530" cy="1279961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -992,65 +992,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>389464</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>375352</xdr:rowOff>
+      <xdr:colOff>296989</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>201337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>8464</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>36686</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="283" name="Graphic 282">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702894DC-E2FA-37EE-CF41-1D12ED5D2070}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="714020" y="47069019"/>
-          <a:ext cx="1284111" cy="1284111"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67733</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>176390</xdr:rowOff>
+      <xdr:colOff>77897</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>370258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1079,8 +1029,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="620889" y="31707667"/>
-          <a:ext cx="1436511" cy="1418167"/>
+          <a:off x="620714" y="33669572"/>
+          <a:ext cx="1424438" cy="1414019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1092,22 +1042,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>293511</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>420511</xdr:rowOff>
+      <xdr:colOff>301743</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>14879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>64911</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>73143</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>191268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="189" name="Graphic 188">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B906D3B-5777-7D16-F393-37723EDA644D}"/>
+        <xdr:cNvPr id="190" name="Graphic 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E75EC0-4D69-A4A1-54A8-149C5DAD3B7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,8 +1079,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="618067" y="34131955"/>
-          <a:ext cx="1436511" cy="1418167"/>
+          <a:off x="625468" y="36346840"/>
+          <a:ext cx="1414930" cy="1421487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,66 +1089,16 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>290689</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>361243</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>62089</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>156632</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="190" name="Graphic 189">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E75EC0-4D69-A4A1-54A8-149C5DAD3B7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="615245" y="36556243"/>
-          <a:ext cx="1436511" cy="1418167"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>26260</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>406400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49803</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1215,8 +1115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="317500" y="3187700"/>
-          <a:ext cx="1574800" cy="863600"/>
+          <a:off x="349985" y="2373655"/>
+          <a:ext cx="1965896" cy="1052606"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1250,7 +1150,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1333,13 +1233,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:colOff>750726</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>445926</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>520700</xdr:rowOff>
     </xdr:to>
@@ -1370,8 +1270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="2781300"/>
-          <a:ext cx="520700" cy="520700"/>
+          <a:off x="1074451" y="1967255"/>
+          <a:ext cx="516965" cy="520700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1383,15 +1283,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
+      <xdr:colOff>54681</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>336550</xdr:rowOff>
+      <xdr:rowOff>308328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
+      <xdr:colOff>435681</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>717550</xdr:rowOff>
+      <xdr:rowOff>689328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1420,7 +1320,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6435725" y="2308226"/>
+          <a:off x="5685014" y="2297995"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1583,15 +1483,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>92193</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>317500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8772</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>265545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1606,8 +1506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="355600" y="5207000"/>
-          <a:ext cx="1841500" cy="1460500"/>
+          <a:off x="415918" y="5198284"/>
+          <a:ext cx="1834030" cy="1890398"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1641,7 +1541,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1654,7 +1554,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1667,7 +1567,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1680,7 +1580,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1762,23 +1662,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>634116</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>227445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>723900</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>562535</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Graphic 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F027B40-6F5A-9C86-A8DB-B788289E0474}"/>
+        <xdr:cNvPr id="27" name="Graphic 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67B719F-38FE-ADC8-8B61-AC236ED6FEC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,108 +1700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15570200" y="3124200"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Graphic 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67B719F-38FE-ADC8-8B61-AC236ED6FEC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="863600" y="4038600"/>
-          <a:ext cx="469900" cy="469900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Graphic 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456DEFE9-1225-3241-4D2B-8EF7A3840B33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1397000" y="4038600"/>
-          <a:ext cx="469900" cy="469900"/>
+          <a:off x="957841" y="4286465"/>
+          <a:ext cx="750184" cy="764054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1937,10 +1737,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1987,10 +1787,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2037,10 +1837,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2253,10 +2053,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2502,10 +2302,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2552,10 +2352,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2602,10 +2402,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2738,10 +2538,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2783,10 +2583,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2828,10 +2628,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2873,10 +2673,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2918,10 +2718,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2944,15 +2744,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>98543</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>103577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2422</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>635279</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2967,8 +2767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330200" y="12395200"/>
-          <a:ext cx="1828800" cy="1498600"/>
+          <a:off x="422268" y="12728871"/>
+          <a:ext cx="1821330" cy="2125428"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3002,7 +2802,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3015,7 +2815,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3028,7 +2828,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3041,7 +2841,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3123,18 +2923,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="469900" cy="469900"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Graphic 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC044AB9-990A-A040-B9A5-791DEBFF5CE5}"/>
+        <xdr:cNvPr id="44" name="Graphic 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83BE335-8A41-3844-9F37-3FFCF44875B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,8 +2956,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863600" y="11036300"/>
-          <a:ext cx="469900" cy="469900"/>
+          <a:off x="2895600" y="5880100"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3168,18 +2968,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="469900" cy="469900"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="342900" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Graphic 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93D5FDF-5E38-F948-B8F8-1B9E9420A577}"/>
+        <xdr:cNvPr id="46" name="Graphic 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596FA845-D7A7-2546-B582-FAEEB3DA3909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,8 +3001,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1397000" y="11036300"/>
-          <a:ext cx="469900" cy="469900"/>
+          <a:off x="2895600" y="4318000"/>
+          <a:ext cx="342900" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3215,16 +3015,16 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368300" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Graphic 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83BE335-8A41-3844-9F37-3FFCF44875B7}"/>
+        <xdr:cNvPr id="48" name="Graphic 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F803C7-CEF3-8544-94C2-35EFBE35151D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3233,100 +3033,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2895600" y="5880100"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Graphic 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596FA845-D7A7-2546-B582-FAEEB3DA3909}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2895600" y="4318000"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Graphic 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F803C7-CEF3-8544-94C2-35EFBE35151D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3567,10 +3277,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3612,10 +3322,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3657,10 +3367,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3793,10 +3503,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3838,10 +3548,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3883,10 +3593,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3928,10 +3638,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3973,10 +3683,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3999,15 +3709,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>238243</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>540327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>136643</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>476827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4023,10 +3733,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4036,8 +3746,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="6959600"/>
-          <a:ext cx="1549400" cy="1549400"/>
+          <a:off x="561968" y="7736994"/>
+          <a:ext cx="1541930" cy="1530225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4049,15 +3759,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>276841</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>116767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>48241</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>307494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4086,8 +3796,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="596900" y="14198600"/>
-          <a:ext cx="1422400" cy="1422400"/>
+          <a:off x="600566" y="15555983"/>
+          <a:ext cx="1414930" cy="1410923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4123,13 +3833,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4176,13 +3886,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4331,10 +4041,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId34"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4370,7 +4080,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="69" name="Rounded Rectangle 68">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C3C2E0-A312-604E-8A4E-85F408693A5B}"/>
@@ -4433,15 +4143,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:colOff>92193</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>93301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8772</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>837869</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4456,8 +4166,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="358775" y="5207000"/>
-          <a:ext cx="1841500" cy="1460500"/>
+          <a:off x="415918" y="20737026"/>
+          <a:ext cx="1834030" cy="1491627"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4491,7 +4201,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4504,7 +4214,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4587,17 +4297,107 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:colOff>560090</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635000" cy="635000"/>
+      <xdr:rowOff>648855</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="898236" cy="898236"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="73" name="Graphic 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0EA323-747C-AD4A-8C80-34420459C072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="883815" y="18802384"/>
+          <a:ext cx="898236" cy="898236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Graphic 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8154B7D-E275-F740-B1B2-819D5C82453B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="5880100"/>
+          <a:ext cx="368300" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="342900" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Graphic 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA986EA-BA63-7449-B87F-D8C3676C20B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4610,96 +4410,6 @@
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
               <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="990600" y="18364200"/>
-          <a:ext cx="635000" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Graphic 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8154B7D-E275-F740-B1B2-819D5C82453B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2905125" y="5880100"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Graphic 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA986EA-BA63-7449-B87F-D8C3676C20B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4849,10 +4559,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4886,6 +4596,231 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33425101-708E-324F-901C-925C763B128D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791450" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Graphic 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FD8216-B2A4-3D44-B1F0-72D72C51612A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9902825" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Graphic 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A4BA46-8E6D-8C4B-B24E-D01E65FF3E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11998325" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Graphic 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A5698D-3326-2E48-8E8A-BDBA55FA3A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13998575" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234508</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>255647</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1549400" cy="1555750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Graphic 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FFB5CB-F60A-AA4B-8B33-D14436E76A0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="558233" y="23265059"/>
+          <a:ext cx="1549400" cy="1555750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Graphic 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69E4818-BA3F-F24D-8CF6-BE5EE5DCE7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4898,231 +4833,6 @@
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
               <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7791450" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Graphic 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FD8216-B2A4-3D44-B1F0-72D72C51612A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9902825" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Graphic 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A4BA46-8E6D-8C4B-B24E-D01E65FF3E27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11998325" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Graphic 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A5698D-3326-2E48-8E8A-BDBA55FA3A5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13998575" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>242710</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>341489</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1549400" cy="1555750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Graphic 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FFB5CB-F60A-AA4B-8B33-D14436E76A0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="567266" y="21169489"/>
-          <a:ext cx="1549400" cy="1555750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Graphic 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69E4818-BA3F-F24D-8CF6-BE5EE5DCE7B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5169,13 +4879,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5221,8 +4931,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5975725" y="18790771"/>
-          <a:ext cx="2743768" cy="503130"/>
+          <a:off x="5325160" y="18585329"/>
+          <a:ext cx="2448059" cy="515582"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5317,13 +5027,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5370,8 +5080,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5989385" y="20333234"/>
-          <a:ext cx="2743768" cy="508467"/>
+          <a:off x="5338820" y="20121567"/>
+          <a:ext cx="2448059" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5466,13 +5176,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5515,10 +5225,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5560,10 +5270,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5605,10 +5315,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5650,10 +5360,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5695,10 +5405,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5740,10 +5450,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5785,10 +5495,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5834,8 +5544,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5974017" y="23503538"/>
-          <a:ext cx="2743768" cy="508467"/>
+          <a:off x="5323452" y="23279421"/>
+          <a:ext cx="2448059" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5930,13 +5640,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5983,8 +5693,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6009022" y="21849656"/>
-          <a:ext cx="2743768" cy="508467"/>
+          <a:off x="5358457" y="21631764"/>
+          <a:ext cx="2448059" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6079,13 +5789,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6132,8 +5842,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6024390" y="25072040"/>
-          <a:ext cx="2743768" cy="508467"/>
+          <a:off x="5373825" y="24841697"/>
+          <a:ext cx="2448059" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6245,13 +5955,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6294,10 +6004,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6339,10 +6049,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6384,10 +6094,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6433,8 +6143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6024390" y="26696893"/>
-          <a:ext cx="2743768" cy="508467"/>
+          <a:off x="5373825" y="26460325"/>
+          <a:ext cx="2448059" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6529,13 +6239,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6559,9 +6269,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>242710</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>366889</xdr:rowOff>
+      <xdr:colOff>234508</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>357608</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1549400" cy="1555750"/>
     <xdr:pic>
@@ -6578,10 +6288,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6591,7 +6301,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="567266" y="23579667"/>
+          <a:off x="558233" y="25857216"/>
           <a:ext cx="1549400" cy="1555750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6601,63 +6311,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>242710</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>293512</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1549400" cy="1555750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Graphic 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818620FA-BDCB-E0C5-12C0-D7A414F3BB51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="567266" y="25989845"/>
-          <a:ext cx="1549400" cy="1555750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:colOff>92193</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>683714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8772</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>556714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6672,8 +6337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="349956" y="19522722"/>
-          <a:ext cx="1855611" cy="1495778"/>
+          <a:off x="415918" y="30914694"/>
+          <a:ext cx="1834030" cy="1491628"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6707,7 +6372,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6720,7 +6385,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6803,17 +6468,107 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:colOff>571635</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635000" cy="635000"/>
+      <xdr:rowOff>163945</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="875146" cy="875146"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="147" name="Graphic 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD743785-0805-AD44-8D9A-24000D8DCBC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895360" y="28776298"/>
+          <a:ext cx="875146" cy="875146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Graphic 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0158A0-1DBC-6E41-8E89-A48D3C5C604D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913944" y="20195822"/>
+          <a:ext cx="368300" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="342900" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Graphic 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5A818C-9B65-A942-8152-5483C2DC20B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6826,96 +6581,6 @@
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
               <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="984956" y="18369844"/>
-          <a:ext cx="635000" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="Graphic 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0158A0-1DBC-6E41-8E89-A48D3C5C604D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913944" y="20195822"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="Graphic 148">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5A818C-9B65-A942-8152-5483C2DC20B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7065,10 +6730,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7102,6 +6767,186 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A600545F-E044-1B43-8AE2-C9CD67453652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="18604794"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Graphic 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E49C47-F3D2-4841-A18A-3C87F473BAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12042422" y="20227572"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Graphic 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A1501-9559-994D-BAA0-5314919B880B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="20227572"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Graphic 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4458DFBE-B09C-274B-8B4C-F37D51EF48A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="20227572"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="Graphic 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D33361-8F57-C64D-B385-57F63A1B2E47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7114,186 +6959,6 @@
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
               <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="18604794"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="Graphic 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E49C47-F3D2-4841-A18A-3C87F473BAFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="20227572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="154" name="Graphic 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A1501-9559-994D-BAA0-5314919B880B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="20227572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="Graphic 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4458DFBE-B09C-274B-8B4C-F37D51EF48A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="20227572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="157" name="Graphic 156">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D33361-8F57-C64D-B385-57F63A1B2E47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7339,8 +7004,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5975725" y="29305624"/>
-          <a:ext cx="2743768" cy="503130"/>
+          <a:off x="5325160" y="29044153"/>
+          <a:ext cx="2448059" cy="515582"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7435,13 +7100,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7488,8 +7153,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5989385" y="30848086"/>
-          <a:ext cx="2743768" cy="508467"/>
+          <a:off x="5338820" y="30580390"/>
+          <a:ext cx="2448059" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7584,13 +7249,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7633,10 +7298,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7678,10 +7343,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7723,10 +7388,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7768,10 +7433,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7813,10 +7478,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7858,10 +7523,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7903,10 +7568,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7952,8 +7617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5974017" y="34018391"/>
-          <a:ext cx="2743768" cy="508467"/>
+          <a:off x="5323452" y="33738244"/>
+          <a:ext cx="2448059" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8048,13 +7713,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8101,8 +7766,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6009022" y="32364509"/>
-          <a:ext cx="2743768" cy="508467"/>
+          <a:off x="5358457" y="32090588"/>
+          <a:ext cx="2448059" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8197,13 +7862,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8250,8 +7915,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6024390" y="35586893"/>
-          <a:ext cx="2743768" cy="508467"/>
+          <a:off x="5373825" y="35300521"/>
+          <a:ext cx="2448059" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8363,13 +8028,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8412,10 +8077,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8457,10 +8122,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8502,10 +8167,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8551,8 +8216,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6024390" y="37211746"/>
-          <a:ext cx="2743768" cy="508467"/>
+          <a:off x="5373825" y="36919148"/>
+          <a:ext cx="2448059" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8647,13 +8312,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8696,10 +8361,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8722,15 +8387,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:colOff>92193</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>188628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8772</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>61628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8745,8 +8410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="349956" y="30021389"/>
-          <a:ext cx="1855611" cy="1495778"/>
+          <a:off x="415918" y="42123530"/>
+          <a:ext cx="1834030" cy="1491627"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8780,7 +8445,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8793,7 +8458,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8895,10 +8560,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8940,10 +8605,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9076,10 +8741,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9113,6 +8778,186 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDE0392-CA5E-A140-8223-2EB7640808C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="29103461"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="247" name="Graphic 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C98B96C-F522-874B-AC82-209CB13CC4AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12042422" y="30726239"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="248" name="Graphic 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7179D021-E982-644B-8415-3547FFABDD57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="30726239"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="249" name="Graphic 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82E4D86-87D9-CE4E-ACE3-203B4DA12A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="30726239"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="250" name="Graphic 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC1010A-12B0-2B41-9571-EC98733D9D81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9134,8 +8979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9939867" y="29103461"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="2913944" y="32317267"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9148,16 +8993,286 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="247" name="Graphic 246">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C98B96C-F522-874B-AC82-209CB13CC4AA}"/>
+        <xdr:cNvPr id="257" name="Graphic 256">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4668D51C-7560-8E43-987F-B53ACD5F9FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12042422" y="32349017"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="258" name="Graphic 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2EEEA2-B876-9F4D-9C17-74BFF653C5E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="32349017"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="259" name="Graphic 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E035409-E362-664F-9829-EE488B232CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="32349017"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="260" name="Graphic 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980EA7B9-C290-8D4D-BD44-A2685C69B2AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="33971794"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="261" name="Graphic 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D90CAF-37B4-1447-B5CE-524685A0E90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="33971794"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="262" name="Graphic 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D162846-C2AE-3B47-BA8D-24FDF0BB9C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="35594572"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="279" name="Graphic 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CA4DA6-C979-D747-8129-76224FE97B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9179,8 +9294,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12042422" y="30726239"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="2913944" y="33940044"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9189,20 +9304,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640167</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>590099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>556484</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>92363</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="248" name="Graphic 247">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7179D021-E982-644B-8415-3547FFABDD57}"/>
+        <xdr:cNvPr id="280" name="Graphic 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1474AC2-E214-3F8B-6D21-A3F5FCDEB040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="963892" y="39661275"/>
+          <a:ext cx="738082" cy="747363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>377943</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>46617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>818708</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>579517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="284" name="Graphic 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0435B018-0903-CBB0-288E-2FAB5DEBFB9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701668" y="51319754"/>
+          <a:ext cx="1262530" cy="1279959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="285" name="Graphic 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4EA255-4DBD-6C43-B648-59860ADB2238}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9224,8 +9439,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7823200" y="30726239"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="2913944" y="42815933"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9236,18 +9451,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="249" name="Graphic 248">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82E4D86-87D9-CE4E-ACE3-203B4DA12A96}"/>
+        <xdr:cNvPr id="286" name="Graphic 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507DB5B2-8496-1945-B2F0-A4931C87B74D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9269,8 +9484,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9939867" y="30726239"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="2913944" y="44438711"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9283,61 +9498,16 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368300" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="250" name="Graphic 249">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC1010A-12B0-2B41-9571-EC98733D9D81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913944" y="32317267"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="257" name="Graphic 256">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4668D51C-7560-8E43-987F-B53ACD5F9FF3}"/>
+        <xdr:cNvPr id="287" name="Graphic 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D8FD4-E0A7-1A4F-91F1-357612075293}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9359,8 +9529,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12042422" y="32349017"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="2913944" y="46061489"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9371,18 +9541,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="258" name="Graphic 257">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2EEEA2-B876-9F4D-9C17-74BFF653C5E3}"/>
+        <xdr:cNvPr id="288" name="Graphic 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD33A5ED-AC2A-3F4E-904B-79DE46073370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9404,8 +9574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7823200" y="32349017"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="2913944" y="47684267"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9416,18 +9586,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="259" name="Graphic 258">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E035409-E362-664F-9829-EE488B232CDB}"/>
+        <xdr:cNvPr id="289" name="Graphic 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469D3B23-4306-CA4C-9AFE-CEB70DA96BA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9436,10 +9606,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9449,7 +9619,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9939867" y="32349017"/>
+          <a:off x="7823200" y="39602128"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9461,18 +9631,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="260" name="Graphic 259">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980EA7B9-C290-8D4D-BD44-A2685C69B2AF}"/>
+        <xdr:cNvPr id="290" name="Graphic 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9222CB74-FFC0-1646-B52B-ACC5BC99D7E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9481,10 +9651,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9494,7 +9664,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7823200" y="33971794"/>
+          <a:off x="7823200" y="39602128"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9506,18 +9676,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="261" name="Graphic 260">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D90CAF-37B4-1447-B5CE-524685A0E90E}"/>
+        <xdr:cNvPr id="291" name="Graphic 290">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB2C0BB-FC56-774C-B7A7-C09ACE5BB75E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9526,10 +9696,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9539,7 +9709,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9939867" y="33971794"/>
+          <a:off x="7823200" y="39602128"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9551,18 +9721,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="262" name="Graphic 261">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D162846-C2AE-3B47-BA8D-24FDF0BB9C65}"/>
+        <xdr:cNvPr id="292" name="Graphic 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0237CE2-E53D-C747-B4C3-46E97D1E5B7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9571,10 +9741,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9584,7 +9754,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7823200" y="35594572"/>
+          <a:off x="7823200" y="39602128"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9596,18 +9766,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="279" name="Graphic 278">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CA4DA6-C979-D747-8129-76224FE97B90}"/>
+        <xdr:cNvPr id="293" name="Graphic 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF210A14-FEAB-EC49-ADAB-8026C5CD27C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9616,10 +9786,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9629,8 +9799,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913944" y="33940044"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="7823200" y="39602128"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9639,25 +9809,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>70554</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409221</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>677331</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="280" name="Graphic 279">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1474AC2-E214-3F8B-6D21-A3F5FCDEB040}"/>
+        <xdr:cNvPr id="294" name="Graphic 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E32443-8130-E14D-92AE-FE9D9E359BF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9666,10 +9831,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9679,8 +9844,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="959555" y="39412332"/>
-          <a:ext cx="606777" cy="606777"/>
+          <a:off x="7823200" y="39602128"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9688,26 +9853,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400753</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>386641</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19753</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>47974</xdr:rowOff>
-    </xdr:to>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="284" name="Graphic 283">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0435B018-0903-CBB0-288E-2FAB5DEBFB9A}"/>
+        <xdr:cNvPr id="295" name="Graphic 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807C4067-856F-134E-901C-9389B3469BCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9716,10 +9876,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9729,8 +9889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="725309" y="49465085"/>
-          <a:ext cx="1284111" cy="1284111"/>
+          <a:off x="7823200" y="39602128"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9738,21 +9898,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="285" name="Graphic 284">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4EA255-4DBD-6C43-B648-59860ADB2238}"/>
+        <xdr:cNvPr id="302" name="Graphic 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26885862-36C2-3746-BF61-34204EC04C72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9761,10 +9921,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9774,8 +9934,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913944" y="42815933"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="12042422" y="39602128"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9786,18 +9946,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="286" name="Graphic 285">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507DB5B2-8496-1945-B2F0-A4931C87B74D}"/>
+        <xdr:cNvPr id="303" name="Graphic 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8039A4D-C4D9-F34F-A514-12DA5ACA4CFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9806,10 +9966,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9819,8 +9979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913944" y="44438711"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="12042422" y="39602128"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9831,18 +9991,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="287" name="Graphic 286">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D8FD4-E0A7-1A4F-91F1-357612075293}"/>
+        <xdr:cNvPr id="304" name="Graphic 303">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8F5DC4-1184-C64F-98BD-7406FB265310}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9851,10 +10011,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9864,8 +10024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913944" y="46061489"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="12042422" y="39602128"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9876,18 +10036,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="288" name="Graphic 287">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD33A5ED-AC2A-3F4E-904B-79DE46073370}"/>
+        <xdr:cNvPr id="305" name="Graphic 304">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE7F443-932D-3542-A0C1-DB37A0E70B40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9896,505 +10056,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913944" y="47684267"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="289" name="Graphic 288">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469D3B23-4306-CA4C-9AFE-CEB70DA96BA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="290" name="Graphic 289">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9222CB74-FFC0-1646-B52B-ACC5BC99D7E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="291" name="Graphic 290">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB2C0BB-FC56-774C-B7A7-C09ACE5BB75E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="292" name="Graphic 291">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0237CE2-E53D-C747-B4C3-46E97D1E5B7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="293" name="Graphic 292">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF210A14-FEAB-EC49-ADAB-8026C5CD27C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="294" name="Graphic 293">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E32443-8130-E14D-92AE-FE9D9E359BF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="295" name="Graphic 294">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807C4067-856F-134E-901C-9389B3469BCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="302" name="Graphic 301">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26885862-36C2-3746-BF61-34204EC04C72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="303" name="Graphic 302">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8039A4D-C4D9-F34F-A514-12DA5ACA4CFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="304" name="Graphic 303">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8F5DC4-1184-C64F-98BD-7406FB265310}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="305" name="Graphic 304">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE7F443-932D-3542-A0C1-DB37A0E70B40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10527,10 +10192,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10572,10 +10237,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10617,10 +10282,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10662,10 +10327,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10707,10 +10372,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10752,10 +10417,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10777,16 +10442,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11288</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>305146</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>515055</xdr:rowOff>
+      <xdr:rowOff>566932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>201788</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>94643</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>388054</xdr:rowOff>
+      <xdr:rowOff>439931</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10801,8 +10466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="335844" y="55223833"/>
-          <a:ext cx="1855611" cy="1495777"/>
+          <a:off x="305146" y="54952814"/>
+          <a:ext cx="2055575" cy="1491627"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10836,7 +10501,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10849,7 +10514,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10951,10 +10616,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10996,10 +10661,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11149,10 +10814,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11194,10 +10859,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11239,10 +10904,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11284,10 +10949,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11329,10 +10994,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11374,10 +11039,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11419,10 +11084,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11464,10 +11129,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11490,15 +11155,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>550332</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>112887</xdr:rowOff>
+      <xdr:colOff>626548</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>312102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>493888</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>28220</xdr:rowOff>
+      <xdr:colOff>570104</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>725475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11514,10 +11179,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId41"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11527,8 +11192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="874888" y="54821665"/>
-          <a:ext cx="776111" cy="776111"/>
+          <a:off x="950273" y="54324455"/>
+          <a:ext cx="765321" cy="786902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11540,15 +11205,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>338666</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>380997</xdr:rowOff>
+      <xdr:colOff>400769</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>281389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>733779</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>366888</xdr:rowOff>
+      <xdr:colOff>795882</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>267280</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11563,8 +11228,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="712195" y="56401072"/>
-          <a:ext cx="1319600" cy="1227875"/>
+          <a:off x="724494" y="56285899"/>
+          <a:ext cx="1216878" cy="1230989"/>
           <a:chOff x="620888" y="57714444"/>
           <a:chExt cx="1411111" cy="1411111"/>
         </a:xfrm>
@@ -11583,7 +11248,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -11612,10 +11277,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId44"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId42"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -11658,10 +11323,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11692,7 +11357,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="338" name="Graphic 337">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5A413B-B765-2845-BBB8-9BBB32829F2B}"/>
@@ -11704,10 +11369,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11749,10 +11414,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11794,10 +11459,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11839,10 +11504,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11889,13 +11554,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11907,6 +11572,106 @@
         <a:xfrm flipH="1">
           <a:off x="15708023" y="620464"/>
           <a:ext cx="615732" cy="525086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>73923</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>289085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>454923</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>670085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphic 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3414EF-3112-4840-B669-7863924A0830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18454287" y="2251812"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>634116</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>252844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>562535</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31767F05-C81A-2442-BBC3-CE1272914B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="957841" y="11284413"/>
+          <a:ext cx="750184" cy="742774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12241,11 +12006,11 @@
   <dimension ref="A1:AK153"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="6" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T120" sqref="T120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
@@ -12277,7 +12042,7 @@
     <col min="38" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="10.050000000000001" customHeight="1">
+    <row r="1" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -12314,7 +12079,7 @@
       <c r="AJ1" s="24"/>
       <c r="AK1" s="24"/>
     </row>
-    <row r="2" spans="1:37" ht="41" customHeight="1">
+    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12376,7 +12141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="11" customHeight="1">
+    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -12405,7 +12170,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:37" ht="30" customHeight="1">
+    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -12434,7 +12199,7 @@
       <c r="Z4" s="40"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:37" ht="5" customHeight="1">
+    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -12463,7 +12228,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:37" ht="14" customHeight="1">
+    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12492,7 +12257,7 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:37" ht="4.05" customHeight="1">
+    <row r="7" spans="1:37" ht="4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -12521,7 +12286,7 @@
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="1:37" ht="30" customHeight="1">
+    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -12530,7 +12295,7 @@
       <c r="J8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:37" ht="10.050000000000001" customHeight="1" thickBot="1">
+    <row r="9" spans="1:37" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -12539,7 +12304,7 @@
       <c r="J9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:37" ht="76.05" customHeight="1">
+    <row r="10" spans="1:37" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -12568,7 +12333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -12598,7 +12363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="30" customHeight="1">
+    <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -12607,7 +12372,7 @@
       <c r="J12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -12616,7 +12381,7 @@
       <c r="J13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:37" ht="64.05" customHeight="1">
+    <row r="14" spans="1:37" ht="64" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -12642,7 +12407,7 @@
       <c r="U14" s="20"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -12668,7 +12433,7 @@
       <c r="U15" s="14"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -12677,7 +12442,7 @@
       <c r="J16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="65" customHeight="1">
+    <row r="17" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -12689,7 +12454,7 @@
       <c r="J17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -12701,7 +12466,7 @@
       <c r="J18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -12710,7 +12475,7 @@
       <c r="J19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="67.05" customHeight="1">
+    <row r="20" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -12731,7 +12496,7 @@
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -12752,7 +12517,7 @@
       </c>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -12761,7 +12526,7 @@
       <c r="J22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" ht="59" customHeight="1">
+    <row r="23" spans="1:22" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -12776,7 +12541,7 @@
       </c>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -12791,7 +12556,7 @@
       </c>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1">
+    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -12800,7 +12565,7 @@
       <c r="J25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1">
+    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12809,7 +12574,7 @@
       <c r="J26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -12818,7 +12583,7 @@
       <c r="J27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" ht="67.05" customHeight="1">
+    <row r="28" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -12844,7 +12609,7 @@
       <c r="U28" s="20"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -12870,7 +12635,7 @@
       <c r="U29"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -12879,7 +12644,7 @@
       <c r="J30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="67.05" customHeight="1">
+    <row r="31" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -12891,7 +12656,7 @@
       <c r="J31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -12903,7 +12668,7 @@
       <c r="J32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -12912,7 +12677,7 @@
       <c r="J33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" ht="67.05" customHeight="1">
+    <row r="34" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12933,7 +12698,7 @@
       </c>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12954,7 +12719,7 @@
       </c>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12963,7 +12728,7 @@
       <c r="J36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" ht="67.05" customHeight="1">
+    <row r="37" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -12978,7 +12743,7 @@
       </c>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -12993,7 +12758,7 @@
       </c>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" ht="30" customHeight="1">
+    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -13002,7 +12767,7 @@
       <c r="J39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" ht="30" customHeight="1">
+    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -13011,7 +12776,7 @@
       <c r="J40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -13020,7 +12785,7 @@
       <c r="J41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" ht="68" customHeight="1">
+    <row r="42" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -13039,7 +12804,7 @@
       <c r="U42" s="20"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -13058,7 +12823,7 @@
       <c r="U43"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13067,7 +12832,7 @@
       <c r="J44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" ht="68" customHeight="1">
+    <row r="45" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13088,7 +12853,7 @@
       </c>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13109,7 +12874,7 @@
       </c>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13118,7 +12883,7 @@
       <c r="J47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:22" ht="68" customHeight="1">
+    <row r="48" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -13139,7 +12904,7 @@
       </c>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -13160,7 +12925,7 @@
       </c>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -13171,7 +12936,7 @@
       <c r="J50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" ht="68" customHeight="1">
+    <row r="51" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -13189,7 +12954,7 @@
       <c r="R51"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -13206,7 +12971,7 @@
       <c r="R52"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -13215,7 +12980,7 @@
       <c r="J53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="1:22" ht="68" customHeight="1">
+    <row r="54" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -13231,7 +12996,7 @@
       <c r="R54"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -13247,7 +13012,7 @@
       <c r="R55"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -13256,7 +13021,7 @@
       <c r="J56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" spans="1:22" ht="68" customHeight="1">
+    <row r="57" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -13274,7 +13039,7 @@
       </c>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -13292,7 +13057,7 @@
       </c>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" spans="1:22" ht="30" customHeight="1">
+    <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -13301,7 +13066,7 @@
       <c r="J59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" ht="30" customHeight="1">
+    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -13310,7 +13075,7 @@
       <c r="J60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -13319,7 +13084,7 @@
       <c r="J61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" spans="1:22" ht="68" customHeight="1">
+    <row r="62" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -13338,7 +13103,7 @@
       <c r="U62" s="20"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -13357,7 +13122,7 @@
       <c r="U63" s="14"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -13366,7 +13131,7 @@
       <c r="J64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:22" ht="68" customHeight="1">
+    <row r="65" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -13387,7 +13152,7 @@
       </c>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -13408,7 +13173,7 @@
       </c>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -13417,7 +13182,7 @@
       <c r="J67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" spans="1:22" ht="68" customHeight="1">
+    <row r="68" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -13438,7 +13203,7 @@
       </c>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -13459,7 +13224,7 @@
       </c>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -13470,7 +13235,7 @@
       <c r="J70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" spans="1:22" ht="68" customHeight="1">
+    <row r="71" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -13490,7 +13255,7 @@
       <c r="R71"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -13509,7 +13274,7 @@
       <c r="R72"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -13518,7 +13283,7 @@
       <c r="J73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" spans="1:22" ht="68" customHeight="1">
+    <row r="74" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -13534,7 +13299,7 @@
       <c r="R74"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -13550,7 +13315,7 @@
       <c r="R75"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -13559,7 +13324,7 @@
       <c r="J76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:22" ht="68" customHeight="1">
+    <row r="77" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -13577,7 +13342,7 @@
       </c>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -13595,7 +13360,7 @@
       </c>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" spans="1:22" ht="30" customHeight="1">
+    <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -13604,12 +13369,12 @@
       <c r="J79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" ht="30" customHeight="1">
+    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E80" s="2"/>
       <c r="J80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -13618,7 +13383,7 @@
       <c r="J81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:24" ht="68" customHeight="1">
+    <row r="82" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -13646,7 +13411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -13674,7 +13439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -13683,7 +13448,7 @@
       <c r="J84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:24" ht="68" customHeight="1">
+    <row r="85" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -13710,7 +13475,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -13737,7 +13502,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -13746,7 +13511,7 @@
       <c r="J87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="1:24" ht="68" customHeight="1">
+    <row r="88" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -13773,7 +13538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -13800,7 +13565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -13811,7 +13576,7 @@
       <c r="J90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" spans="1:24" ht="68" customHeight="1">
+    <row r="91" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -13839,7 +13604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -13866,7 +13631,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -13875,7 +13640,7 @@
       <c r="J93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:24" ht="68" customHeight="1">
+    <row r="94" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -13896,7 +13661,7 @@
       <c r="R94"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -13917,7 +13682,7 @@
       <c r="R95"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -13929,7 +13694,7 @@
       <c r="R96"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:24" ht="68" customHeight="1">
+    <row r="97" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -13948,7 +13713,7 @@
       <c r="R97"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -13967,7 +13732,7 @@
       <c r="R98"/>
       <c r="V98" s="2"/>
     </row>
-    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -13976,7 +13741,7 @@
       <c r="J99" s="2"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1">
+    <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E100" s="2"/>
       <c r="F100" s="16"/>
       <c r="G100" s="13" t="s">
@@ -13985,7 +13750,7 @@
       <c r="J100" s="2"/>
       <c r="V100" s="2"/>
     </row>
-    <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1">
+    <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E101" s="2"/>
       <c r="G101" s="34" t="s">
         <v>83</v>
@@ -13993,13 +13758,13 @@
       <c r="J101" s="2"/>
       <c r="V101" s="2"/>
     </row>
-    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E102" s="2"/>
       <c r="G102" s="17"/>
       <c r="J102" s="2"/>
       <c r="V102" s="2"/>
     </row>
-    <row r="103" spans="1:24" ht="68" customHeight="1">
+    <row r="103" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E103" s="2"/>
       <c r="G103" s="17"/>
       <c r="J103" s="2"/>
@@ -14017,7 +13782,7 @@
       </c>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E104" s="2"/>
       <c r="J104" s="2"/>
       <c r="L104" s="34" t="s">
@@ -14034,12 +13799,12 @@
       </c>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E105" s="2"/>
       <c r="J105" s="2"/>
       <c r="V105" s="2"/>
     </row>
-    <row r="106" spans="1:24" ht="68" customHeight="1">
+    <row r="106" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E106" s="2"/>
       <c r="J106" s="2"/>
       <c r="L106" s="13" t="s">
@@ -14050,7 +13815,7 @@
       </c>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E107" s="2"/>
       <c r="J107" s="2"/>
       <c r="L107" s="34" t="s">
@@ -14061,17 +13826,17 @@
       </c>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" spans="1:24" ht="30" customHeight="1">
+    <row r="108" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E108" s="2"/>
       <c r="J108" s="2"/>
       <c r="V108" s="2"/>
     </row>
-    <row r="109" spans="1:24" ht="30" customHeight="1">
+    <row r="109" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E109" s="2"/>
       <c r="J109" s="2"/>
       <c r="V109" s="2"/>
     </row>
-    <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -14080,7 +13845,7 @@
       <c r="J110" s="2"/>
       <c r="V110" s="2"/>
     </row>
-    <row r="111" spans="1:24" ht="68" customHeight="1">
+    <row r="111" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -14113,7 +13878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1">
+    <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -14146,7 +13911,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1">
+    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -14155,7 +13920,7 @@
       <c r="J113" s="2"/>
       <c r="V113" s="2"/>
     </row>
-    <row r="114" spans="1:29" ht="68" customHeight="1">
+    <row r="114" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -14185,7 +13950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1">
+    <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -14215,7 +13980,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="30" customHeight="1">
+    <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -14224,7 +13989,7 @@
       <c r="J116" s="2"/>
       <c r="V116" s="2"/>
     </row>
-    <row r="117" spans="1:29" ht="68" customHeight="1">
+    <row r="117" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -14255,7 +14020,7 @@
       <c r="AB117"/>
       <c r="AC117"/>
     </row>
-    <row r="118" spans="1:29" ht="30" customHeight="1">
+    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -14286,7 +14051,7 @@
       <c r="AB118"/>
       <c r="AC118"/>
     </row>
-    <row r="119" spans="1:29" ht="30" customHeight="1">
+    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -14317,7 +14082,7 @@
       <c r="AB119"/>
       <c r="AC119"/>
     </row>
-    <row r="120" spans="1:29" ht="68" customHeight="1">
+    <row r="120" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -14348,7 +14113,7 @@
       <c r="AB120"/>
       <c r="AC120"/>
     </row>
-    <row r="121" spans="1:29" ht="30" customHeight="1">
+    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -14379,7 +14144,7 @@
       <c r="AB121"/>
       <c r="AC121"/>
     </row>
-    <row r="122" spans="1:29" ht="30" customHeight="1">
+    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -14410,7 +14175,7 @@
       <c r="AB122"/>
       <c r="AC122"/>
     </row>
-    <row r="123" spans="1:29" ht="68" customHeight="1">
+    <row r="123" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -14440,7 +14205,7 @@
       <c r="AB123"/>
       <c r="AC123"/>
     </row>
-    <row r="124" spans="1:29" ht="30" customHeight="1">
+    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -14470,7 +14235,7 @@
       <c r="AB124"/>
       <c r="AC124"/>
     </row>
-    <row r="125" spans="1:29" ht="30" customHeight="1">
+    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -14500,7 +14265,7 @@
       <c r="AB125"/>
       <c r="AC125"/>
     </row>
-    <row r="126" spans="1:29" ht="68" customHeight="1">
+    <row r="126" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -14530,7 +14295,7 @@
       <c r="AB126"/>
       <c r="AC126"/>
     </row>
-    <row r="127" spans="1:29" ht="30" customHeight="1">
+    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -14560,7 +14325,7 @@
       <c r="AB127"/>
       <c r="AC127"/>
     </row>
-    <row r="128" spans="1:29" ht="30" customHeight="1">
+    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -14590,7 +14355,7 @@
       <c r="AB128"/>
       <c r="AC128"/>
     </row>
-    <row r="129" spans="2:29" ht="68" customHeight="1">
+    <row r="129" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -14620,7 +14385,7 @@
       <c r="AB129"/>
       <c r="AC129"/>
     </row>
-    <row r="130" spans="2:29" ht="30" customHeight="1">
+    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -14650,7 +14415,7 @@
       <c r="AB130"/>
       <c r="AC130"/>
     </row>
-    <row r="131" spans="2:29" ht="30" customHeight="1">
+    <row r="131" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -14680,7 +14445,7 @@
       <c r="AB131"/>
       <c r="AC131"/>
     </row>
-    <row r="132" spans="2:29" ht="68" customHeight="1">
+    <row r="132" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -14710,7 +14475,7 @@
       <c r="AB132"/>
       <c r="AC132"/>
     </row>
-    <row r="133" spans="2:29" ht="30" customHeight="1">
+    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -14740,66 +14505,68 @@
       <c r="AB133"/>
       <c r="AC133"/>
     </row>
-    <row r="135" spans="2:29" ht="68" customHeight="1"/>
-    <row r="138" spans="2:29" ht="68" customHeight="1"/>
-    <row r="141" spans="2:29" ht="68" customHeight="1"/>
-    <row r="144" spans="2:29" ht="68" customHeight="1"/>
-    <row r="147" ht="68" customHeight="1"/>
-    <row r="150" ht="68" customHeight="1"/>
-    <row r="153" ht="68" customHeight="1"/>
+    <row r="135" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A8:AA10 A16:AA28 A15:Q15 S15 U15:AA15 A12:AA14 A11:R11 U11:AA11 A30:AA42 A29:Q29 V29:AA29 A44:AA82 A43:T43 V43:AA43 A84:AA210 A83:T83 V83:AA83">
-    <cfRule type="cellIs" dxfId="14" priority="232" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+  <conditionalFormatting sqref="A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 A30:AA42 A43:T43 V43:AA43 A44:AA82 A83:T83 V83:AA83 A84:AA210">
+    <cfRule type="cellIs" dxfId="14" priority="241" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="240" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="239" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="238" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="237" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="236" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="235" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="236" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="237" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="238" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="239" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="240" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="241" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:AA82 A83:T83 V83:AA83 A84:AA210 A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 A30:AA42 A43:T43 V43:AA43">
+    <cfRule type="cellIs" dxfId="7" priority="232" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49 G69 G72 L83 R83 X83 L86 N86 P86 R86 X86 G89 L89 N89 P89 R89 X89 G92 L92 N92 P92 R92 X92 G95 L95 N95 G98 G101 L104 N104 P104 R104 L107 N107">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B12028-6E2D-6441-9208-A6C666E5C0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE75104-1E23-DA4B-8D39-5B507EE9F4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
@@ -714,13 +714,10 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -731,23 +728,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
+          <bgColor rgb="FFDBD2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -763,13 +744,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
+          <bgColor rgb="FF74FC79"/>
         </patternFill>
       </fill>
     </dxf>
@@ -777,7 +755,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -794,12 +783,23 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -807,15 +807,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
+          <bgColor rgb="FFDBD2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -831,13 +834,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
+          <bgColor rgb="FF74FC79"/>
         </patternFill>
       </fill>
     </dxf>
@@ -845,18 +845,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -891,6 +891,106 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>46182</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>230910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>406182</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>590910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Graphic 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79FD21B-F694-F146-B49A-BA1C897D16A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11961091" y="14593455"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>198583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>417728</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>558583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Graphic 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2707B443-A787-600D-5C4A-DDEFA1BB2643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657273" y="4274128"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>372548</xdr:colOff>
       <xdr:row>92</xdr:row>
@@ -916,10 +1016,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -966,10 +1066,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1016,10 +1116,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1066,10 +1166,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1092,15 +1192,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>26260</xdr:colOff>
+      <xdr:colOff>60897</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>406400</xdr:rowOff>
+      <xdr:rowOff>602673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>49803</xdr:colOff>
+      <xdr:colOff>84440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>310573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1115,8 +1215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="349985" y="2373655"/>
-          <a:ext cx="1965896" cy="1052606"/>
+          <a:off x="395715" y="2565400"/>
+          <a:ext cx="1986270" cy="1058718"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1239,9 +1339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>445926</xdr:colOff>
+      <xdr:colOff>646653</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
+      <xdr:rowOff>719226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1249,106 +1349,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD70F80B-249A-5735-4719-E9B4157D6F8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1074451" y="1967255"/>
-          <a:ext cx="516965" cy="520700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>54681</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>308328</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>435681</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>689328</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Graphic 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63DE1D3B-B538-B8E7-109A-F21E54D2CE17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5685014" y="2297995"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>698500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Graphic 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654D0B1D-5364-F49B-4841-AD4BBF8793F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,8 +1370,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9372600" y="3124200"/>
-          <a:ext cx="355600" cy="355600"/>
+          <a:off x="1085544" y="1962727"/>
+          <a:ext cx="727200" cy="719226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1382,23 +1382,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54681</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
+      <xdr:rowOff>308328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414681</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>673100</xdr:rowOff>
+      <xdr:rowOff>668328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Graphic 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D635E653-BA38-E921-92DE-C7B5334E35DD}"/>
+        <xdr:cNvPr id="19" name="Graphic 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63DE1D3B-B538-B8E7-109A-F21E54D2CE17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,8 +1420,108 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11442700" y="3073400"/>
-          <a:ext cx="381000" cy="381000"/>
+          <a:off x="5654226" y="2271055"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>448900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>702900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Graphic 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654D0B1D-5364-F49B-4841-AD4BBF8793F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7789718" y="2305627"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>410800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>652100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Graphic 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D635E653-BA38-E921-92DE-C7B5334E35DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9864436" y="2254827"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1457,10 +1557,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1669,9 +1769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>562535</xdr:colOff>
+      <xdr:colOff>533643</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>169735</xdr:rowOff>
+      <xdr:rowOff>141193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1687,10 +1787,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1700,8 +1800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="957841" y="4286465"/>
-          <a:ext cx="750184" cy="764054"/>
+          <a:off x="968934" y="4302990"/>
+          <a:ext cx="730800" cy="721930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1719,9 +1819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:colOff>423500</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>596900</xdr:rowOff>
+      <xdr:rowOff>588600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1737,10 +1837,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1750,8 +1850,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2755900" y="6692900"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="2903682" y="5874327"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1765,13 +1865,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>229178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:colOff>423500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>584200</xdr:rowOff>
+      <xdr:rowOff>589178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1787,10 +1887,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1800,8 +1900,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="4318000"/>
-          <a:ext cx="342900" cy="342900"/>
+          <a:off x="2903682" y="4304723"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1837,10 +1937,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2031,51 +2131,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Graphic 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E996351-8C50-DF41-B68E-3A688B3B2E29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2540000" y="5880100"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2275,156 +2330,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>565150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Graphic 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E5882E-D8E2-E941-B26E-98A70BED514D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>565150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Graphic 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8955D9F-008F-B242-BEE2-A386ED698232}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7772400" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>565150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Graphic 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBCB2E2-1AEC-AC46-8D5C-D274CFEF489F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9918700" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2518,18 +2423,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:ext cx="360000" cy="360000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Graphic 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0603AAFC-BA71-3C4C-A5C5-4F2F3E1F190A}"/>
+        <xdr:cNvPr id="29" name="Graphic 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6AF790-189E-7143-8764-2776E84F4C20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,10 +2443,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2551,188 +2456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5676900" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Graphic 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6AF790-189E-7143-8764-2776E84F4C20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Graphic 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EAD6801-974A-7A42-A94A-C5365094008F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Graphic 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6948DB-6676-AD4E-93C7-07F68F98407A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Graphic 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936594C0-5CB2-4945-86FD-A870E2B0902B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11785600" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="7777018" y="7499350"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2928,7 +2653,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:ext cx="360000" cy="360000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="44" name="Graphic 43">
@@ -2943,10 +2668,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2956,8 +2681,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="5880100"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="2903682" y="12974782"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2973,7 +2698,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
+    <xdr:ext cx="360000" cy="360000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="46" name="Graphic 45">
@@ -2988,10 +2713,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3001,8 +2726,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="4318000"/>
-          <a:ext cx="342900" cy="342900"/>
+          <a:off x="2903682" y="11371118"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3033,10 +2758,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3262,7 +2987,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:ext cx="360000" cy="360000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="51" name="Graphic 50">
@@ -3277,10 +3002,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3290,8 +3015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5676900" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="5675745" y="11390168"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3307,7 +3032,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:ext cx="360000" cy="360000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="52" name="Graphic 51">
@@ -3322,10 +3047,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3335,8 +3060,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772400" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="7764318" y="11390168"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3352,7 +3077,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:ext cx="360000" cy="360000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="53" name="Graphic 52">
@@ -3367,10 +3092,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3380,8 +3105,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9918700" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="9915236" y="11390168"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3483,18 +3208,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:ext cx="360000" cy="360000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Graphic 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16594DB1-F9CD-DA46-973E-081B65232C05}"/>
+        <xdr:cNvPr id="56" name="Graphic 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AEC344-7499-5248-B64A-0FF42DC3D849}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,10 +3228,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3516,188 +3241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5676900" y="9112250"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Graphic 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AEC344-7499-5248-B64A-0FF42DC3D849}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7785100" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Graphic 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D09339-F836-8B4E-94B3-54FC55FBAFBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9893300" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Graphic 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E6144F-6B6B-5544-8167-CB8150077ADE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11988800" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Graphic 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6CFB63-5240-8642-9993-2D60D0A7EB06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13995400" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="7777018" y="14622895"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3733,10 +3278,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3783,10 +3328,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3833,13 +3378,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3886,13 +3431,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId31"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4041,10 +3586,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4080,7 +3625,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="69" name="Rounded Rectangle 68">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C3C2E0-A312-604E-8A4E-85F408693A5B}"/>
@@ -4316,10 +3861,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId36"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4346,7 +3891,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:ext cx="360000" cy="360000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="74" name="Graphic 73">
@@ -4361,10 +3906,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4374,8 +3919,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="5880100"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="2903682" y="20213782"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4391,7 +3936,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
+    <xdr:ext cx="360000" cy="360000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="75" name="Graphic 74">
@@ -4406,10 +3951,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4419,8 +3964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="4321175"/>
-          <a:ext cx="342900" cy="342900"/>
+          <a:off x="2903682" y="18598573"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4539,18 +4084,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234508</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>255647</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1549400" cy="1555750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Graphic 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79564ED6-8489-9747-A8BB-12D182B005CD}"/>
+        <xdr:cNvPr id="88" name="Graphic 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FFB5CB-F60A-AA4B-8B33-D14436E76A0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4559,10 +4104,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4572,8 +4117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5680075" y="9118600"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="558233" y="23265059"/>
+          <a:ext cx="1549400" cy="1555750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4584,18 +4129,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360000" cy="360000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Graphic 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33425101-708E-324F-901C-925C763B128D}"/>
+        <xdr:cNvPr id="90" name="Graphic 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69E4818-BA3F-F24D-8CF6-BE5EE5DCE7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4604,10 +4149,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4617,233 +4162,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7791450" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Graphic 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FD8216-B2A4-3D44-B1F0-72D72C51612A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9902825" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Graphic 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A4BA46-8E6D-8C4B-B24E-D01E65FF3E27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11998325" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Graphic 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A5698D-3326-2E48-8E8A-BDBA55FA3A5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13998575" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>234508</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>255647</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1549400" cy="1555750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Graphic 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FFB5CB-F60A-AA4B-8B33-D14436E76A0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="558233" y="23265059"/>
-          <a:ext cx="1549400" cy="1555750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Graphic 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69E4818-BA3F-F24D-8CF6-BE5EE5DCE7B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2895600" y="20193000"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="2903682" y="21841691"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4879,13 +4199,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4931,8 +4251,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5325160" y="18585329"/>
-          <a:ext cx="2448059" cy="515582"/>
+          <a:off x="5327650" y="18789073"/>
+          <a:ext cx="2426779" cy="509922"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5027,13 +4347,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5080,8 +4400,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5338820" y="20121567"/>
-          <a:ext cx="2448059" cy="508467"/>
+          <a:off x="5341310" y="20334592"/>
+          <a:ext cx="2426779" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5157,7 +4477,7 @@
                 <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Device config policies</a:t>
+              <a:t>Device config profiles</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5176,13 +4496,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5203,321 +4523,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Graphic 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15E15FC-2DF9-804A-9370-EF4387B1A931}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11975780" y="25222787"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Graphic 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D70DBA-C6E4-9544-9229-B38E44961BB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781578" y="25222787"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Graphic 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3085ACA7-6D0D-D944-9A10-879263F3FF5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9884015" y="25222787"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Graphic 105">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0DB846-4D3F-154D-AA55-BCFBF6B7C65E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781578" y="25222787"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Graphic 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635BC01D-B99C-284D-88EE-0D3463F4E3B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9884015" y="25222787"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="Graphic 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5F2B53-CD5A-9C4C-9586-DE9796F81F74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781578" y="25222787"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="119" name="Graphic 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B80C2E-77CA-C246-8DFA-86A132F33389}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9884015" y="25222787"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -5544,8 +4549,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5323452" y="23279421"/>
-          <a:ext cx="2448059" cy="508467"/>
+          <a:off x="5325942" y="23511009"/>
+          <a:ext cx="2426779" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5640,13 +4645,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5693,8 +4698,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5358457" y="21631764"/>
-          <a:ext cx="2448059" cy="508467"/>
+          <a:off x="5360947" y="21854071"/>
+          <a:ext cx="2426779" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5789,13 +4794,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5842,8 +4847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5373825" y="24841697"/>
-          <a:ext cx="2448059" cy="508467"/>
+          <a:off x="5376315" y="25082567"/>
+          <a:ext cx="2426779" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5955,13 +4960,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5982,141 +4987,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="135" name="Graphic 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB0487F-CD13-574B-AD73-A029D8BE856F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11975780" y="31754216"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="136" name="Graphic 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718C1A86-CA75-284D-8CFA-CF2F5130AF9A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781578" y="31754216"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="137" name="Graphic 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A5C64D-9BDD-674E-B14E-680EC320864D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9884015" y="31754216"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -6143,8 +5013,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5373825" y="26460325"/>
-          <a:ext cx="2448059" cy="508467"/>
+          <a:off x="5376315" y="26710476"/>
+          <a:ext cx="2426779" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6239,13 +5109,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6288,10 +5158,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6467,18 +5337,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571635</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>163945</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="875146" cy="875146"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="Graphic 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD743785-0805-AD44-8D9A-24000D8DCBC1}"/>
+        <xdr:cNvPr id="148" name="Graphic 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0158A0-1DBC-6E41-8E89-A48D3C5C604D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6487,10 +5357,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6500,8 +5370,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895360" y="28776298"/>
-          <a:ext cx="875146" cy="875146"/>
+          <a:off x="2913944" y="20195822"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6514,16 +5384,16 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="342900" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="Graphic 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0158A0-1DBC-6E41-8E89-A48D3C5C604D}"/>
+        <xdr:cNvPr id="149" name="Graphic 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5A818C-9B65-A942-8152-5483C2DC20B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6532,55 +5402,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913944" y="20195822"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="Graphic 148">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5A818C-9B65-A942-8152-5483C2DC20B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6710,18 +5535,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="151" name="Graphic 150">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022AFC2B-4BDA-D84A-8520-7E87B1CFB93D}"/>
+        <xdr:cNvPr id="157" name="Graphic 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D33361-8F57-C64D-B385-57F63A1B2E47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6730,235 +5555,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="18604794"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="152" name="Graphic 151">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A600545F-E044-1B43-8AE2-C9CD67453652}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="18604794"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="Graphic 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E49C47-F3D2-4841-A18A-3C87F473BAFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="20227572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="154" name="Graphic 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A1501-9559-994D-BAA0-5314919B880B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="20227572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="Graphic 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4458DFBE-B09C-274B-8B4C-F37D51EF48A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="20227572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="157" name="Graphic 156">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D33361-8F57-C64D-B385-57F63A1B2E47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7004,8 +5604,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5325160" y="29044153"/>
-          <a:ext cx="2448059" cy="515582"/>
+          <a:off x="5327650" y="29318527"/>
+          <a:ext cx="2426779" cy="509922"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7100,13 +5700,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7153,8 +5753,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5338820" y="30580390"/>
-          <a:ext cx="2448059" cy="508467"/>
+          <a:off x="5341310" y="30864046"/>
+          <a:ext cx="2426779" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7249,13 +5849,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7276,321 +5876,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="Graphic 163">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88DF0DF0-B4D4-7B4C-90F1-222D58EC04D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="21850350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="Graphic 164">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF59187A-707E-B046-AEA7-E9C344DA39F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="21850350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="Graphic 165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC33F78-C9E6-0B47-A620-693D7AC2372E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="21850350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="167" name="Graphic 166">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C22EA5-FD4C-F943-9EFC-ADA7BDE6ED52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="23473128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="168" name="Graphic 167">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD41CE6D-DB68-8449-AC4C-D7F8247CBD81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="23473128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="169" name="Graphic 168">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567B5CDA-47B0-B047-B60B-768CE3C02824}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="25095906"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="170" name="Graphic 169">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31AF335-7347-234D-ABD7-64A2BF77E44F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="25095906"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -7617,8 +5902,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5323452" y="33738244"/>
-          <a:ext cx="2448059" cy="508467"/>
+          <a:off x="5325942" y="34040464"/>
+          <a:ext cx="2426779" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7713,13 +5998,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7766,8 +6051,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5358457" y="32090588"/>
-          <a:ext cx="2448059" cy="508467"/>
+          <a:off x="5360947" y="32383525"/>
+          <a:ext cx="2426779" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7862,13 +6147,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7915,8 +6200,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5373825" y="35300521"/>
-          <a:ext cx="2448059" cy="508467"/>
+          <a:off x="5376315" y="35612022"/>
+          <a:ext cx="2426779" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8028,13 +6313,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8055,141 +6340,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="180" name="Graphic 179">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0763688A-80FA-B741-92BC-0AFDF7F34233}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="26718683"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="181" name="Graphic 180">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8B2F59-CA30-B444-9483-773D024FDEFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="26718683"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="182" name="Graphic 181">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC8E156-02D7-1A4D-933A-A7E0A12C6376}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="26718683"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -8216,8 +6366,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5373825" y="36919148"/>
-          <a:ext cx="2448059" cy="508467"/>
+          <a:off x="5376315" y="37239931"/>
+          <a:ext cx="2426779" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -8312,13 +6462,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8361,10 +6511,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8560,10 +6710,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8605,10 +6755,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8741,10 +6891,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8786,10 +6936,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8831,10 +6981,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8876,10 +7026,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8921,10 +7071,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8966,10 +7116,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9011,10 +7161,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9056,10 +7206,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9101,10 +7251,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9146,10 +7296,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9191,10 +7341,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9236,10 +7386,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9281,10 +7431,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9331,10 +7481,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9381,10 +7531,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9426,10 +7576,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9471,10 +7621,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9516,10 +7666,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9561,10 +7711,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9606,10 +7756,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9651,10 +7801,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9696,10 +7846,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9741,10 +7891,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9786,10 +7936,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9831,10 +7981,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9876,10 +8026,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9921,10 +8071,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9966,10 +8116,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10011,10 +8161,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10056,10 +8206,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10192,10 +8342,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10237,10 +8387,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10282,10 +8432,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10327,10 +8477,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10372,10 +8522,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10417,10 +8567,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10616,10 +8766,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10661,10 +8811,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10814,10 +8964,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10859,10 +9009,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10904,10 +9054,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10949,10 +9099,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10994,10 +9144,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11039,10 +9189,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11084,10 +9234,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11129,10 +9279,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11179,10 +9329,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId42"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11228,8 +9378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="724494" y="56285899"/>
-          <a:ext cx="1216878" cy="1230989"/>
+          <a:off x="735587" y="56738662"/>
+          <a:ext cx="1226386" cy="1232800"/>
           <a:chOff x="620888" y="57714444"/>
           <a:chExt cx="1411111" cy="1411111"/>
         </a:xfrm>
@@ -11248,7 +9398,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -11277,10 +9427,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId42"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId45"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -11323,10 +9473,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11357,7 +9507,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="338" name="Graphic 337">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5A413B-B765-2845-BBB8-9BBB32829F2B}"/>
@@ -11369,10 +9519,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11414,10 +9564,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11459,10 +9609,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11504,10 +9654,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11554,13 +9704,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId31"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11607,10 +9757,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11639,9 +9789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>562535</xdr:colOff>
+      <xdr:colOff>533643</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>148952</xdr:rowOff>
+      <xdr:rowOff>120410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11657,10 +9807,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11670,8 +9820,2058 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="957841" y="11284413"/>
-          <a:ext cx="750184" cy="742774"/>
+          <a:off x="968934" y="11382662"/>
+          <a:ext cx="730800" cy="721930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60037</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>198583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>420037</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>558583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Graphic 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60727045-5040-B64F-AE97-28B1481AE545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7760855" y="4274128"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>62347</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>198583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>422347</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>558583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Graphic 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AC48C0-E786-284A-B5D9-F457DFCF3A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9875983" y="4274128"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>92363</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>197428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>452363</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>557428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Graphic 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C349D9-7311-9256-CCDC-714800E0EFF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5691908" y="9052792"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>521638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Graphic 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF04A9B2-DE29-D94C-AA7F-927709B20C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2921000" y="9017002"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>300182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>452364</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>660182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Graphic 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925910D5-32E3-E143-82C0-FEBF141939CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5691909" y="16279091"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>253999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>613999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Graphic 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D0DCCE-9A63-7BDE-301C-44E3F02BB3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9894455" y="18611272"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>219362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452364</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>579362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Graphic 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EB6973-AD89-BD49-6A58-4C6A0637B1FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7793182" y="18576635"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71581</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>286325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>431581</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>646325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Graphic 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8DF5F48-6674-B641-8323-3C40F99E574F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9885217" y="20271507"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>73889</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>286325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>433889</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>646325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Graphic 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F88802-F7C5-6E42-9BB3-EC98745AD4B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11988798" y="20271507"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>575899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Graphic 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5D3D5A-5FBC-5C30-4045-014045A00DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781637" y="21828990"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83128</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>443128</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>575899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Graphic 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9A1067-55A1-6040-8A09-8CB7F7993EB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9896764" y="21828990"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>62346</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>422346</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>575899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Graphic 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73045265-EAA9-BF4E-A0D2-502FBA37D49C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11977255" y="21828990"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415634</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>173180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>750454</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Graphic 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4403C35-0897-B7BB-02EF-658F316AB568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId58"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750452" y="29059907"/>
+          <a:ext cx="1166093" cy="1166093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>254001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>614001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Graphic 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369D4009-4818-0DC5-9FEE-465D4690A237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId60"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781637" y="20239183"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>242456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463909</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>602456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Graphic 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE08147E-2168-E3E8-71D9-9A1212A3F2C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7804727" y="23483456"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>242454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>429273</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>602454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Graphic 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035102E3-8080-B24C-52AD-9F8EEAFC3557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9882909" y="23483454"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>230908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>590908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Graphic 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46FA322-CA20-8794-C5A8-7543DCC94414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781637" y="25099817"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69274</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>232708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425674</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>589108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Graphic 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87664BF1-70D3-0317-C1F5-20550C9CCFCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9882910" y="25101617"/>
+          <a:ext cx="356400" cy="356400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>226290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>586290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Graphic 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68741534-3B5B-7644-86CF-2E055539F599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781636" y="26723108"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>232710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>494946</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>589110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Graphic 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7837FECF-0F65-244E-8FC4-6280FC98C780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14062364" y="14595255"/>
+          <a:ext cx="356400" cy="356400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>108529</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>242453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>464929</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>598853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Graphic 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69C8EC0-C307-7045-AA6D-36985012AC8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14032347" y="7481453"/>
+          <a:ext cx="356400" cy="356400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>637091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Graphic 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B245D06-016E-DB43-930F-95EE39342589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11995727" y="7516091"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>196273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>417728</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>556273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Graphic 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C2C1F0-05DD-F4AE-7FBB-AECFF76273C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9871364" y="7435273"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>288636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>417727</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>648636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Graphic 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253192F2-0C5D-664F-A72E-0F2EF1A9C3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9871363" y="14651181"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>242454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>452364</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>602454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Graphic 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E997F2-C51E-734B-8DD9-92487A2AADFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="29129181"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>226290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>417728</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>586290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Graphic 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F762D46C-9BEA-9AFF-D024-788BF47319C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9871364" y="26723108"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71582</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>226290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431582</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>586290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Graphic 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538B3E94-B8A5-0145-9FB1-E18892EF87D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11986491" y="26723108"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46181</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406181</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>614000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Graphic 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B88617-AF0B-5B4E-A7C3-CC30539A82CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7746999" y="29140727"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>263233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>443127</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>623233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Graphic 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D64E7C6-7663-9A42-824C-CA588E4DB4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9896763" y="30777869"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85435</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>263233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>445435</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>623233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Graphic 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FDDDD5-7A29-0F41-879A-F63A58B48350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12000344" y="30777869"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92365</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>192807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452365</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>552807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Graphic 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A413EC8-11DD-1641-A0FB-B973A23516C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7793183" y="32335352"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94674</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>192807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>454674</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>552807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Graphic 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11398DE4-027E-D947-AFC5-B0BC6257C615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9908310" y="32335352"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>73892</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>192807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>433892</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>552807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Graphic 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAC69EC-30ED-C64E-BB61-CBD07D73A9C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11988801" y="32335352"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92365</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>230909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452365</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>590909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Graphic 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7D108F-5B84-924C-B76D-900F9F373001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId60"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7793183" y="30745545"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115455</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>219363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475455</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>579363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Graphic 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3309743B-31CB-D343-B3B2-C36F302C72D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7816273" y="33989818"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>219361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>579361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Graphic 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94822B68-7DF1-8A4F-9E1D-B849712AA1DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9894455" y="33989816"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92365</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>207815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452365</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>567815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="Graphic 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9181B2E8-3598-A348-B982-964C9648AC30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7793183" y="35606179"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80820</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>209615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>437220</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>566015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Graphic 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DFBB5E-30CA-A744-9EB4-31E145AAC460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9894456" y="35607979"/>
+          <a:ext cx="356400" cy="356400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>203197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452364</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>563197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Graphic 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C298DA11-8601-9D4D-B0D4-31C4A859E14B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7793182" y="37229470"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69274</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>203197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>429274</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>563197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Graphic 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0104F6-C2B7-E542-B09B-654D8D9FA961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9882910" y="37229470"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83128</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>203197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>443128</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>563197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="Graphic 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13864073-E258-514E-AFD4-9654DA3CDE1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11998037" y="37229470"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12005,9 +12205,9 @@
   </sheetPr>
   <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T120" sqref="T120"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R74" sqref="R74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14518,55 +14718,55 @@
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 A30:AA42 A43:T43 V43:AA43 A44:AA82 A83:T83 V83:AA83 A84:AA210">
-    <cfRule type="cellIs" dxfId="14" priority="241" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+  <conditionalFormatting sqref="A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 V43:AA43 A44:AA82 A83:T83 V83:AA83 A84:AA210 A30:AA41 A42:Q42 S42:AA42 A43:T43">
+    <cfRule type="cellIs" dxfId="14" priority="235" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="240" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="13" priority="236" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="239" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
+    <cfRule type="cellIs" dxfId="12" priority="237" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="238" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="237" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
+    <cfRule type="cellIs" dxfId="10" priority="239" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="236" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="9" priority="240" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="235" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="8" priority="241" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:AA82 A83:T83 V83:AA83 A84:AA210 A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 A30:AA42 A43:T43 V43:AA43">
+  <conditionalFormatting sqref="A44:AA82 A83:T83 V83:AA83 A84:AA210 A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 V43:AA43 A30:AA41 A42:Q42 S42:AA42 A43:T43">
     <cfRule type="cellIs" dxfId="7" priority="232" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49 G69 G72 L83 R83 X83 L86 N86 P86 R86 X86 G89 L89 N89 P89 R89 X89 G92 L92 N92 P92 R92 X92 G95 L95 N95 G98 G101 L104 N104 P104 R104 L107 N107">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE75104-1E23-DA4B-8D39-5B507EE9F4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921F0E9-06F4-3847-8629-0B60D626C5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>AOSP, AE scenarios (dedicated, fully managed, corp owned with WP, Work profiles)</t>
-  </si>
-  <si>
-    <t>Deploying HAADJ</t>
   </si>
   <si>
     <t>Review &amp; plan for GPO to MDM policies</t>
@@ -309,6 +306,9 @@
   </si>
   <si>
     <t>[Date]</t>
+  </si>
+  <si>
+    <t>Deploy HAADJ</t>
   </si>
 </sst>
 </file>
@@ -714,10 +714,51 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -733,40 +774,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -783,23 +794,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -807,7 +807,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -823,40 +842,21 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1042,56 +1042,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>377943</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>289020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>818708</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>821922</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="283" name="Graphic 282">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702894DC-E2FA-37EE-CF41-1D12ED5D2070}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="701668" y="48324902"/>
-          <a:ext cx="1262530" cy="1279961"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>296989</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>201337</xdr:rowOff>
@@ -1131,56 +1081,6 @@
         <a:xfrm>
           <a:off x="620714" y="33669572"/>
           <a:ext cx="1424438" cy="1414019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>301743</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>14879</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>73143</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>191268</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="190" name="Graphic 189">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E75EC0-4D69-A4A1-54A8-149C5DAD3B7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="625468" y="36346840"/>
-          <a:ext cx="1414930" cy="1421487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5136,51 +5036,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>234508</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>357608</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1549400" cy="1555750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Graphic 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C7C15B-7188-1FA4-2D2C-E68A1B79BCCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="558233" y="25857216"/>
-          <a:ext cx="1549400" cy="1555750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -6733,51 +6588,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="243" name="Graphic 242">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719CE62C-955F-D24B-A942-9AC5F08D40D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913944" y="29084411"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -6871,231 +6681,6 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="245" name="Graphic 244">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ACD1E30-1349-204C-986E-F0418DFFA12B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="29103461"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="246" name="Graphic 245">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDE0392-CA5E-A140-8223-2EB7640808C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="29103461"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="247" name="Graphic 246">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C98B96C-F522-874B-AC82-209CB13CC4AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="30726239"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="248" name="Graphic 247">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7179D021-E982-644B-8415-3547FFABDD57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="30726239"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="249" name="Graphic 248">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82E4D86-87D9-CE4E-ACE3-203B4DA12A96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="30726239"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>87</xdr:row>
@@ -7131,276 +6716,6 @@
         <a:xfrm>
           <a:off x="2913944" y="32317267"/>
           <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="257" name="Graphic 256">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4668D51C-7560-8E43-987F-B53ACD5F9FF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="32349017"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="258" name="Graphic 257">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2EEEA2-B876-9F4D-9C17-74BFF653C5E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="32349017"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="259" name="Graphic 258">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E035409-E362-664F-9829-EE488B232CDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="32349017"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="260" name="Graphic 259">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980EA7B9-C290-8D4D-BD44-A2685C69B2AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="33971794"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="261" name="Graphic 260">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D90CAF-37B4-1447-B5CE-524685A0E90E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="33971794"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="262" name="Graphic 261">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D162846-C2AE-3B47-BA8D-24FDF0BB9C65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="35594572"/>
-          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7504,56 +6819,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>377943</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>46617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>818708</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>579517</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="284" name="Graphic 283">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0435B018-0903-CBB0-288E-2FAB5DEBFB9A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="701668" y="51319754"/>
-          <a:ext cx="1262530" cy="1279959"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -7726,501 +6991,6 @@
         <a:xfrm>
           <a:off x="2913944" y="47684267"/>
           <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="289" name="Graphic 288">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469D3B23-4306-CA4C-9AFE-CEB70DA96BA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="290" name="Graphic 289">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9222CB74-FFC0-1646-B52B-ACC5BC99D7E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="291" name="Graphic 290">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB2C0BB-FC56-774C-B7A7-C09ACE5BB75E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="292" name="Graphic 291">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0237CE2-E53D-C747-B4C3-46E97D1E5B7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="293" name="Graphic 292">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF210A14-FEAB-EC49-ADAB-8026C5CD27C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="294" name="Graphic 293">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E32443-8130-E14D-92AE-FE9D9E359BF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="295" name="Graphic 294">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807C4067-856F-134E-901C-9389B3469BCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="302" name="Graphic 301">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26885862-36C2-3746-BF61-34204EC04C72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="303" name="Graphic 302">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8039A4D-C4D9-F34F-A514-12DA5ACA4CFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="304" name="Graphic 303">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8F5DC4-1184-C64F-98BD-7406FB265310}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="305" name="Graphic 304">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE7F443-932D-3542-A0C1-DB37A0E70B40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8322,96 +7092,6 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="308" name="Graphic 307">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66E10CB-0218-1440-8BFA-184CFC071D4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2897306" y="47597704"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="309" name="Graphic 308">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FABA043-06CC-D34B-A912-51B7BCC0BBE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2897306" y="47597704"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>102</xdr:row>
@@ -8424,141 +7104,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27C0316-304E-8B4E-847C-B1CA7D114CC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2897306" y="47597704"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="311" name="Graphic 310">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC1DC8F-112D-1442-A773-2AFAC9CDBDB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2897306" y="47597704"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="312" name="Graphic 311">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34A18E8-2DAE-9640-8B82-DE1FE6A0C415}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2897306" y="47597704"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="313" name="Graphic 312">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B26EE9-B02A-E142-9F08-9B74F5E9BF6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10382,56 +8927,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>62346</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>215899</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>422346</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>575899</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Graphic 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73045265-EAA9-BF4E-A0D2-502FBA37D49C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11977255" y="21828990"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>415634</xdr:colOff>
       <xdr:row>61</xdr:row>
@@ -11132,56 +9627,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>71582</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>226290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>431582</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>586290</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Graphic 114">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538B3E94-B8A5-0145-9FB1-E18892EF87D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11986491" y="26723108"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>46181</xdr:colOff>
       <xdr:row>61</xdr:row>
@@ -11783,22 +10228,472 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>69274</xdr:colOff>
+      <xdr:colOff>69273</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>203197</xdr:rowOff>
+      <xdr:rowOff>219363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>429274</xdr:colOff>
+      <xdr:colOff>429273</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>563197</xdr:rowOff>
+      <xdr:rowOff>579363</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="156" name="Graphic 155">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0104F6-C2B7-E542-B09B-654D8D9FA961}"/>
+        <xdr:cNvPr id="5" name="Graphic 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116B90D1-DFF6-2341-60E8-A9797E5351BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId70"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9882909" y="37245636"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>567818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="IconGrantHybridJoined">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0171C6BB-E443-2258-AB63-96CAF591FE19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId72"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5680363" y="39624000"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>92363</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>230908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>452363</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>590908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphic 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E8D9BC-3489-CE48-AEB8-95135703FCFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9905999" y="42902908"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>209618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>425673</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>566018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1249B29D-3029-584D-A1D6-505E180561CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11984182" y="39625800"/>
+          <a:ext cx="356400" cy="356400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>219363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>429273</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>579363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Graphic 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0B6B09-942D-D01C-B51B-08FAA0739E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId74"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11984182" y="42891363"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>242453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>602453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Graphic 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19377F0D-C5F2-2E90-05A2-D8ABC3B2AA05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId76"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5680363" y="41286544"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>219363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429273</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>579363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Graphic 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03B2167-86DB-C72C-FDBC-4F0FC89371D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId78"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7770091" y="41263454"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>230909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>590909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Graphic 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF4F9B0-176C-E774-DB2F-3AE12C405064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId80"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9894454" y="41275000"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>265546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463909</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>625546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Graphic 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BE4E76-5DF5-294F-85D5-5676D607244B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5703454" y="44565455"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>265545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>429273</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>625545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Graphic 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F019058B-7121-B549-BC1A-C484D416CE98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11820,7 +10715,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9882910" y="37229470"/>
+          <a:off x="11984182" y="44565454"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11832,23 +10727,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>83128</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>203197</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>443128</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>563197</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429273</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>567819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="186" name="Graphic 185">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13864073-E258-514E-AFD4-9654DA3CDE1A}"/>
+        <xdr:cNvPr id="58" name="Graphic 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F05ED94-589C-B003-01D7-B3920758EB4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11857,10 +10752,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11870,7 +10765,1057 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11998037" y="37229470"/>
+          <a:off x="7770091" y="46135637"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>614000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Graphic 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5B8B36-F3DF-8451-AC30-42F04A4B2509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId84"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5680364" y="42926000"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>196274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>417727</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>556274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Graphic 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9078801C-0D6A-04CB-A1E0-E83693881F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId86"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11972636" y="21809365"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>196274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>413327</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>551874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Graphic 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DF7068-A939-7C46-A1D7-7006621C6C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11972636" y="26693092"/>
+          <a:ext cx="355600" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>196275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>424873</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>551875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Graphic 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719CBA98-68A8-1B4F-A8DC-181AEEAB3DD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11984182" y="37222548"/>
+          <a:ext cx="355600" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>242455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>602455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Graphic 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F77A51-EA05-CD49-886F-CE72697B9485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5680364" y="46170273"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>253999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452364</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>613999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Graphic 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27570BA-888B-2984-2808-9899E6E69ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId88"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7793182" y="44553908"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69274</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>265546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>429274</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>625546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Graphic 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC626CBB-CF28-1572-5CFC-E3CD1993E08D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId90"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9882910" y="44565455"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>219365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429272</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>579365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Graphic 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F1B3E9-8AB2-7BC3-D6FD-36D1805D2AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId92"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7770090" y="42891365"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>23091</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>480291</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>607290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Graphic 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19B17D5-2792-96D9-E94F-ED0B3F361472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId94"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16221364" y="42822090"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>417727</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>533182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Graphic 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37845FCC-447E-6FB9-D922-BB335D368EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId96"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16256000" y="44473091"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>184726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>417727</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>544726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Graphic 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5116AAE-75C5-0F05-932E-CF44F125A395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId98"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16256000" y="41228817"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>242454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429272</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>602454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Graphic 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8791FC53-7A78-0C45-80AC-F17ED3566FE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId80"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5668817" y="52681909"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>242454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>602454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Graphic 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A081E2-FF11-9658-8E13-9F9CD58493FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId100"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781637" y="52681909"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>196272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>556272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Graphic 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DD1498-C55D-AE0E-C3A5-8941F6AFE2FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId102"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11995728" y="51007817"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>196273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429273</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>556273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Graphic 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A150C1-1309-15A5-C9D3-AB902EF67E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId104"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5668818" y="51007818"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>196274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>556274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="Graphic 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC71C11-D80F-1D6D-4253-84E09747B01A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId106"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781636" y="51007819"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>254001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>614001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="Graphic 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C04DE1-700F-2687-6C1E-675383EF190E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId108"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2921000" y="39670183"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>196273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>417727</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>556273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="Graphic 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A091572A-DDA0-9E3D-55D5-57A97FC22D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId110"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16256000" y="39612455"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>614000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="Graphic 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEE8C6D-9483-324A-884C-63BA03B24E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11995727" y="41298091"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>253998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>429273</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>613998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Graphic 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598C8035-3BB7-72CA-14CB-3272357A47AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId112"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9882909" y="39670180"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92363</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>219363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452363</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>579363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Graphic 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBD9BDD-2DAF-76FC-37A5-01F0AC0F0CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId114"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7793181" y="39635545"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12206,8 +12151,8 @@
   <dimension ref="A1:AK153"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R74" sqref="R74"/>
+      <pane ySplit="6" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12296,7 +12241,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -12308,7 +12253,7 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -12317,28 +12262,28 @@
         <v>1</v>
       </c>
       <c r="AD2" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" s="32" t="s">
         <v>78</v>
-      </c>
-      <c r="AF2" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI2" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ2" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK2" s="32" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
@@ -12542,13 +12487,13 @@
       <c r="G11" s="14"/>
       <c r="J11" s="2"/>
       <c r="L11" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -12557,10 +12502,10 @@
       <c r="U11" s="14"/>
       <c r="V11" s="2"/>
       <c r="X11" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z11" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12614,17 +12559,17 @@
       <c r="D15" s="11"/>
       <c r="E15" s="2"/>
       <c r="G15" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="2"/>
       <c r="L15" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15"/>
@@ -12661,7 +12606,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="2"/>
       <c r="G18" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="2"/>
       <c r="V18" s="2"/>
@@ -12704,16 +12649,16 @@
       <c r="E21" s="2"/>
       <c r="J21" s="2"/>
       <c r="N21" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V21" s="2"/>
     </row>
@@ -12748,11 +12693,11 @@
       <c r="D24" s="11"/>
       <c r="E24" s="2"/>
       <c r="G24" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" s="2"/>
       <c r="L24" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V24" s="2"/>
     </row>
@@ -12816,17 +12761,17 @@
       <c r="D29" s="11"/>
       <c r="E29" s="2"/>
       <c r="G29" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" s="2"/>
       <c r="L29" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N29" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P29" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="14"/>
       <c r="R29"/>
@@ -12863,7 +12808,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="2"/>
       <c r="G32" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="2"/>
       <c r="V32" s="2"/>
@@ -12906,16 +12851,16 @@
       <c r="E35" s="2"/>
       <c r="J35" s="2"/>
       <c r="N35" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P35" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R35" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T35" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V35" s="2"/>
     </row>
@@ -12950,11 +12895,11 @@
       <c r="D38" s="11"/>
       <c r="E38" s="2"/>
       <c r="G38" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J38" s="2"/>
       <c r="L38" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V38" s="2"/>
     </row>
@@ -13011,14 +12956,14 @@
       <c r="D43" s="11"/>
       <c r="E43" s="2"/>
       <c r="G43" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J43" s="2"/>
       <c r="N43" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P43" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U43"/>
       <c r="V43" s="2"/>
@@ -13060,17 +13005,17 @@
       <c r="D46" s="11"/>
       <c r="E46" s="2"/>
       <c r="G46" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J46" s="2"/>
       <c r="N46" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P46" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R46" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V46" s="2"/>
     </row>
@@ -13111,17 +13056,17 @@
       <c r="D49" s="11"/>
       <c r="E49" s="2"/>
       <c r="G49" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" s="2"/>
       <c r="N49" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P49" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R49" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V49" s="2"/>
     </row>
@@ -13163,10 +13108,10 @@
       <c r="G52"/>
       <c r="J52" s="2"/>
       <c r="N52" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P52" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R52"/>
       <c r="V52" s="2"/>
@@ -13204,10 +13149,10 @@
       <c r="E55" s="2"/>
       <c r="J55" s="2"/>
       <c r="N55" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P55" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R55"/>
       <c r="V55" s="2"/>
@@ -13247,13 +13192,13 @@
       <c r="E58" s="2"/>
       <c r="J58" s="2"/>
       <c r="N58" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P58" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R58" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V58" s="2"/>
     </row>
@@ -13310,14 +13255,14 @@
       <c r="D63" s="11"/>
       <c r="E63" s="2"/>
       <c r="G63" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J63" s="2"/>
       <c r="N63" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P63" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U63" s="14"/>
       <c r="V63" s="2"/>
@@ -13359,17 +13304,17 @@
       <c r="D66" s="11"/>
       <c r="E66" s="2"/>
       <c r="G66" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J66" s="2"/>
       <c r="N66" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P66" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R66" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V66" s="2"/>
     </row>
@@ -13410,17 +13355,17 @@
       <c r="D69" s="11"/>
       <c r="E69" s="2"/>
       <c r="G69" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J69" s="2"/>
       <c r="N69" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P69" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R69" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V69" s="2"/>
     </row>
@@ -13462,14 +13407,14 @@
       <c r="D72" s="11"/>
       <c r="E72" s="2"/>
       <c r="G72" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J72" s="2"/>
       <c r="N72" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P72" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="2"/>
@@ -13507,10 +13452,10 @@
       <c r="E75" s="2"/>
       <c r="J75" s="2"/>
       <c r="N75" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P75" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R75"/>
       <c r="V75" s="2"/>
@@ -13550,13 +13495,13 @@
       <c r="E78" s="2"/>
       <c r="J78" s="2"/>
       <c r="N78" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P78" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R78" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V78" s="2"/>
     </row>
@@ -13590,17 +13535,17 @@
       <c r="D82" s="11"/>
       <c r="E82" s="2"/>
       <c r="G82" s="13" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="J82" s="2"/>
       <c r="L82" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N82" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N82" s="13" t="s">
+      <c r="P82" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="P82" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="R82" s="13" t="s">
         <v>17</v>
@@ -13608,7 +13553,7 @@
       <c r="U82" s="20"/>
       <c r="V82" s="2"/>
       <c r="X82" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13618,25 +13563,25 @@
       <c r="D83" s="11"/>
       <c r="E83" s="2"/>
       <c r="G83" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J83" s="2"/>
       <c r="L83" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N83" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P83" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R83" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U83"/>
       <c r="V83" s="2"/>
       <c r="X83" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13659,20 +13604,20 @@
       </c>
       <c r="J85" s="2"/>
       <c r="L85" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N85" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="N85" s="15" t="s">
+      <c r="P85" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P85" s="13" t="s">
+      <c r="R85" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="R85" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="V85" s="2"/>
       <c r="X85" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13682,24 +13627,24 @@
       <c r="D86" s="11"/>
       <c r="E86" s="2"/>
       <c r="G86" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J86" s="2"/>
       <c r="L86" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N86" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P86" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R86" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V86" s="2"/>
       <c r="X86" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13718,24 +13663,24 @@
       <c r="D88" s="11"/>
       <c r="E88" s="2"/>
       <c r="G88" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J88" s="2"/>
       <c r="L88" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N88" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="N88" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="P88" s="13" t="s">
         <v>16</v>
       </c>
       <c r="R88" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V88" s="2"/>
       <c r="X88" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13745,24 +13690,24 @@
       <c r="D89" s="11"/>
       <c r="E89" s="2"/>
       <c r="G89" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J89" s="2"/>
       <c r="L89" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N89" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P89" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R89" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V89" s="2"/>
       <c r="X89" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13784,24 +13729,24 @@
       <c r="E91" s="2"/>
       <c r="F91"/>
       <c r="G91" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J91" s="2"/>
       <c r="L91" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N91" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N91" s="13" t="s">
+      <c r="P91" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P91" s="13" t="s">
+      <c r="R91" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="R91" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="V91" s="2"/>
       <c r="X91" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13811,24 +13756,24 @@
       <c r="D92" s="11"/>
       <c r="E92" s="2"/>
       <c r="G92" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J92" s="2"/>
       <c r="L92" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N92" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P92" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R92" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V92" s="2"/>
       <c r="X92" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13847,14 +13792,14 @@
       <c r="D94" s="11"/>
       <c r="E94" s="2"/>
       <c r="G94" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J94" s="2"/>
       <c r="L94" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N94" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="N94" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="P94"/>
       <c r="Q94"/>
@@ -13868,14 +13813,14 @@
       <c r="D95" s="11"/>
       <c r="E95" s="2"/>
       <c r="G95" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J95" s="2"/>
       <c r="L95" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N95" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P95"/>
       <c r="Q95"/>
@@ -13901,7 +13846,7 @@
       <c r="D97" s="11"/>
       <c r="E97" s="2"/>
       <c r="G97" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J97" s="2"/>
       <c r="L97"/>
@@ -13920,7 +13865,7 @@
       <c r="D98" s="11"/>
       <c r="E98" s="2"/>
       <c r="G98" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J98" s="2"/>
       <c r="L98"/>
@@ -13945,7 +13890,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="16"/>
       <c r="G100" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J100" s="2"/>
       <c r="V100" s="2"/>
@@ -13953,7 +13898,7 @@
     <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E101" s="2"/>
       <c r="G101" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J101" s="2"/>
       <c r="V101" s="2"/>
@@ -13969,16 +13914,16 @@
       <c r="G103" s="17"/>
       <c r="J103" s="2"/>
       <c r="L103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N103" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="N103" s="33" t="s">
+      <c r="P103" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P103" s="13" t="s">
+      <c r="R103" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="R103" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="V103" s="2"/>
     </row>
@@ -13986,16 +13931,16 @@
       <c r="E104" s="2"/>
       <c r="J104" s="2"/>
       <c r="L104" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N104" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P104" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R104" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V104" s="2"/>
     </row>
@@ -14008,10 +13953,10 @@
       <c r="E106" s="2"/>
       <c r="J106" s="2"/>
       <c r="L106" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N106" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="N106" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="V106" s="2"/>
     </row>
@@ -14019,10 +13964,10 @@
       <c r="E107" s="2"/>
       <c r="J107" s="2"/>
       <c r="L107" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N107" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V107" s="2"/>
     </row>
@@ -14052,30 +13997,30 @@
       <c r="D111" s="11"/>
       <c r="E111" s="2"/>
       <c r="G111" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J111" s="2"/>
       <c r="L111" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N111" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="N111" s="13" t="s">
+      <c r="P111" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="P111" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="Q111" s="20"/>
       <c r="R111" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S111" s="20"/>
       <c r="T111" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U111" s="20"/>
       <c r="V111" s="2"/>
       <c r="X111" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14085,30 +14030,30 @@
       <c r="D112" s="11"/>
       <c r="E112" s="2"/>
       <c r="G112" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J112" s="2"/>
       <c r="L112" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N112" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P112" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q112" s="14"/>
       <c r="R112" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S112" s="14"/>
       <c r="T112" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U112" s="14"/>
       <c r="V112" s="2"/>
       <c r="X112" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14127,27 +14072,27 @@
       <c r="D114" s="11"/>
       <c r="E114" s="2"/>
       <c r="G114" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J114" s="2"/>
       <c r="L114" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N114" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P114" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R114" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T114" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V114" s="2"/>
       <c r="X114" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14157,27 +14102,27 @@
       <c r="D115" s="11"/>
       <c r="E115" s="2"/>
       <c r="G115" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J115" s="2"/>
       <c r="L115" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N115" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P115" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R115" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T115" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V115" s="2"/>
       <c r="X115" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14718,55 +14663,55 @@
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 V43:AA43 A44:AA82 A83:T83 V83:AA83 A84:AA210 A30:AA41 A42:Q42 S42:AA42 A43:T43">
-    <cfRule type="cellIs" dxfId="14" priority="235" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+  <conditionalFormatting sqref="A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 A30:AA41 A42:Q42 S42:AA42 A43:T43 V43:AA43 A44:AA82 A83:T83 V83:AA83 A84:AA210">
+    <cfRule type="cellIs" dxfId="14" priority="241" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="236" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="13" priority="240" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="237" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
+    <cfRule type="cellIs" dxfId="12" priority="239" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="238" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="239" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
+    <cfRule type="cellIs" dxfId="10" priority="237" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="240" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="9" priority="236" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="241" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="8" priority="235" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:AA82 A83:T83 V83:AA83 A84:AA210 A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 V43:AA43 A30:AA41 A42:Q42 S42:AA42 A43:T43">
+  <conditionalFormatting sqref="A44:AA82 A83:T83 V83:AA83 A84:AA210 A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 A30:AA41 A42:Q42 S42:AA42 A43:T43 V43:AA43">
     <cfRule type="cellIs" dxfId="7" priority="232" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49 G69 G72 L83 R83 X83 L86 N86 P86 R86 X86 G89 L89 N89 P89 R89 X89 G92 L92 N92 P92 R92 X92 G95 L95 N95 G98 G101 L104 N104 P104 R104 L107 N107">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921F0E9-06F4-3847-8629-0B60D626C5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E74B7A5-2A5A-6047-881F-8C25FB9A830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
@@ -7489,18 +7489,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="323" name="Graphic 322">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF7C931-0D51-3248-B821-C00EA4DDDA45}"/>
+        <xdr:cNvPr id="330" name="Graphic 329">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DB18C1-28F8-A347-94EB-6C47190507E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7522,322 +7522,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5706533" y="4352572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="324" name="Graphic 323">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D8A6AC-4B24-8B4C-9A0F-09A90E18C95C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7810500" y="4352572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="325" name="Graphic 324">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FC4CB5-A930-F741-9361-D4BD1B12C480}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9965267" y="4352572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="327" name="Graphic 326">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A62A419A-846E-0E49-A13B-98B0CD5514FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5706533" y="9136239"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="328" name="Graphic 327">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5336697F-863C-CB4E-91FC-B20D0DE8AC3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="7527572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="329" name="Graphic 328">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F463E3-A79D-7546-A8DB-7DEACD064D6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="7527572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="330" name="Graphic 329">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DB18C1-28F8-A347-94EB-6C47190507E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="12042422" y="7527572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="331" name="Graphic 330">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42277B8F-EA41-EC45-946E-3DA7068B147E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14060311" y="7527572"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7998,142 +7683,6 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="337" name="Graphic 336">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4951CD61-3152-344F-95F8-A2FE027447E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="54969128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="338" name="Graphic 337">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5A413B-B765-2845-BBB8-9BBB32829F2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="54969128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="340" name="Graphic 339">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2C07F2-EE49-8841-B5F5-400C95D227D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="44470461"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>110</xdr:row>
@@ -8146,51 +7695,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B997F51-5382-6A47-9ABF-764FA0F90417}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14060311" y="54969128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="342" name="Graphic 341">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B26A52-9812-3648-B3C0-10BD4B890BF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8502,10 +8006,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId47"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8602,10 +8106,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId47"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8652,10 +8156,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8702,10 +8206,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8752,10 +8256,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8802,10 +8306,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8852,10 +8356,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8902,10 +8406,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8952,10 +8456,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId58"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9002,10 +8506,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId60"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9052,10 +8556,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9102,10 +8606,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId63"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9202,10 +8706,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9252,10 +8756,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId47"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9302,10 +8806,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9352,10 +8856,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9452,10 +8956,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9502,10 +9006,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9552,10 +9056,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9602,10 +9106,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9652,10 +9156,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9702,10 +9206,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9752,10 +9256,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9802,10 +9306,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9852,10 +9356,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9902,10 +9406,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9952,10 +9456,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId60"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10002,10 +9506,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10052,10 +9556,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId63"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10152,10 +9656,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10202,10 +9706,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId47"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10252,10 +9756,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId70"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId69"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10302,10 +9806,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId72"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10402,10 +9906,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10452,10 +9956,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId74"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10502,10 +10006,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId76"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10552,10 +10056,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId78"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId77"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10602,10 +10106,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId80"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId79"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10652,10 +10156,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10702,10 +10206,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10752,10 +10256,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId81"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10802,10 +10306,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId84"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10852,10 +10356,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId86"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId85"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11002,10 +10506,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId47"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11052,10 +10556,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId88"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId87"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11102,10 +10606,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId90"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId89"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11152,10 +10656,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId92"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId91"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11202,10 +10706,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId94"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId93"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11252,10 +10756,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId96"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId95"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11302,10 +10806,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId98"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId97"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11352,10 +10856,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId80"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId79"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11402,10 +10906,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId100"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId99"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11452,10 +10956,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId102"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId101"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11502,10 +11006,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId104"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId103"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11552,10 +11056,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId106"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId105"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11602,10 +11106,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId108"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId107"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11616,56 +11120,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2921000" y="39670183"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>196273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>417727</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>556273</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="Graphic 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A091572A-DDA0-9E3D-55D5-57A97FC22D29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId110"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16256000" y="39612455"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11702,10 +11156,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11752,10 +11206,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId112"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId109"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11802,10 +11256,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId114"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId111"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11817,6 +11271,655 @@
         <a:xfrm>
           <a:off x="7793181" y="39635545"/>
           <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>34634</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>196274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>521216</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>636672</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD43FF8-3785-3B5C-7589-125901F8F621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16232907" y="39612456"/>
+          <a:ext cx="486582" cy="440398"/>
+          <a:chOff x="14743545" y="39681728"/>
+          <a:chExt cx="486582" cy="440398"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Graphic 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E200512-373C-BAE7-E837-D2D703B1EFB6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId113"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14743545" y="39681728"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="IconGrantHybridJoined">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8733BBFC-8BEB-D14B-9049-77F3D60C252E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14942127" y="39834126"/>
+            <a:ext cx="288000" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>115458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>346368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C639AD-7F02-0AA7-576D-CCC44D5D4B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7977909" y="39531640"/>
+          <a:ext cx="230910" cy="230910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46182</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>230909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>406182</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>590909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Graphic 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32513072-2C68-9940-B716-1063D90669F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId101"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13970000" y="55060273"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>265546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>417727</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>625546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Graphic 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2CBF3D-43DE-5546-95D6-DBAAEDA8939A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7758545" y="56722819"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>417727</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>614000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Graphic 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F87C02-F5A8-E645-B11D-1A362E580DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId103"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657272" y="56711273"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>637091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Graphic 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C955172-6D54-699B-82B7-4431E12E1564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId116"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11995728" y="55106455"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>300181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>660181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Graphic 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6E9527-386F-D24C-B79F-0D9FE774C091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16279091" y="56757454"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>253999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>440818</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>613999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Graphic 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399E4269-0D92-EBDF-AD91-7B08E3EDD696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId118"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14004636" y="56711272"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>230910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>425673</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>587310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="Graphic 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D059EE1-6E2E-DA4B-84AA-A67512AA82D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11984182" y="56688183"/>
+          <a:ext cx="356400" cy="356400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>265546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440819</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>625546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="Graphic 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF2707E-8A9D-B445-8F68-4C45718B35F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId63"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5680364" y="55094910"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115455</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475455</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>614000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="Graphic 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2645893-34B0-E84E-885D-7DBA7EB8281E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7816273" y="55083364"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46182</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>427782</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>614400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="Graphic 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808DDC4C-12D1-9D33-B628-C520F70DAFC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId120"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9859818" y="55083364"/>
+          <a:ext cx="381600" cy="360400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12151,8 +12254,8 @@
   <dimension ref="A1:AK153"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T83" sqref="T83"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E74B7A5-2A5A-6047-881F-8C25FB9A830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8924C105-2B85-0D48-8217-819C9E6E8ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
@@ -942,15 +942,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57728</xdr:colOff>
+      <xdr:colOff>103908</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>198583</xdr:rowOff>
+      <xdr:rowOff>210128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>417728</xdr:colOff>
+      <xdr:colOff>463908</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>558583</xdr:rowOff>
+      <xdr:rowOff>570128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -979,7 +979,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657273" y="4274128"/>
+          <a:off x="5703453" y="4285673"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1283,15 +1283,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>54681</xdr:colOff>
+      <xdr:colOff>112406</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>308328</xdr:rowOff>
+      <xdr:rowOff>319873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>414681</xdr:colOff>
+      <xdr:colOff>472406</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>668328</xdr:rowOff>
+      <xdr:rowOff>679873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1320,7 +1320,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5654226" y="2271055"/>
+          <a:off x="5711951" y="2282600"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7882,15 +7882,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>60037</xdr:colOff>
+      <xdr:colOff>106217</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>198583</xdr:rowOff>
+      <xdr:rowOff>210128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>420037</xdr:colOff>
+      <xdr:colOff>466217</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>558583</xdr:rowOff>
+      <xdr:rowOff>570128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7919,7 +7919,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7760855" y="4274128"/>
+          <a:off x="7807035" y="4285673"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7932,15 +7932,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>62347</xdr:colOff>
+      <xdr:colOff>96982</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>198583</xdr:rowOff>
+      <xdr:rowOff>210128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>422347</xdr:colOff>
+      <xdr:colOff>456982</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>558583</xdr:rowOff>
+      <xdr:rowOff>570128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7969,7 +7969,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9875983" y="4274128"/>
+          <a:off x="9910618" y="4285673"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11220,56 +11220,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9882909" y="39670180"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>92363</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>219363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>452363</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>579363</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="Graphic 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBD9BDD-2DAF-76FC-37A5-01F0AC0F0CEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId111"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7793181" y="39635545"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11325,10 +11275,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId113"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId111"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -11386,50 +11336,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>277091</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>115458</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>346368</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C639AD-7F02-0AA7-576D-CCC44D5D4B9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7977909" y="39531640"/>
-          <a:ext cx="230910" cy="230910"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>46182</xdr:colOff>
       <xdr:row>110</xdr:row>
@@ -11605,10 +11511,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId116"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId113"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11705,10 +11611,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId118"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId115"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11905,10 +11811,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId120"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId117"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11926,6 +11832,111 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92363</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>219363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512454</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>766455</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="147" name="Group 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B589F0D-9ACB-2326-AF51-E15843C801BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7793181" y="39635545"/>
+          <a:ext cx="420091" cy="547092"/>
+          <a:chOff x="7793181" y="39635545"/>
+          <a:chExt cx="420091" cy="547092"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="153" name="Graphic 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBD9BDD-2DAF-76FC-37A5-01F0AC0F0CEE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId119"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7793181" y="39635545"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="42" name="Graphic 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1CC32D-2568-DDE2-B2C6-FD8CE3863452}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId121"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7943272" y="39912637"/>
+            <a:ext cx="270000" cy="270000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12253,9 +12264,9 @@
   </sheetPr>
   <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopDevices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\zerotrustassessment\src\documentgenerator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8924C105-2B85-0D48-8217-819C9E6E8ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CCC23B-E2C4-4196-97D5-485FF840C179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop-Devices" sheetId="1" r:id="rId1"/>
@@ -714,13 +714,10 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -731,23 +728,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
+          <bgColor rgb="FFDBD2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -763,13 +744,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
+          <bgColor rgb="FF74FC79"/>
         </patternFill>
       </fill>
     </dxf>
@@ -777,7 +755,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -794,12 +783,23 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -807,15 +807,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
+          <bgColor rgb="FFDBD2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -831,13 +834,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
+          <bgColor rgb="FF74FC79"/>
         </patternFill>
       </fill>
     </dxf>
@@ -845,18 +845,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3307,15 +3307,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1912786</xdr:colOff>
+      <xdr:colOff>1756906</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>496225</xdr:rowOff>
+      <xdr:rowOff>491895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>234051</xdr:colOff>
+      <xdr:colOff>78171</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>352444</xdr:rowOff>
+      <xdr:rowOff>348114</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3347,8 +3347,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15874319" y="623225"/>
-          <a:ext cx="615732" cy="525086"/>
+          <a:off x="15676395" y="617452"/>
+          <a:ext cx="611594" cy="514310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4072,59 +4072,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2024095</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>501247</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257774</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>348460</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Graphic 92" descr="Caret Left with solid fill">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E77F14-9CF3-F54B-9C56-25C1B66DD438}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5212899" y="625486"/>
-          <a:ext cx="909998" cy="504646"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -4151,8 +4098,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5327650" y="18789073"/>
-          <a:ext cx="2426779" cy="509922"/>
+          <a:off x="5317729" y="18719800"/>
+          <a:ext cx="2433273" cy="507217"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -4300,8 +4247,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5341310" y="20334592"/>
-          <a:ext cx="2426779" cy="508467"/>
+          <a:off x="5331389" y="20262614"/>
+          <a:ext cx="2433273" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -4449,8 +4396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5325942" y="23511009"/>
-          <a:ext cx="2426779" cy="508467"/>
+          <a:off x="5316021" y="23433619"/>
+          <a:ext cx="2433273" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -4598,8 +4545,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5360947" y="21854071"/>
-          <a:ext cx="2426779" cy="508467"/>
+          <a:off x="5351026" y="21779386"/>
+          <a:ext cx="2433273" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -4747,8 +4694,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="25082567"/>
-          <a:ext cx="2426779" cy="508467"/>
+          <a:off x="5366394" y="25002471"/>
+          <a:ext cx="2433273" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -4913,8 +4860,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="26710476"/>
-          <a:ext cx="2426779" cy="508467"/>
+          <a:off x="5366394" y="26627674"/>
+          <a:ext cx="2433273" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5459,8 +5406,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5327650" y="29318527"/>
-          <a:ext cx="2426779" cy="509922"/>
+          <a:off x="5317729" y="29233019"/>
+          <a:ext cx="2433273" cy="507217"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5608,8 +5555,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5341310" y="30864046"/>
-          <a:ext cx="2426779" cy="508467"/>
+          <a:off x="5331389" y="30775833"/>
+          <a:ext cx="2433273" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5757,8 +5704,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5325942" y="34040464"/>
-          <a:ext cx="2426779" cy="508467"/>
+          <a:off x="5316021" y="33946838"/>
+          <a:ext cx="2433273" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5906,8 +5853,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5360947" y="32383525"/>
-          <a:ext cx="2426779" cy="508467"/>
+          <a:off x="5351026" y="32292605"/>
+          <a:ext cx="2433273" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6055,8 +6002,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="35612022"/>
-          <a:ext cx="2426779" cy="508467"/>
+          <a:off x="5366394" y="35515689"/>
+          <a:ext cx="2433273" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6221,8 +6168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="37239931"/>
-          <a:ext cx="2426779" cy="508467"/>
+          <a:off x="5366394" y="37140893"/>
+          <a:ext cx="2433273" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7608,8 +7555,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="735587" y="56738662"/>
-          <a:ext cx="1226386" cy="1232800"/>
+          <a:off x="728192" y="56609858"/>
+          <a:ext cx="1216644" cy="1230095"/>
           <a:chOff x="620888" y="57714444"/>
           <a:chExt cx="1411111" cy="1411111"/>
         </a:xfrm>
@@ -7728,59 +7675,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1746490</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>493464</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>67755</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>349683</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Graphic 2" descr="Caret Left with solid fill">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1703889F-13D3-F645-A046-39F258938A53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId31"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="15708023" y="620464"/>
-          <a:ext cx="615732" cy="525086"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>73923</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -11255,7 +11149,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16232907" y="39612456"/>
+          <a:off x="16227134" y="39510712"/>
           <a:ext cx="486582" cy="440398"/>
           <a:chOff x="14743545" y="39681728"/>
           <a:chExt cx="486582" cy="440398"/>
@@ -11860,7 +11754,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7793181" y="39635545"/>
+          <a:off x="7789754" y="39533801"/>
           <a:ext cx="420091" cy="547092"/>
           <a:chOff x="7793181" y="39635545"/>
           <a:chExt cx="420091" cy="547092"/>
@@ -12264,44 +12158,44 @@
   </sheetPr>
   <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T83" sqref="T83"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="2.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="1.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="0.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="26.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.8125" style="1"/>
+    <col min="4" max="4" width="3.6875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.3125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.3125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="2.3125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.1875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.3125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.3125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.8125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.8125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.8125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.6875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.1875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.3125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.1875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="0.1875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.3125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.6875" style="1" customWidth="1"/>
     <col min="25" max="25" width="2" style="1" customWidth="1"/>
     <col min="26" max="26" width="22" style="1" customWidth="1"/>
-    <col min="27" max="28" width="10.83203125" style="1"/>
+    <col min="27" max="28" width="10.8125" style="1"/>
     <col min="29" max="29" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="37" width="25.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.83203125" style="1"/>
+    <col min="30" max="37" width="25.8125" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -12338,7 +12232,7 @@
       <c r="AJ1" s="24"/>
       <c r="AK1" s="24"/>
     </row>
-    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12400,7 +12294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -12429,7 +12323,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -12458,7 +12352,7 @@
       <c r="Z4" s="40"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -12487,7 +12381,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12516,7 +12410,7 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:37" ht="4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="4.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -12545,7 +12439,7 @@
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -12554,7 +12448,7 @@
       <c r="J8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:37" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -12563,7 +12457,7 @@
       <c r="J9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:37" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="76.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -12592,7 +12486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -12622,7 +12516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -12631,7 +12525,7 @@
       <c r="J12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -12640,7 +12534,7 @@
       <c r="J13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:37" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="64.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -12666,7 +12560,7 @@
       <c r="U14" s="20"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -12692,7 +12586,7 @@
       <c r="U15" s="14"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -12701,7 +12595,7 @@
       <c r="J16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -12713,7 +12607,7 @@
       <c r="J17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -12725,7 +12619,7 @@
       <c r="J18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -12734,7 +12628,7 @@
       <c r="J19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -12755,7 +12649,7 @@
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -12776,7 +12670,7 @@
       </c>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -12785,7 +12679,7 @@
       <c r="J22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="59" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -12800,7 +12694,7 @@
       </c>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -12815,7 +12709,7 @@
       </c>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -12824,7 +12718,7 @@
       <c r="J25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12833,7 +12727,7 @@
       <c r="J26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -12842,7 +12736,7 @@
       <c r="J27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -12868,7 +12762,7 @@
       <c r="U28" s="20"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -12894,7 +12788,7 @@
       <c r="U29"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -12903,7 +12797,7 @@
       <c r="J30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -12915,7 +12809,7 @@
       <c r="J31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -12927,7 +12821,7 @@
       <c r="J32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -12936,7 +12830,7 @@
       <c r="J33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12957,7 +12851,7 @@
       </c>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -12978,7 +12872,7 @@
       </c>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12987,7 +12881,7 @@
       <c r="J36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="67.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -13002,7 +12896,7 @@
       </c>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -13017,7 +12911,7 @@
       </c>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -13026,7 +12920,7 @@
       <c r="J39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -13035,7 +12929,7 @@
       <c r="J40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -13044,7 +12938,7 @@
       <c r="J41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -13063,7 +12957,7 @@
       <c r="U42" s="20"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -13082,7 +12976,7 @@
       <c r="U43"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13091,7 +12985,7 @@
       <c r="J44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13112,7 +13006,7 @@
       </c>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13133,7 +13027,7 @@
       </c>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13142,7 +13036,7 @@
       <c r="J47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -13163,7 +13057,7 @@
       </c>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -13184,7 +13078,7 @@
       </c>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -13195,7 +13089,7 @@
       <c r="J50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -13213,7 +13107,7 @@
       <c r="R51"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -13230,7 +13124,7 @@
       <c r="R52"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -13239,7 +13133,7 @@
       <c r="J53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -13255,7 +13149,7 @@
       <c r="R54"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -13271,7 +13165,7 @@
       <c r="R55"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -13280,7 +13174,7 @@
       <c r="J56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -13298,7 +13192,7 @@
       </c>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -13316,7 +13210,7 @@
       </c>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -13325,7 +13219,7 @@
       <c r="J59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -13334,7 +13228,7 @@
       <c r="J60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -13343,7 +13237,7 @@
       <c r="J61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -13362,7 +13256,7 @@
       <c r="U62" s="20"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -13381,7 +13275,7 @@
       <c r="U63" s="14"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -13390,7 +13284,7 @@
       <c r="J64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -13411,7 +13305,7 @@
       </c>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -13432,7 +13326,7 @@
       </c>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -13441,7 +13335,7 @@
       <c r="J67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -13462,7 +13356,7 @@
       </c>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -13483,7 +13377,7 @@
       </c>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -13494,7 +13388,7 @@
       <c r="J70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -13514,7 +13408,7 @@
       <c r="R71"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -13533,7 +13427,7 @@
       <c r="R72"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -13542,7 +13436,7 @@
       <c r="J73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -13558,7 +13452,7 @@
       <c r="R74"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -13574,7 +13468,7 @@
       <c r="R75"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -13583,7 +13477,7 @@
       <c r="J76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -13601,7 +13495,7 @@
       </c>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -13619,7 +13513,7 @@
       </c>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -13628,12 +13522,12 @@
       <c r="J79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E80" s="2"/>
       <c r="J80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -13642,7 +13536,7 @@
       <c r="J81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -13670,7 +13564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -13698,7 +13592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -13707,7 +13601,7 @@
       <c r="J84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -13734,7 +13628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -13761,7 +13655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -13770,7 +13664,7 @@
       <c r="J87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -13797,7 +13691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -13824,7 +13718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -13835,7 +13729,7 @@
       <c r="J90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -13863,7 +13757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -13890,7 +13784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -13899,7 +13793,7 @@
       <c r="J93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -13920,7 +13814,7 @@
       <c r="R94"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -13941,7 +13835,7 @@
       <c r="R95"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -13953,7 +13847,7 @@
       <c r="R96"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -13972,7 +13866,7 @@
       <c r="R97"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -13991,7 +13885,7 @@
       <c r="R98"/>
       <c r="V98" s="2"/>
     </row>
-    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -14000,7 +13894,7 @@
       <c r="J99" s="2"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E100" s="2"/>
       <c r="F100" s="16"/>
       <c r="G100" s="13" t="s">
@@ -14009,7 +13903,7 @@
       <c r="J100" s="2"/>
       <c r="V100" s="2"/>
     </row>
-    <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E101" s="2"/>
       <c r="G101" s="34" t="s">
         <v>82</v>
@@ -14017,13 +13911,13 @@
       <c r="J101" s="2"/>
       <c r="V101" s="2"/>
     </row>
-    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E102" s="2"/>
       <c r="G102" s="17"/>
       <c r="J102" s="2"/>
       <c r="V102" s="2"/>
     </row>
-    <row r="103" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E103" s="2"/>
       <c r="G103" s="17"/>
       <c r="J103" s="2"/>
@@ -14041,7 +13935,7 @@
       </c>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E104" s="2"/>
       <c r="J104" s="2"/>
       <c r="L104" s="34" t="s">
@@ -14058,12 +13952,12 @@
       </c>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E105" s="2"/>
       <c r="J105" s="2"/>
       <c r="V105" s="2"/>
     </row>
-    <row r="106" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E106" s="2"/>
       <c r="J106" s="2"/>
       <c r="L106" s="13" t="s">
@@ -14074,7 +13968,7 @@
       </c>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E107" s="2"/>
       <c r="J107" s="2"/>
       <c r="L107" s="34" t="s">
@@ -14085,17 +13979,17 @@
       </c>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E108" s="2"/>
       <c r="J108" s="2"/>
       <c r="V108" s="2"/>
     </row>
-    <row r="109" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E109" s="2"/>
       <c r="J109" s="2"/>
       <c r="V109" s="2"/>
     </row>
-    <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -14104,7 +13998,7 @@
       <c r="J110" s="2"/>
       <c r="V110" s="2"/>
     </row>
-    <row r="111" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -14137,7 +14031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -14170,7 +14064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -14179,7 +14073,7 @@
       <c r="J113" s="2"/>
       <c r="V113" s="2"/>
     </row>
-    <row r="114" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -14209,7 +14103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -14239,7 +14133,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -14248,7 +14142,7 @@
       <c r="J116" s="2"/>
       <c r="V116" s="2"/>
     </row>
-    <row r="117" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A117" s="11"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -14279,7 +14173,7 @@
       <c r="AB117"/>
       <c r="AC117"/>
     </row>
-    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A118" s="11"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -14310,7 +14204,7 @@
       <c r="AB118"/>
       <c r="AC118"/>
     </row>
-    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A119" s="11"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -14341,7 +14235,7 @@
       <c r="AB119"/>
       <c r="AC119"/>
     </row>
-    <row r="120" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A120" s="11"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -14372,7 +14266,7 @@
       <c r="AB120"/>
       <c r="AC120"/>
     </row>
-    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A121" s="11"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -14403,7 +14297,7 @@
       <c r="AB121"/>
       <c r="AC121"/>
     </row>
-    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A122" s="11"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -14434,7 +14328,7 @@
       <c r="AB122"/>
       <c r="AC122"/>
     </row>
-    <row r="123" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -14464,7 +14358,7 @@
       <c r="AB123"/>
       <c r="AC123"/>
     </row>
-    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -14494,7 +14388,7 @@
       <c r="AB124"/>
       <c r="AC124"/>
     </row>
-    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -14524,7 +14418,7 @@
       <c r="AB125"/>
       <c r="AC125"/>
     </row>
-    <row r="126" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -14554,7 +14448,7 @@
       <c r="AB126"/>
       <c r="AC126"/>
     </row>
-    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -14584,7 +14478,7 @@
       <c r="AB127"/>
       <c r="AC127"/>
     </row>
-    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -14614,7 +14508,7 @@
       <c r="AB128"/>
       <c r="AC128"/>
     </row>
-    <row r="129" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -14644,7 +14538,7 @@
       <c r="AB129"/>
       <c r="AC129"/>
     </row>
-    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -14674,7 +14568,7 @@
       <c r="AB130"/>
       <c r="AC130"/>
     </row>
-    <row r="131" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -14704,7 +14598,7 @@
       <c r="AB131"/>
       <c r="AC131"/>
     </row>
-    <row r="132" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -14734,7 +14628,7 @@
       <c r="AB132"/>
       <c r="AC132"/>
     </row>
-    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -14764,13 +14658,13 @@
       <c r="AB133"/>
       <c r="AC133"/>
     </row>
-    <row r="135" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="138" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="141" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="144" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="147" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="150" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="153" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F4:H4"/>
@@ -14778,26 +14672,26 @@
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
   <conditionalFormatting sqref="A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 A30:AA41 A42:Q42 S42:AA42 A43:T43 V43:AA43 A44:AA82 A83:T83 V83:AA83 A84:AA210">
-    <cfRule type="cellIs" dxfId="14" priority="241" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="14" priority="235" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="240" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="13" priority="236" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="239" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
+    <cfRule type="cellIs" dxfId="12" priority="237" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="238" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="237" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
+    <cfRule type="cellIs" dxfId="10" priority="239" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="236" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="9" priority="240" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="235" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="8" priority="241" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:AA82 A83:T83 V83:AA83 A84:AA210 A8:AA10 A11:R11 U11:AA11 A12:AA14 A15:Q15 S15 U15:AA15 A16:AA28 A29:Q29 V29:AA29 A30:AA41 A42:Q42 S42:AA42 A43:T43 V43:AA43">
@@ -14806,26 +14700,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49 G69 G72 L83 R83 X83 L86 N86 P86 R86 X86 G89 L89 N89 P89 R89 X89 G92 L92 N92 P92 R92 X92 G95 L95 N95 G98 G101 L104 N104 P104 R104 L107 N107">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
